--- a/backend/templates/214-18-micro-white.xlsx
+++ b/backend/templates/214-18-micro-white.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cursor AI Projects\SwansonIndiaPortal\backend\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA72C04-5CEA-4AE1-AEB2-A2C074D59A7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{605937F5-C307-4B44-8699-3D516AA00C52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="751" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="751" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Page1" sheetId="1" r:id="rId1"/>
@@ -1646,62 +1646,51 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="39" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1713,9 +1702,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1742,53 +1728,128 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="39" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1802,71 +1863,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1946,7 +1946,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="常规 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="16">
     <dxf>
       <fill>
         <patternFill>
@@ -1958,50 +1958,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6177,8 +6133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL79"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -6191,86 +6147,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="45" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="141" t="s">
+      <c r="A1" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141"/>
+      <c r="B1" s="137"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="137"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="137"/>
+      <c r="H1" s="137"/>
+      <c r="I1" s="137"/>
+      <c r="J1" s="137"/>
       <c r="K1" s="43"/>
       <c r="L1" s="44" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:38" s="45" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A2" s="142" t="s">
+      <c r="A2" s="138" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="142"/>
-      <c r="C2" s="142"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="142"/>
-      <c r="F2" s="142"/>
-      <c r="G2" s="142"/>
-      <c r="H2" s="142"/>
-      <c r="I2" s="142"/>
-      <c r="J2" s="142"/>
+      <c r="B2" s="138"/>
+      <c r="C2" s="138"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="138"/>
+      <c r="G2" s="138"/>
+      <c r="H2" s="138"/>
+      <c r="I2" s="138"/>
+      <c r="J2" s="138"/>
       <c r="K2" s="46"/>
       <c r="L2" s="47" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:38" s="45" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A3" s="143"/>
-      <c r="B3" s="143"/>
-      <c r="C3" s="143"/>
-      <c r="D3" s="143"/>
-      <c r="E3" s="143"/>
-      <c r="F3" s="143"/>
-      <c r="G3" s="143"/>
-      <c r="H3" s="143"/>
-      <c r="I3" s="143"/>
-      <c r="J3" s="143"/>
+      <c r="A3" s="139"/>
+      <c r="B3" s="139"/>
+      <c r="C3" s="139"/>
+      <c r="D3" s="139"/>
+      <c r="E3" s="139"/>
+      <c r="F3" s="139"/>
+      <c r="G3" s="139"/>
+      <c r="H3" s="139"/>
+      <c r="I3" s="139"/>
+      <c r="J3" s="139"/>
       <c r="K3" s="48" t="s">
         <v>16</v>
       </c>
       <c r="L3" s="49"/>
     </row>
     <row r="4" spans="1:38" s="51" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A4" s="146" t="s">
+      <c r="A4" s="141" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="147"/>
-      <c r="C4" s="144"/>
-      <c r="D4" s="144"/>
+      <c r="B4" s="142"/>
+      <c r="C4" s="140"/>
+      <c r="D4" s="140"/>
       <c r="E4" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="192"/>
+      <c r="F4" s="122"/>
       <c r="G4" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="144"/>
-      <c r="I4" s="144"/>
-      <c r="J4" s="151" t="s">
+      <c r="H4" s="140"/>
+      <c r="I4" s="140"/>
+      <c r="J4" s="146" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="151"/>
+      <c r="K4" s="146"/>
       <c r="L4" s="94"/>
     </row>
     <row r="5" spans="1:38" s="51" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A5" s="148" t="s">
+      <c r="A5" s="143" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="149"/>
-      <c r="C5" s="145"/>
-      <c r="D5" s="145"/>
+      <c r="B5" s="144"/>
+      <c r="C5" s="134"/>
+      <c r="D5" s="134"/>
       <c r="E5" s="102" t="s">
         <v>4</v>
       </c>
@@ -6278,66 +6234,66 @@
       <c r="G5" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="150"/>
-      <c r="I5" s="150"/>
-      <c r="J5" s="152" t="s">
+      <c r="H5" s="145"/>
+      <c r="I5" s="145"/>
+      <c r="J5" s="147" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="152"/>
+      <c r="K5" s="147"/>
       <c r="L5" s="95"/>
     </row>
     <row r="6" spans="1:38" s="51" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="126" t="s">
+      <c r="A6" s="165" t="s">
         <v>112</v>
       </c>
-      <c r="B6" s="127"/>
-      <c r="C6" s="127"/>
+      <c r="B6" s="166"/>
+      <c r="C6" s="166"/>
       <c r="D6" s="110"/>
-      <c r="E6" s="153"/>
-      <c r="F6" s="153"/>
+      <c r="E6" s="167"/>
+      <c r="F6" s="167"/>
       <c r="G6" s="98"/>
-      <c r="H6" s="163"/>
-      <c r="I6" s="163"/>
-      <c r="J6" s="163"/>
-      <c r="K6" s="164"/>
+      <c r="H6" s="123"/>
+      <c r="I6" s="123"/>
+      <c r="J6" s="123"/>
+      <c r="K6" s="124"/>
       <c r="L6" s="53"/>
     </row>
     <row r="7" spans="1:38" s="54" customFormat="1" ht="41.25" customHeight="1">
-      <c r="A7" s="154" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="155"/>
-      <c r="C7" s="155"/>
-      <c r="D7" s="155" t="s">
+      <c r="A7" s="168" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="133"/>
+      <c r="C7" s="133"/>
+      <c r="D7" s="133" t="s">
         <v>110</v>
       </c>
-      <c r="E7" s="155" t="s">
+      <c r="E7" s="133" t="s">
         <v>111</v>
       </c>
-      <c r="F7" s="155" t="s">
+      <c r="F7" s="133" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="155" t="s">
+      <c r="G7" s="133" t="s">
         <v>117</v>
       </c>
-      <c r="H7" s="158" t="s">
+      <c r="H7" s="130" t="s">
         <v>116</v>
       </c>
-      <c r="I7" s="159"/>
-      <c r="J7" s="159"/>
-      <c r="K7" s="160"/>
-      <c r="L7" s="161" t="s">
+      <c r="I7" s="131"/>
+      <c r="J7" s="131"/>
+      <c r="K7" s="132"/>
+      <c r="L7" s="135" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:38" s="54" customFormat="1" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A8" s="156"/>
-      <c r="B8" s="145"/>
-      <c r="C8" s="145"/>
-      <c r="D8" s="145"/>
-      <c r="E8" s="145"/>
-      <c r="F8" s="145"/>
-      <c r="G8" s="145"/>
+      <c r="A8" s="169"/>
+      <c r="B8" s="134"/>
+      <c r="C8" s="134"/>
+      <c r="D8" s="134"/>
+      <c r="E8" s="134"/>
+      <c r="F8" s="134"/>
+      <c r="G8" s="134"/>
       <c r="H8" s="55">
         <v>1</v>
       </c>
@@ -6350,7 +6306,7 @@
       <c r="K8" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="L8" s="162"/>
+      <c r="L8" s="136"/>
     </row>
     <row r="9" spans="1:38" ht="19.5" customHeight="1">
       <c r="A9" s="56"/>
@@ -6437,8 +6393,8 @@
         <v>#DIV/0!</v>
       </c>
       <c r="L13" s="65"/>
-      <c r="N13" s="157"/>
-      <c r="O13" s="157"/>
+      <c r="N13" s="128"/>
+      <c r="O13" s="128"/>
     </row>
     <row r="14" spans="1:38" ht="19.5" customHeight="1">
       <c r="A14" s="63"/>
@@ -6847,10 +6803,10 @@
         <v>#DIV/0!</v>
       </c>
       <c r="L37" s="65"/>
-      <c r="P37" s="165"/>
-      <c r="Q37" s="165"/>
-      <c r="R37" s="165"/>
-      <c r="S37" s="165"/>
+      <c r="P37" s="125"/>
+      <c r="Q37" s="125"/>
+      <c r="R37" s="125"/>
+      <c r="S37" s="125"/>
     </row>
     <row r="38" spans="1:19" ht="19.5" customHeight="1" thickBot="1">
       <c r="A38" s="63"/>
@@ -6870,11 +6826,11 @@
       <c r="L38" s="61"/>
     </row>
     <row r="39" spans="1:19" ht="16.5" customHeight="1">
-      <c r="A39" s="135" t="s">
+      <c r="A39" s="156" t="s">
         <v>19</v>
       </c>
-      <c r="B39" s="136"/>
-      <c r="C39" s="137"/>
+      <c r="B39" s="157"/>
+      <c r="C39" s="158"/>
       <c r="D39" s="103" t="e">
         <f>AVERAGE(D9:D38)</f>
         <v>#DIV/0!</v>
@@ -6891,24 +6847,24 @@
         <f>AVERAGE(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H39" s="130" t="e">
+      <c r="H39" s="151" t="e">
         <f>AVERAGE(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I39" s="130"/>
-      <c r="J39" s="130"/>
-      <c r="K39" s="130"/>
+      <c r="I39" s="151"/>
+      <c r="J39" s="151"/>
+      <c r="K39" s="151"/>
       <c r="L39" s="68" t="e">
         <f>AVERAGE(L9:L38)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="40" spans="1:19" ht="16.5" customHeight="1">
-      <c r="A40" s="138" t="s">
+      <c r="A40" s="159" t="s">
         <v>20</v>
       </c>
-      <c r="B40" s="139"/>
-      <c r="C40" s="140"/>
+      <c r="B40" s="160"/>
+      <c r="C40" s="161"/>
       <c r="D40" s="105">
         <f>MIN(D9:D38)</f>
         <v>0</v>
@@ -6925,24 +6881,24 @@
         <f>MIN(G9:G38)</f>
         <v>0</v>
       </c>
-      <c r="H40" s="128" t="e">
+      <c r="H40" s="149" t="e">
         <f>MIN(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I40" s="128"/>
-      <c r="J40" s="128"/>
-      <c r="K40" s="128"/>
+      <c r="I40" s="149"/>
+      <c r="J40" s="149"/>
+      <c r="K40" s="149"/>
       <c r="L40" s="70">
         <f>MIN(L9:L38)</f>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:19" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A41" s="123" t="s">
+      <c r="A41" s="162" t="s">
         <v>21</v>
       </c>
-      <c r="B41" s="124"/>
-      <c r="C41" s="125"/>
+      <c r="B41" s="163"/>
+      <c r="C41" s="164"/>
       <c r="D41" s="104">
         <f>MAX(D9:D38)</f>
         <v>0</v>
@@ -6959,13 +6915,13 @@
         <f>MAX(G9:G38)</f>
         <v>0</v>
       </c>
-      <c r="H41" s="129" t="e">
+      <c r="H41" s="150" t="e">
         <f>MAX(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I41" s="129"/>
-      <c r="J41" s="129"/>
-      <c r="K41" s="129"/>
+      <c r="I41" s="150"/>
+      <c r="J41" s="150"/>
+      <c r="K41" s="150"/>
       <c r="L41" s="72">
         <f>MAX(L9:L38)</f>
         <v>0</v>
@@ -6975,56 +6931,56 @@
       <c r="A42" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="131"/>
-      <c r="C42" s="131"/>
+      <c r="B42" s="152"/>
+      <c r="C42" s="152"/>
       <c r="D42" s="106" t="s">
         <v>13</v>
       </c>
       <c r="E42" s="74"/>
       <c r="F42" s="62"/>
-      <c r="G42" s="166" t="s">
+      <c r="G42" s="126" t="s">
         <v>14</v>
       </c>
-      <c r="H42" s="166"/>
-      <c r="I42" s="132"/>
-      <c r="J42" s="132"/>
-      <c r="K42" s="132"/>
+      <c r="H42" s="126"/>
+      <c r="I42" s="153"/>
+      <c r="J42" s="153"/>
+      <c r="K42" s="153"/>
       <c r="L42" s="66" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:19" s="45" customFormat="1" ht="15.75" customHeight="1">
       <c r="A43" s="73"/>
-      <c r="B43" s="133"/>
-      <c r="C43" s="133"/>
+      <c r="B43" s="154"/>
+      <c r="C43" s="154"/>
       <c r="D43" s="75"/>
       <c r="E43" s="73"/>
       <c r="F43" s="62"/>
       <c r="G43" s="62"/>
       <c r="H43" s="76"/>
-      <c r="I43" s="134"/>
-      <c r="J43" s="134"/>
-      <c r="K43" s="134"/>
+      <c r="I43" s="155"/>
+      <c r="J43" s="155"/>
+      <c r="K43" s="155"/>
     </row>
     <row r="44" spans="1:19" s="51" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A44" s="167" t="s">
+      <c r="A44" s="127" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="167"/>
-      <c r="C44" s="167"/>
+      <c r="B44" s="127"/>
+      <c r="C44" s="127"/>
       <c r="E44" s="48" t="s">
         <v>122</v>
       </c>
-      <c r="F44" s="165" t="s">
+      <c r="F44" s="125" t="s">
         <v>123</v>
       </c>
-      <c r="G44" s="165"/>
+      <c r="G44" s="125"/>
     </row>
     <row r="45" spans="1:19" s="45" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A45" s="157" t="s">
+      <c r="A45" s="128" t="s">
         <v>17</v>
       </c>
-      <c r="B45" s="157"/>
+      <c r="B45" s="128"/>
       <c r="C45" s="66"/>
       <c r="D45" s="62"/>
       <c r="E45" s="62"/>
@@ -7032,10 +6988,10 @@
       <c r="G45" s="62"/>
       <c r="H45" s="62"/>
       <c r="I45" s="62"/>
-      <c r="J45" s="168" t="s">
+      <c r="J45" s="129" t="s">
         <v>114</v>
       </c>
-      <c r="K45" s="168"/>
+      <c r="K45" s="129"/>
     </row>
     <row r="48" spans="1:19" ht="15.75" customHeight="1">
       <c r="B48" s="77" t="s">
@@ -7046,67 +7002,50 @@
       <c r="J52" s="78"/>
     </row>
     <row r="76" spans="3:12" ht="15.75" customHeight="1">
-      <c r="C76" s="122"/>
-      <c r="D76" s="122"/>
-      <c r="G76" s="122"/>
-      <c r="H76" s="122"/>
-      <c r="I76" s="122"/>
-      <c r="J76" s="122"/>
-      <c r="K76" s="122"/>
-      <c r="L76" s="122"/>
+      <c r="C76" s="148"/>
+      <c r="D76" s="148"/>
+      <c r="G76" s="148"/>
+      <c r="H76" s="148"/>
+      <c r="I76" s="148"/>
+      <c r="J76" s="148"/>
+      <c r="K76" s="148"/>
+      <c r="L76" s="148"/>
     </row>
     <row r="77" spans="3:12" ht="15.75" customHeight="1">
-      <c r="C77" s="122"/>
-      <c r="D77" s="122"/>
-      <c r="E77" s="122"/>
-      <c r="G77" s="122"/>
-      <c r="H77" s="122"/>
-      <c r="I77" s="122"/>
-      <c r="J77" s="122"/>
-      <c r="K77" s="122"/>
-      <c r="L77" s="122"/>
+      <c r="C77" s="148"/>
+      <c r="D77" s="148"/>
+      <c r="E77" s="148"/>
+      <c r="G77" s="148"/>
+      <c r="H77" s="148"/>
+      <c r="I77" s="148"/>
+      <c r="J77" s="148"/>
+      <c r="K77" s="148"/>
+      <c r="L77" s="148"/>
     </row>
     <row r="78" spans="3:12" ht="15.75" customHeight="1">
-      <c r="C78" s="122"/>
-      <c r="D78" s="122"/>
-      <c r="G78" s="122"/>
-      <c r="H78" s="122"/>
-      <c r="I78" s="122"/>
-      <c r="J78" s="122"/>
-      <c r="K78" s="122"/>
-      <c r="L78" s="122"/>
+      <c r="C78" s="148"/>
+      <c r="D78" s="148"/>
+      <c r="G78" s="148"/>
+      <c r="H78" s="148"/>
+      <c r="I78" s="148"/>
+      <c r="J78" s="148"/>
+      <c r="K78" s="148"/>
+      <c r="L78" s="148"/>
     </row>
     <row r="79" spans="3:12" ht="15.75" customHeight="1">
-      <c r="C79" s="122"/>
-      <c r="D79" s="122"/>
+      <c r="C79" s="148"/>
+      <c r="D79" s="148"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="47">
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="P37:S37"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C77:E77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="A7:C8"/>
     <mergeCell ref="C79:D79"/>
     <mergeCell ref="G76:H76"/>
     <mergeCell ref="H40:K40"/>
@@ -7123,47 +7062,64 @@
     <mergeCell ref="I78:L78"/>
     <mergeCell ref="G77:H77"/>
     <mergeCell ref="G78:H78"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C77:E77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="A7:C8"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="P37:S37"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="F7:F8"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <conditionalFormatting sqref="D9:D41">
-    <cfRule type="cellIs" dxfId="19" priority="2" operator="notBetween">
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="notBetween">
       <formula>15.7</formula>
       <formula>20.3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9:E41">
-    <cfRule type="cellIs" dxfId="18" priority="6" operator="notBetween">
+    <cfRule type="cellIs" dxfId="14" priority="6" operator="notBetween">
       <formula>0.3</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:F41">
-    <cfRule type="cellIs" dxfId="17" priority="5" operator="notBetween">
+    <cfRule type="cellIs" dxfId="13" priority="5" operator="notBetween">
       <formula>0.1</formula>
       <formula>0.35</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:G41">
-    <cfRule type="cellIs" dxfId="16" priority="4" operator="notBetween">
+    <cfRule type="cellIs" dxfId="12" priority="4" operator="notBetween">
       <formula>57</formula>
       <formula>63</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:K41">
-    <cfRule type="cellIs" dxfId="15" priority="3" operator="notBetween">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="notBetween">
       <formula>18.2</formula>
       <formula>31.2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L9:L41">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7176,8 +7132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6:K6"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7188,64 +7144,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="45" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="141" t="s">
+      <c r="A1" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
+      <c r="B1" s="137"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="137"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="137"/>
+      <c r="H1" s="137"/>
+      <c r="I1" s="137"/>
       <c r="J1" s="43"/>
       <c r="K1" s="44" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="45" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="142" t="s">
+      <c r="A2" s="138" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="142"/>
-      <c r="C2" s="142"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="142"/>
-      <c r="F2" s="142"/>
-      <c r="G2" s="142"/>
-      <c r="H2" s="142"/>
-      <c r="I2" s="142"/>
+      <c r="B2" s="138"/>
+      <c r="C2" s="138"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="138"/>
+      <c r="G2" s="138"/>
+      <c r="H2" s="138"/>
+      <c r="I2" s="138"/>
       <c r="J2" s="46"/>
       <c r="K2" s="47" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="45" customFormat="1" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A3" s="143"/>
-      <c r="B3" s="143"/>
-      <c r="C3" s="143"/>
-      <c r="D3" s="143"/>
-      <c r="E3" s="143"/>
-      <c r="F3" s="143"/>
-      <c r="G3" s="143"/>
-      <c r="H3" s="143"/>
-      <c r="I3" s="143"/>
+      <c r="A3" s="139"/>
+      <c r="B3" s="139"/>
+      <c r="C3" s="139"/>
+      <c r="D3" s="139"/>
+      <c r="E3" s="139"/>
+      <c r="F3" s="139"/>
+      <c r="G3" s="139"/>
+      <c r="H3" s="139"/>
+      <c r="I3" s="139"/>
       <c r="J3" s="48" t="s">
         <v>16</v>
       </c>
       <c r="K3" s="49"/>
     </row>
     <row r="4" spans="1:11" s="51" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A4" s="169" t="s">
+      <c r="A4" s="189" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="170"/>
-      <c r="C4" s="171">
+      <c r="B4" s="190"/>
+      <c r="C4" s="191">
         <f>Page1!C4</f>
         <v>0</v>
       </c>
-      <c r="D4" s="172"/>
+      <c r="D4" s="192"/>
       <c r="E4" s="121" t="s">
         <v>3</v>
       </c>
@@ -7267,18 +7223,18 @@
         <f>Page1!L4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="173"/>
+      <c r="K4" s="194"/>
     </row>
     <row r="5" spans="1:11" s="51" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A5" s="175" t="s">
+      <c r="A5" s="174" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="176"/>
-      <c r="C5" s="177">
+      <c r="B5" s="175"/>
+      <c r="C5" s="176">
         <f>Page1!C5</f>
         <v>0</v>
       </c>
-      <c r="D5" s="178"/>
+      <c r="D5" s="177"/>
       <c r="E5" s="113" t="s">
         <v>4</v>
       </c>
@@ -7296,33 +7252,33 @@
       <c r="I5" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="194">
+      <c r="J5" s="170">
         <f>Page1!L5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="190"/>
+      <c r="K5" s="171"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="179" t="s">
+      <c r="A6" s="178" t="s">
         <v>112</v>
       </c>
-      <c r="B6" s="180"/>
-      <c r="C6" s="180"/>
-      <c r="D6" s="174"/>
-      <c r="E6" s="174"/>
-      <c r="F6" s="174"/>
-      <c r="G6" s="174"/>
-      <c r="H6" s="174"/>
-      <c r="I6" s="174"/>
-      <c r="J6" s="174"/>
-      <c r="K6" s="191"/>
+      <c r="B6" s="179"/>
+      <c r="C6" s="179"/>
+      <c r="D6" s="172"/>
+      <c r="E6" s="172"/>
+      <c r="F6" s="172"/>
+      <c r="G6" s="172"/>
+      <c r="H6" s="172"/>
+      <c r="I6" s="172"/>
+      <c r="J6" s="172"/>
+      <c r="K6" s="173"/>
     </row>
     <row r="7" spans="1:11" s="54" customFormat="1" ht="61.5" customHeight="1">
-      <c r="A7" s="154" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="155"/>
-      <c r="C7" s="155"/>
+      <c r="A7" s="168" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="133"/>
+      <c r="C7" s="133"/>
       <c r="D7" s="111" t="s">
         <v>24</v>
       </c>
@@ -8009,119 +7965,119 @@
       <c r="K37" s="84"/>
     </row>
     <row r="38" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A38" s="181" t="s">
+      <c r="A38" s="180" t="s">
         <v>19</v>
       </c>
-      <c r="B38" s="182"/>
-      <c r="C38" s="183"/>
+      <c r="B38" s="181"/>
+      <c r="C38" s="182"/>
       <c r="D38" s="118" t="e">
-        <f>AVERAGE(D8:D37)</f>
+        <f t="shared" ref="D38:K38" si="0">AVERAGE(D8:D37)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E38" s="118" t="e">
-        <f>AVERAGE(E8:E37)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F38" s="118" t="e">
-        <f>AVERAGE(F8:F37)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G38" s="118" t="e">
-        <f>AVERAGE(G8:G37)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H38" s="67" t="e">
-        <f>AVERAGE(H8:H37)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I38" s="67" t="e">
-        <f>AVERAGE(I8:I37)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J38" s="67" t="e">
-        <f>AVERAGE(J8:J37)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K38" s="88" t="e">
-        <f>AVERAGE(K8:K37)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A39" s="184" t="s">
+      <c r="A39" s="183" t="s">
         <v>20</v>
       </c>
-      <c r="B39" s="185"/>
-      <c r="C39" s="186"/>
+      <c r="B39" s="184"/>
+      <c r="C39" s="185"/>
       <c r="D39" s="119">
-        <f>MIN(D8:D37)</f>
+        <f t="shared" ref="D39:K39" si="1">MIN(D8:D37)</f>
         <v>0</v>
       </c>
       <c r="E39" s="119">
-        <f>MIN(E8:E37)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F39" s="119">
-        <f>MIN(F8:F37)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G39" s="119">
-        <f>MIN(G8:G37)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H39" s="69">
-        <f>MIN(H8:H37)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I39" s="69">
-        <f>MIN(I8:I37)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J39" s="69">
-        <f>MIN(J8:J37)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K39" s="89">
-        <f>MIN(K8:K37)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A40" s="187" t="s">
+      <c r="A40" s="186" t="s">
         <v>21</v>
       </c>
-      <c r="B40" s="188"/>
-      <c r="C40" s="189"/>
+      <c r="B40" s="187"/>
+      <c r="C40" s="188"/>
       <c r="D40" s="117">
-        <f>MAX(D8:D37)</f>
+        <f t="shared" ref="D40:K40" si="2">MAX(D8:D37)</f>
         <v>0</v>
       </c>
       <c r="E40" s="117">
-        <f>MAX(E8:E37)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F40" s="117">
-        <f>MAX(F8:F37)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G40" s="117">
-        <f>MAX(G8:G37)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H40" s="71">
-        <f>MAX(H8:H37)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I40" s="71">
-        <f>MAX(I8:I37)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J40" s="71">
-        <f>MAX(J8:J37)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K40" s="90">
-        <f>MAX(K8:K37)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -8129,55 +8085,55 @@
       <c r="A41" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="B41" s="131"/>
-      <c r="C41" s="131"/>
+      <c r="B41" s="152"/>
+      <c r="C41" s="152"/>
       <c r="D41" s="115" t="s">
         <v>13</v>
       </c>
       <c r="E41" s="74"/>
       <c r="F41" s="62"/>
-      <c r="G41" s="166" t="s">
+      <c r="G41" s="126" t="s">
         <v>14</v>
       </c>
-      <c r="H41" s="166"/>
-      <c r="I41" s="132"/>
-      <c r="J41" s="132"/>
+      <c r="H41" s="126"/>
+      <c r="I41" s="153"/>
+      <c r="J41" s="153"/>
       <c r="K41" s="66" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:11" s="45" customFormat="1" ht="15.75" customHeight="1">
       <c r="A42" s="73"/>
-      <c r="B42" s="133"/>
-      <c r="C42" s="133"/>
+      <c r="B42" s="154"/>
+      <c r="C42" s="154"/>
       <c r="D42" s="75"/>
       <c r="E42" s="73"/>
       <c r="F42" s="62"/>
       <c r="G42" s="62"/>
       <c r="H42" s="76"/>
-      <c r="I42" s="134"/>
-      <c r="J42" s="134"/>
+      <c r="I42" s="155"/>
+      <c r="J42" s="155"/>
       <c r="K42" s="91"/>
     </row>
     <row r="43" spans="1:11" s="51" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A43" s="167" t="s">
+      <c r="A43" s="127" t="s">
         <v>12</v>
       </c>
-      <c r="B43" s="167"/>
-      <c r="C43" s="167"/>
+      <c r="B43" s="127"/>
+      <c r="C43" s="127"/>
       <c r="E43" s="48" t="s">
         <v>122</v>
       </c>
-      <c r="F43" s="165" t="s">
+      <c r="F43" s="125" t="s">
         <v>123</v>
       </c>
-      <c r="G43" s="165"/>
+      <c r="G43" s="125"/>
     </row>
     <row r="44" spans="1:11" s="45" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A44" s="157" t="s">
+      <c r="A44" s="128" t="s">
         <v>17</v>
       </c>
-      <c r="B44" s="157"/>
+      <c r="B44" s="128"/>
       <c r="C44" s="66"/>
       <c r="D44" s="62"/>
       <c r="E44" s="62"/>
@@ -8185,18 +8141,18 @@
       <c r="G44" s="62"/>
       <c r="H44" s="62"/>
       <c r="I44" s="62"/>
-      <c r="J44" s="168" t="s">
+      <c r="J44" s="129" t="s">
         <v>115</v>
       </c>
-      <c r="K44" s="168"/>
+      <c r="K44" s="129"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="H6:K6"/>
     <mergeCell ref="B41:C41"/>
@@ -8210,50 +8166,30 @@
     <mergeCell ref="A38:C38"/>
     <mergeCell ref="A39:C39"/>
     <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
     <mergeCell ref="D6:G6"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="F43:G43"/>
   </mergeCells>
-  <conditionalFormatting sqref="D8:D37">
-    <cfRule type="cellIs" dxfId="13" priority="8" operator="lessThan">
+  <conditionalFormatting sqref="D8:D40">
+    <cfRule type="cellIs" dxfId="9" priority="8" operator="lessThan">
       <formula>1.77</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D38:D40">
-    <cfRule type="cellIs" dxfId="12" priority="12" operator="lessThan">
-      <formula>1.77</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8:E37">
-    <cfRule type="cellIs" dxfId="11" priority="7" operator="lessThan">
+  <conditionalFormatting sqref="E8:E40">
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="lessThan">
       <formula>9.07</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E38:E40">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="lessThan">
-      <formula>9.07</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F8:F37">
-    <cfRule type="cellIs" dxfId="9" priority="6" operator="lessThan">
+  <conditionalFormatting sqref="F8:F40">
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="lessThan">
       <formula>1.49</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F38:F40">
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="lessThan">
-      <formula>1.49</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G8:G37">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="lessThan">
-      <formula>6.13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G38:G40">
-    <cfRule type="cellIs" dxfId="6" priority="9" operator="lessThan">
+  <conditionalFormatting sqref="G8:G40">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="lessThan">
       <formula>6.13</formula>
     </cfRule>
   </conditionalFormatting>

--- a/backend/templates/214-18-micro-white.xlsx
+++ b/backend/templates/214-18-micro-white.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cursor AI Projects\SwansonIndiaPortal\backend\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{605937F5-C307-4B44-8699-3D516AA00C52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A4F74B0-CD7A-4A69-A6BA-2DF12E340F97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="751" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -491,12 +491,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="167" formatCode="[$-14009]dd\-mm\-yyyy;@"/>
   </numFmts>
   <fonts count="16">
     <font>
@@ -1260,7 +1259,7 @@
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="195">
+  <cellXfs count="176">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -1376,139 +1375,8 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="32" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1522,352 +1390,424 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="32" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="32" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="32" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="39" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="39" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="74">
@@ -6134,918 +6074,935 @@
   <dimension ref="A1:AL79"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="3" width="12.85546875" style="62" customWidth="1"/>
-    <col min="4" max="7" width="21.42578125" style="62" customWidth="1"/>
-    <col min="8" max="11" width="10.42578125" style="62" customWidth="1"/>
-    <col min="12" max="12" width="20.42578125" style="62" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="62"/>
+    <col min="1" max="3" width="12.85546875" style="110" customWidth="1"/>
+    <col min="4" max="7" width="21.42578125" style="110" customWidth="1"/>
+    <col min="8" max="11" width="10.42578125" style="110" customWidth="1"/>
+    <col min="12" max="12" width="20.42578125" style="110" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="110"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="45" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="137" t="s">
+    <row r="1" spans="1:38" s="60" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A1" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="137"/>
-      <c r="C1" s="137"/>
-      <c r="D1" s="137"/>
-      <c r="E1" s="137"/>
-      <c r="F1" s="137"/>
-      <c r="G1" s="137"/>
-      <c r="H1" s="137"/>
-      <c r="I1" s="137"/>
-      <c r="J1" s="137"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="44" t="s">
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="59" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:38" s="45" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A2" s="138" t="s">
+    <row r="2" spans="1:38" s="60" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A2" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="138"/>
-      <c r="C2" s="138"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="138"/>
-      <c r="F2" s="138"/>
-      <c r="G2" s="138"/>
-      <c r="H2" s="138"/>
-      <c r="I2" s="138"/>
-      <c r="J2" s="138"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="47" t="s">
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="63" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:38" s="45" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A3" s="139"/>
-      <c r="B3" s="139"/>
-      <c r="C3" s="139"/>
-      <c r="D3" s="139"/>
-      <c r="E3" s="139"/>
-      <c r="F3" s="139"/>
-      <c r="G3" s="139"/>
-      <c r="H3" s="139"/>
-      <c r="I3" s="139"/>
-      <c r="J3" s="139"/>
-      <c r="K3" s="48" t="s">
+    <row r="3" spans="1:38" s="60" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A3" s="64"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="49"/>
-    </row>
-    <row r="4" spans="1:38" s="51" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A4" s="141" t="s">
+      <c r="L3" s="66"/>
+    </row>
+    <row r="4" spans="1:38" s="75" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A4" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="142"/>
-      <c r="C4" s="140"/>
-      <c r="D4" s="140"/>
-      <c r="E4" s="101" t="s">
+      <c r="B4" s="68"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="122"/>
-      <c r="G4" s="50" t="s">
+      <c r="F4" s="71"/>
+      <c r="G4" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="140"/>
-      <c r="I4" s="140"/>
-      <c r="J4" s="146" t="s">
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="146"/>
-      <c r="L4" s="94"/>
-    </row>
-    <row r="5" spans="1:38" s="51" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A5" s="143" t="s">
+      <c r="K4" s="73"/>
+      <c r="L4" s="74"/>
+    </row>
+    <row r="5" spans="1:38" s="75" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+      <c r="A5" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="144"/>
-      <c r="C5" s="134"/>
-      <c r="D5" s="134"/>
-      <c r="E5" s="102" t="s">
+      <c r="B5" s="77"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="112"/>
-      <c r="G5" s="52" t="s">
+      <c r="F5" s="80"/>
+      <c r="G5" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="145"/>
-      <c r="I5" s="145"/>
-      <c r="J5" s="147" t="s">
+      <c r="H5" s="82"/>
+      <c r="I5" s="82"/>
+      <c r="J5" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="147"/>
-      <c r="L5" s="95"/>
-    </row>
-    <row r="6" spans="1:38" s="51" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="165" t="s">
+      <c r="K5" s="83"/>
+      <c r="L5" s="84"/>
+    </row>
+    <row r="6" spans="1:38" s="75" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A6" s="85" t="s">
         <v>112</v>
       </c>
-      <c r="B6" s="166"/>
-      <c r="C6" s="166"/>
-      <c r="D6" s="110"/>
-      <c r="E6" s="167"/>
-      <c r="F6" s="167"/>
-      <c r="G6" s="98"/>
-      <c r="H6" s="123"/>
-      <c r="I6" s="123"/>
-      <c r="J6" s="123"/>
-      <c r="K6" s="124"/>
-      <c r="L6" s="53"/>
-    </row>
-    <row r="7" spans="1:38" s="54" customFormat="1" ht="41.25" customHeight="1">
-      <c r="A7" s="168" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="133"/>
-      <c r="C7" s="133"/>
-      <c r="D7" s="133" t="s">
+      <c r="B6" s="86"/>
+      <c r="C6" s="86"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="90"/>
+      <c r="J6" s="90"/>
+      <c r="K6" s="91"/>
+      <c r="L6" s="92"/>
+    </row>
+    <row r="7" spans="1:38" s="99" customFormat="1" ht="41.25" customHeight="1">
+      <c r="A7" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="94"/>
+      <c r="C7" s="94"/>
+      <c r="D7" s="94" t="s">
         <v>110</v>
       </c>
-      <c r="E7" s="133" t="s">
+      <c r="E7" s="94" t="s">
         <v>111</v>
       </c>
-      <c r="F7" s="133" t="s">
+      <c r="F7" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="133" t="s">
+      <c r="G7" s="94" t="s">
         <v>117</v>
       </c>
-      <c r="H7" s="130" t="s">
+      <c r="H7" s="95" t="s">
         <v>116</v>
       </c>
-      <c r="I7" s="131"/>
-      <c r="J7" s="131"/>
-      <c r="K7" s="132"/>
-      <c r="L7" s="135" t="s">
+      <c r="I7" s="96"/>
+      <c r="J7" s="96"/>
+      <c r="K7" s="97"/>
+      <c r="L7" s="98" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="1:38" s="54" customFormat="1" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A8" s="169"/>
-      <c r="B8" s="134"/>
-      <c r="C8" s="134"/>
-      <c r="D8" s="134"/>
-      <c r="E8" s="134"/>
-      <c r="F8" s="134"/>
-      <c r="G8" s="134"/>
-      <c r="H8" s="55">
+    <row r="8" spans="1:38" s="99" customFormat="1" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A8" s="100"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="78"/>
+      <c r="H8" s="101">
         <v>1</v>
       </c>
-      <c r="I8" s="55">
+      <c r="I8" s="101">
         <v>2</v>
       </c>
-      <c r="J8" s="55">
+      <c r="J8" s="101">
         <v>3</v>
       </c>
-      <c r="K8" s="55" t="s">
+      <c r="K8" s="101" t="s">
         <v>26</v>
       </c>
-      <c r="L8" s="136"/>
+      <c r="L8" s="102"/>
     </row>
     <row r="9" spans="1:38" ht="19.5" customHeight="1">
-      <c r="A9" s="56"/>
-      <c r="B9" s="57"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="99"/>
-      <c r="E9" s="99"/>
-      <c r="F9" s="99"/>
-      <c r="G9" s="97"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="59"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="60" t="e">
+      <c r="A9" s="103"/>
+      <c r="B9" s="104"/>
+      <c r="C9" s="105"/>
+      <c r="D9" s="106"/>
+      <c r="E9" s="106"/>
+      <c r="F9" s="106"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="107"/>
+      <c r="I9" s="107"/>
+      <c r="J9" s="107"/>
+      <c r="K9" s="108" t="e">
         <f>AVERAGE(H9:J9)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L9" s="61"/>
-      <c r="AL9" s="54"/>
+      <c r="L9" s="109"/>
+      <c r="AL9" s="99"/>
     </row>
     <row r="10" spans="1:38" ht="19.5" customHeight="1">
-      <c r="A10" s="63"/>
-      <c r="B10" s="57"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="96"/>
-      <c r="E10" s="96"/>
-      <c r="F10" s="96"/>
-      <c r="G10" s="97"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="64"/>
-      <c r="K10" s="60" t="e">
+      <c r="A10" s="111"/>
+      <c r="B10" s="104"/>
+      <c r="C10" s="105"/>
+      <c r="D10" s="112"/>
+      <c r="E10" s="112"/>
+      <c r="F10" s="112"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="113"/>
+      <c r="I10" s="113"/>
+      <c r="J10" s="113"/>
+      <c r="K10" s="108" t="e">
         <f t="shared" ref="K10:K38" si="0">AVERAGE(H10:J10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L10" s="65"/>
+      <c r="L10" s="114"/>
     </row>
     <row r="11" spans="1:38" ht="19.5" customHeight="1">
-      <c r="A11" s="63"/>
-      <c r="B11" s="57"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="96"/>
-      <c r="E11" s="96"/>
-      <c r="F11" s="96"/>
-      <c r="G11" s="97"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="64"/>
-      <c r="J11" s="64"/>
-      <c r="K11" s="60" t="e">
+      <c r="A11" s="111"/>
+      <c r="B11" s="104"/>
+      <c r="C11" s="105"/>
+      <c r="D11" s="112"/>
+      <c r="E11" s="112"/>
+      <c r="F11" s="112"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="113"/>
+      <c r="I11" s="113"/>
+      <c r="J11" s="113"/>
+      <c r="K11" s="108" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L11" s="61"/>
+      <c r="L11" s="109"/>
     </row>
     <row r="12" spans="1:38" ht="19.5" customHeight="1">
-      <c r="A12" s="63"/>
-      <c r="B12" s="57"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="96"/>
-      <c r="E12" s="96"/>
-      <c r="F12" s="96"/>
-      <c r="G12" s="97"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="59"/>
-      <c r="J12" s="59"/>
-      <c r="K12" s="60" t="e">
+      <c r="A12" s="111"/>
+      <c r="B12" s="104"/>
+      <c r="C12" s="105"/>
+      <c r="D12" s="112"/>
+      <c r="E12" s="112"/>
+      <c r="F12" s="112"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="107"/>
+      <c r="I12" s="107"/>
+      <c r="J12" s="107"/>
+      <c r="K12" s="108" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L12" s="61"/>
+      <c r="L12" s="109"/>
     </row>
     <row r="13" spans="1:38" ht="19.5" customHeight="1">
-      <c r="A13" s="56"/>
-      <c r="B13" s="57"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="96"/>
-      <c r="E13" s="96"/>
-      <c r="F13" s="96"/>
-      <c r="G13" s="97"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="64"/>
-      <c r="J13" s="64"/>
-      <c r="K13" s="60" t="e">
+      <c r="A13" s="103"/>
+      <c r="B13" s="104"/>
+      <c r="C13" s="105"/>
+      <c r="D13" s="112"/>
+      <c r="E13" s="112"/>
+      <c r="F13" s="112"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="113"/>
+      <c r="I13" s="113"/>
+      <c r="J13" s="113"/>
+      <c r="K13" s="108" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L13" s="65"/>
-      <c r="N13" s="128"/>
-      <c r="O13" s="128"/>
+      <c r="L13" s="114"/>
+      <c r="N13" s="115"/>
+      <c r="O13" s="115"/>
     </row>
     <row r="14" spans="1:38" ht="19.5" customHeight="1">
-      <c r="A14" s="63"/>
-      <c r="B14" s="57"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="96"/>
-      <c r="E14" s="96"/>
-      <c r="F14" s="96"/>
-      <c r="G14" s="97"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="59"/>
-      <c r="K14" s="60" t="e">
+      <c r="A14" s="111"/>
+      <c r="B14" s="104"/>
+      <c r="C14" s="105"/>
+      <c r="D14" s="112"/>
+      <c r="E14" s="112"/>
+      <c r="F14" s="112"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="107"/>
+      <c r="I14" s="107"/>
+      <c r="J14" s="107"/>
+      <c r="K14" s="108" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L14" s="61"/>
+      <c r="L14" s="109"/>
     </row>
     <row r="15" spans="1:38" ht="19.5" customHeight="1">
-      <c r="A15" s="63"/>
-      <c r="B15" s="57"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="96"/>
-      <c r="E15" s="96"/>
-      <c r="F15" s="96"/>
-      <c r="G15" s="97"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="64"/>
-      <c r="J15" s="64"/>
-      <c r="K15" s="60" t="e">
+      <c r="A15" s="111"/>
+      <c r="B15" s="104"/>
+      <c r="C15" s="105"/>
+      <c r="D15" s="112"/>
+      <c r="E15" s="112"/>
+      <c r="F15" s="112"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="113"/>
+      <c r="I15" s="113"/>
+      <c r="J15" s="113"/>
+      <c r="K15" s="108" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L15" s="61"/>
+      <c r="L15" s="109"/>
     </row>
     <row r="16" spans="1:38" ht="19.5" customHeight="1">
-      <c r="A16" s="56"/>
-      <c r="B16" s="57"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="96"/>
-      <c r="E16" s="96"/>
-      <c r="F16" s="96"/>
-      <c r="G16" s="97"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="59"/>
-      <c r="K16" s="60" t="e">
+      <c r="A16" s="103"/>
+      <c r="B16" s="104"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="112"/>
+      <c r="E16" s="112"/>
+      <c r="F16" s="112"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="107"/>
+      <c r="I16" s="107"/>
+      <c r="J16" s="107"/>
+      <c r="K16" s="108" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L16" s="65"/>
+      <c r="L16" s="114"/>
     </row>
     <row r="17" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A17" s="63"/>
-      <c r="B17" s="57"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="96"/>
-      <c r="E17" s="96"/>
-      <c r="F17" s="96"/>
-      <c r="G17" s="97"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="64"/>
-      <c r="J17" s="64"/>
-      <c r="K17" s="60" t="e">
+      <c r="A17" s="111"/>
+      <c r="B17" s="104"/>
+      <c r="C17" s="105"/>
+      <c r="D17" s="112"/>
+      <c r="E17" s="112"/>
+      <c r="F17" s="112"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="113"/>
+      <c r="I17" s="113"/>
+      <c r="J17" s="113"/>
+      <c r="K17" s="108" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L17" s="61"/>
+      <c r="L17" s="109"/>
     </row>
     <row r="18" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A18" s="56"/>
-      <c r="B18" s="57"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="96"/>
-      <c r="E18" s="96"/>
-      <c r="F18" s="96"/>
-      <c r="G18" s="97"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="60" t="e">
+      <c r="A18" s="103"/>
+      <c r="B18" s="104"/>
+      <c r="C18" s="105"/>
+      <c r="D18" s="112"/>
+      <c r="E18" s="112"/>
+      <c r="F18" s="112"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="107"/>
+      <c r="I18" s="107"/>
+      <c r="J18" s="107"/>
+      <c r="K18" s="108" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L18" s="65"/>
+      <c r="L18" s="114"/>
     </row>
     <row r="19" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A19" s="63"/>
-      <c r="B19" s="57"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="96"/>
-      <c r="E19" s="96"/>
-      <c r="F19" s="96"/>
-      <c r="G19" s="97"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="64"/>
-      <c r="J19" s="64"/>
-      <c r="K19" s="60" t="e">
+      <c r="A19" s="111"/>
+      <c r="B19" s="104"/>
+      <c r="C19" s="105"/>
+      <c r="D19" s="112"/>
+      <c r="E19" s="112"/>
+      <c r="F19" s="112"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="113"/>
+      <c r="I19" s="113"/>
+      <c r="J19" s="113"/>
+      <c r="K19" s="108" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L19" s="61"/>
+      <c r="L19" s="109"/>
     </row>
     <row r="20" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A20" s="63"/>
-      <c r="B20" s="57"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="96"/>
-      <c r="E20" s="96"/>
-      <c r="F20" s="96"/>
-      <c r="G20" s="97"/>
-      <c r="H20" s="64"/>
-      <c r="I20" s="64"/>
-      <c r="J20" s="64"/>
-      <c r="K20" s="60" t="e">
+      <c r="A20" s="111"/>
+      <c r="B20" s="104"/>
+      <c r="C20" s="105"/>
+      <c r="D20" s="112"/>
+      <c r="E20" s="112"/>
+      <c r="F20" s="112"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="113"/>
+      <c r="I20" s="113"/>
+      <c r="J20" s="113"/>
+      <c r="K20" s="108" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L20" s="65"/>
+      <c r="L20" s="114"/>
     </row>
     <row r="21" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A21" s="56"/>
-      <c r="B21" s="57"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="96"/>
-      <c r="E21" s="96"/>
-      <c r="F21" s="96"/>
-      <c r="G21" s="97"/>
-      <c r="H21" s="59"/>
-      <c r="I21" s="59"/>
-      <c r="J21" s="59"/>
-      <c r="K21" s="60" t="e">
+      <c r="A21" s="103"/>
+      <c r="B21" s="104"/>
+      <c r="C21" s="105"/>
+      <c r="D21" s="112"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="112"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="107"/>
+      <c r="I21" s="107"/>
+      <c r="J21" s="107"/>
+      <c r="K21" s="108" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L21" s="61"/>
+      <c r="L21" s="109"/>
     </row>
     <row r="22" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A22" s="63"/>
-      <c r="B22" s="57"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="96"/>
-      <c r="E22" s="96"/>
-      <c r="F22" s="96"/>
-      <c r="G22" s="97"/>
-      <c r="H22" s="64"/>
-      <c r="I22" s="64"/>
-      <c r="J22" s="64"/>
-      <c r="K22" s="60" t="e">
+      <c r="A22" s="111"/>
+      <c r="B22" s="104"/>
+      <c r="C22" s="105"/>
+      <c r="D22" s="112"/>
+      <c r="E22" s="112"/>
+      <c r="F22" s="112"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="113"/>
+      <c r="I22" s="113"/>
+      <c r="J22" s="113"/>
+      <c r="K22" s="108" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L22" s="65"/>
+      <c r="L22" s="114"/>
     </row>
     <row r="23" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A23" s="63"/>
-      <c r="B23" s="57"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="96"/>
-      <c r="E23" s="96"/>
-      <c r="F23" s="96"/>
-      <c r="G23" s="97"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="64"/>
-      <c r="J23" s="64"/>
-      <c r="K23" s="60" t="e">
+      <c r="A23" s="111"/>
+      <c r="B23" s="104"/>
+      <c r="C23" s="105"/>
+      <c r="D23" s="112"/>
+      <c r="E23" s="112"/>
+      <c r="F23" s="112"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="113"/>
+      <c r="I23" s="113"/>
+      <c r="J23" s="113"/>
+      <c r="K23" s="108" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L23" s="61"/>
+      <c r="L23" s="109"/>
     </row>
     <row r="24" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A24" s="63"/>
-      <c r="B24" s="57"/>
-      <c r="C24" s="58"/>
-      <c r="D24" s="96"/>
-      <c r="E24" s="96"/>
-      <c r="F24" s="96"/>
-      <c r="G24" s="97"/>
-      <c r="H24" s="64"/>
-      <c r="I24" s="64"/>
-      <c r="J24" s="64"/>
-      <c r="K24" s="60" t="e">
+      <c r="A24" s="111"/>
+      <c r="B24" s="104"/>
+      <c r="C24" s="105"/>
+      <c r="D24" s="112"/>
+      <c r="E24" s="112"/>
+      <c r="F24" s="112"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="113"/>
+      <c r="I24" s="113"/>
+      <c r="J24" s="113"/>
+      <c r="K24" s="108" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L24" s="61"/>
+      <c r="L24" s="109"/>
     </row>
     <row r="25" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A25" s="63"/>
-      <c r="B25" s="57"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="96"/>
-      <c r="E25" s="96"/>
-      <c r="F25" s="96"/>
-      <c r="G25" s="97"/>
-      <c r="H25" s="59"/>
-      <c r="I25" s="59"/>
-      <c r="J25" s="59"/>
-      <c r="K25" s="60" t="e">
+      <c r="A25" s="111"/>
+      <c r="B25" s="104"/>
+      <c r="C25" s="105"/>
+      <c r="D25" s="112"/>
+      <c r="E25" s="112"/>
+      <c r="F25" s="112"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="107"/>
+      <c r="I25" s="107"/>
+      <c r="J25" s="107"/>
+      <c r="K25" s="108" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L25" s="65"/>
+      <c r="L25" s="114"/>
     </row>
     <row r="26" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A26" s="56"/>
-      <c r="B26" s="57"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="96"/>
-      <c r="E26" s="96"/>
-      <c r="F26" s="96"/>
-      <c r="G26" s="97"/>
-      <c r="H26" s="64"/>
-      <c r="I26" s="64"/>
-      <c r="J26" s="64"/>
-      <c r="K26" s="60" t="e">
+      <c r="A26" s="103"/>
+      <c r="B26" s="104"/>
+      <c r="C26" s="105"/>
+      <c r="D26" s="112"/>
+      <c r="E26" s="112"/>
+      <c r="F26" s="112"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="113"/>
+      <c r="I26" s="113"/>
+      <c r="J26" s="113"/>
+      <c r="K26" s="108" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L26" s="61"/>
+      <c r="L26" s="109"/>
     </row>
     <row r="27" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A27" s="63"/>
-      <c r="B27" s="57"/>
-      <c r="C27" s="58"/>
-      <c r="D27" s="96"/>
-      <c r="E27" s="96"/>
-      <c r="F27" s="96"/>
-      <c r="G27" s="97"/>
-      <c r="H27" s="59"/>
-      <c r="I27" s="59"/>
-      <c r="J27" s="59"/>
-      <c r="K27" s="60" t="e">
+      <c r="A27" s="111"/>
+      <c r="B27" s="104"/>
+      <c r="C27" s="105"/>
+      <c r="D27" s="112"/>
+      <c r="E27" s="112"/>
+      <c r="F27" s="112"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="107"/>
+      <c r="I27" s="107"/>
+      <c r="J27" s="107"/>
+      <c r="K27" s="108" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L27" s="61"/>
+      <c r="L27" s="109"/>
     </row>
     <row r="28" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A28" s="63"/>
-      <c r="B28" s="57"/>
-      <c r="C28" s="58"/>
-      <c r="D28" s="96"/>
-      <c r="E28" s="96"/>
-      <c r="F28" s="96"/>
-      <c r="G28" s="97"/>
-      <c r="H28" s="64"/>
-      <c r="I28" s="64"/>
-      <c r="J28" s="64"/>
-      <c r="K28" s="60" t="e">
+      <c r="A28" s="111"/>
+      <c r="B28" s="104"/>
+      <c r="C28" s="105"/>
+      <c r="D28" s="112"/>
+      <c r="E28" s="112"/>
+      <c r="F28" s="112"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="113"/>
+      <c r="I28" s="113"/>
+      <c r="J28" s="113"/>
+      <c r="K28" s="108" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L28" s="65"/>
+      <c r="L28" s="114"/>
     </row>
     <row r="29" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A29" s="56"/>
-      <c r="B29" s="57"/>
-      <c r="C29" s="58"/>
-      <c r="D29" s="96"/>
-      <c r="E29" s="96"/>
-      <c r="F29" s="96"/>
-      <c r="G29" s="97"/>
-      <c r="H29" s="59"/>
-      <c r="I29" s="59"/>
-      <c r="J29" s="59"/>
-      <c r="K29" s="60" t="e">
+      <c r="A29" s="103"/>
+      <c r="B29" s="104"/>
+      <c r="C29" s="105"/>
+      <c r="D29" s="112"/>
+      <c r="E29" s="112"/>
+      <c r="F29" s="112"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="107"/>
+      <c r="I29" s="107"/>
+      <c r="J29" s="107"/>
+      <c r="K29" s="108" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L29" s="61"/>
+      <c r="L29" s="109"/>
     </row>
     <row r="30" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A30" s="63"/>
-      <c r="B30" s="57"/>
-      <c r="C30" s="58"/>
-      <c r="D30" s="96"/>
-      <c r="E30" s="96"/>
-      <c r="F30" s="96"/>
-      <c r="G30" s="97"/>
-      <c r="H30" s="64"/>
-      <c r="I30" s="64"/>
-      <c r="J30" s="64"/>
-      <c r="K30" s="60" t="e">
+      <c r="A30" s="111"/>
+      <c r="B30" s="104"/>
+      <c r="C30" s="105"/>
+      <c r="D30" s="112"/>
+      <c r="E30" s="112"/>
+      <c r="F30" s="112"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="113"/>
+      <c r="I30" s="113"/>
+      <c r="J30" s="113"/>
+      <c r="K30" s="108" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L30" s="65"/>
+      <c r="L30" s="114"/>
     </row>
     <row r="31" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A31" s="56"/>
-      <c r="B31" s="57"/>
-      <c r="C31" s="58"/>
-      <c r="D31" s="96"/>
-      <c r="E31" s="96"/>
-      <c r="F31" s="96"/>
-      <c r="G31" s="97"/>
-      <c r="H31" s="59"/>
-      <c r="I31" s="59"/>
-      <c r="J31" s="59"/>
-      <c r="K31" s="60" t="e">
+      <c r="A31" s="103"/>
+      <c r="B31" s="104"/>
+      <c r="C31" s="105"/>
+      <c r="D31" s="112"/>
+      <c r="E31" s="112"/>
+      <c r="F31" s="112"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="107"/>
+      <c r="I31" s="107"/>
+      <c r="J31" s="107"/>
+      <c r="K31" s="108" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L31" s="61"/>
+      <c r="L31" s="109"/>
     </row>
     <row r="32" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A32" s="63"/>
-      <c r="B32" s="57"/>
-      <c r="C32" s="58"/>
-      <c r="D32" s="96"/>
-      <c r="E32" s="96"/>
-      <c r="F32" s="96"/>
-      <c r="G32" s="97"/>
-      <c r="H32" s="64"/>
-      <c r="I32" s="64"/>
-      <c r="J32" s="64"/>
-      <c r="K32" s="60" t="e">
+      <c r="A32" s="111"/>
+      <c r="B32" s="104"/>
+      <c r="C32" s="105"/>
+      <c r="D32" s="112"/>
+      <c r="E32" s="112"/>
+      <c r="F32" s="112"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="113"/>
+      <c r="I32" s="113"/>
+      <c r="J32" s="113"/>
+      <c r="K32" s="108" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L32" s="65"/>
+      <c r="L32" s="114"/>
     </row>
     <row r="33" spans="1:19" ht="19.5" customHeight="1">
-      <c r="A33" s="63"/>
-      <c r="B33" s="57"/>
-      <c r="C33" s="58"/>
-      <c r="D33" s="96"/>
-      <c r="E33" s="96"/>
-      <c r="F33" s="96"/>
-      <c r="G33" s="97"/>
-      <c r="H33" s="64"/>
-      <c r="I33" s="64"/>
-      <c r="J33" s="64"/>
-      <c r="K33" s="60" t="e">
+      <c r="A33" s="111"/>
+      <c r="B33" s="104"/>
+      <c r="C33" s="105"/>
+      <c r="D33" s="112"/>
+      <c r="E33" s="112"/>
+      <c r="F33" s="112"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="113"/>
+      <c r="I33" s="113"/>
+      <c r="J33" s="113"/>
+      <c r="K33" s="108" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L33" s="61"/>
+      <c r="L33" s="109"/>
     </row>
     <row r="34" spans="1:19" ht="19.5" customHeight="1">
-      <c r="A34" s="56"/>
-      <c r="B34" s="57"/>
-      <c r="C34" s="58"/>
-      <c r="D34" s="96"/>
-      <c r="E34" s="96"/>
-      <c r="F34" s="96"/>
-      <c r="G34" s="97"/>
-      <c r="H34" s="59"/>
-      <c r="I34" s="59"/>
-      <c r="J34" s="59"/>
-      <c r="K34" s="60" t="e">
+      <c r="A34" s="103"/>
+      <c r="B34" s="104"/>
+      <c r="C34" s="105"/>
+      <c r="D34" s="112"/>
+      <c r="E34" s="112"/>
+      <c r="F34" s="112"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="107"/>
+      <c r="I34" s="107"/>
+      <c r="J34" s="107"/>
+      <c r="K34" s="108" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L34" s="65"/>
+      <c r="L34" s="114"/>
     </row>
     <row r="35" spans="1:19" ht="19.5" customHeight="1">
-      <c r="A35" s="63"/>
-      <c r="B35" s="57"/>
-      <c r="C35" s="58"/>
-      <c r="D35" s="96"/>
-      <c r="E35" s="96"/>
-      <c r="F35" s="96"/>
-      <c r="G35" s="97"/>
-      <c r="H35" s="64"/>
-      <c r="I35" s="64"/>
-      <c r="J35" s="64"/>
-      <c r="K35" s="60" t="e">
+      <c r="A35" s="111"/>
+      <c r="B35" s="104"/>
+      <c r="C35" s="105"/>
+      <c r="D35" s="112"/>
+      <c r="E35" s="112"/>
+      <c r="F35" s="112"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="113"/>
+      <c r="I35" s="113"/>
+      <c r="J35" s="113"/>
+      <c r="K35" s="108" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L35" s="61"/>
+      <c r="L35" s="109"/>
     </row>
     <row r="36" spans="1:19" ht="19.5" customHeight="1">
-      <c r="A36" s="63"/>
-      <c r="B36" s="57"/>
-      <c r="C36" s="58"/>
-      <c r="D36" s="96"/>
-      <c r="E36" s="96"/>
-      <c r="F36" s="96"/>
-      <c r="G36" s="97"/>
-      <c r="H36" s="64"/>
-      <c r="I36" s="64"/>
-      <c r="J36" s="64"/>
-      <c r="K36" s="60" t="e">
+      <c r="A36" s="111"/>
+      <c r="B36" s="104"/>
+      <c r="C36" s="105"/>
+      <c r="D36" s="112"/>
+      <c r="E36" s="112"/>
+      <c r="F36" s="112"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="113"/>
+      <c r="I36" s="113"/>
+      <c r="J36" s="113"/>
+      <c r="K36" s="108" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L36" s="61"/>
+      <c r="L36" s="109"/>
     </row>
     <row r="37" spans="1:19" ht="19.5" customHeight="1">
-      <c r="A37" s="56"/>
-      <c r="B37" s="57"/>
-      <c r="C37" s="58"/>
-      <c r="D37" s="96"/>
-      <c r="E37" s="96"/>
-      <c r="F37" s="96"/>
-      <c r="G37" s="97"/>
-      <c r="H37" s="59"/>
-      <c r="I37" s="59"/>
-      <c r="J37" s="59"/>
-      <c r="K37" s="60" t="e">
+      <c r="A37" s="103"/>
+      <c r="B37" s="104"/>
+      <c r="C37" s="105"/>
+      <c r="D37" s="112"/>
+      <c r="E37" s="112"/>
+      <c r="F37" s="112"/>
+      <c r="G37" s="43"/>
+      <c r="H37" s="107"/>
+      <c r="I37" s="107"/>
+      <c r="J37" s="107"/>
+      <c r="K37" s="108" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L37" s="65"/>
-      <c r="P37" s="125"/>
-      <c r="Q37" s="125"/>
-      <c r="R37" s="125"/>
-      <c r="S37" s="125"/>
+      <c r="L37" s="114"/>
+      <c r="P37" s="116"/>
+      <c r="Q37" s="116"/>
+      <c r="R37" s="116"/>
+      <c r="S37" s="116"/>
     </row>
     <row r="38" spans="1:19" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A38" s="63"/>
-      <c r="B38" s="57"/>
-      <c r="C38" s="58"/>
-      <c r="D38" s="100"/>
-      <c r="E38" s="100"/>
-      <c r="F38" s="100"/>
-      <c r="G38" s="97"/>
-      <c r="H38" s="64"/>
-      <c r="I38" s="64"/>
-      <c r="J38" s="64"/>
-      <c r="K38" s="60" t="e">
+      <c r="A38" s="111"/>
+      <c r="B38" s="104"/>
+      <c r="C38" s="105"/>
+      <c r="D38" s="117"/>
+      <c r="E38" s="117"/>
+      <c r="F38" s="117"/>
+      <c r="G38" s="43"/>
+      <c r="H38" s="113"/>
+      <c r="I38" s="113"/>
+      <c r="J38" s="113"/>
+      <c r="K38" s="108" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L38" s="61"/>
+      <c r="L38" s="109"/>
     </row>
     <row r="39" spans="1:19" ht="16.5" customHeight="1">
-      <c r="A39" s="156" t="s">
+      <c r="A39" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="B39" s="157"/>
-      <c r="C39" s="158"/>
-      <c r="D39" s="103" t="e">
+      <c r="B39" s="49"/>
+      <c r="C39" s="50"/>
+      <c r="D39" s="118" t="e">
         <f>AVERAGE(D9:D38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E39" s="103" t="e">
+      <c r="E39" s="118" t="e">
         <f>AVERAGE(E9:E38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F39" s="103" t="e">
+      <c r="F39" s="118" t="e">
         <f>AVERAGE(F9:F38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G39" s="107" t="e">
+      <c r="G39" s="119" t="e">
         <f>AVERAGE(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H39" s="151" t="e">
+      <c r="H39" s="120" t="e">
         <f>AVERAGE(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I39" s="151"/>
-      <c r="J39" s="151"/>
-      <c r="K39" s="151"/>
-      <c r="L39" s="68" t="e">
+      <c r="I39" s="120"/>
+      <c r="J39" s="120"/>
+      <c r="K39" s="120"/>
+      <c r="L39" s="121" t="e">
         <f>AVERAGE(L9:L38)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="40" spans="1:19" ht="16.5" customHeight="1">
-      <c r="A40" s="159" t="s">
+      <c r="A40" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="B40" s="160"/>
-      <c r="C40" s="161"/>
-      <c r="D40" s="105">
+      <c r="B40" s="52"/>
+      <c r="C40" s="53"/>
+      <c r="D40" s="122">
         <f>MIN(D9:D38)</f>
         <v>0</v>
       </c>
-      <c r="E40" s="105">
+      <c r="E40" s="122">
         <f>MIN(E9:E38)</f>
         <v>0</v>
       </c>
-      <c r="F40" s="105">
+      <c r="F40" s="122">
         <f>MIN(F9:F38)</f>
         <v>0</v>
       </c>
-      <c r="G40" s="108">
+      <c r="G40" s="123">
         <f>MIN(G9:G38)</f>
         <v>0</v>
       </c>
-      <c r="H40" s="149" t="e">
+      <c r="H40" s="124" t="e">
         <f>MIN(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I40" s="149"/>
-      <c r="J40" s="149"/>
-      <c r="K40" s="149"/>
-      <c r="L40" s="70">
+      <c r="I40" s="124"/>
+      <c r="J40" s="124"/>
+      <c r="K40" s="124"/>
+      <c r="L40" s="125">
         <f>MIN(L9:L38)</f>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:19" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A41" s="162" t="s">
+      <c r="A41" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="B41" s="163"/>
-      <c r="C41" s="164"/>
-      <c r="D41" s="104">
+      <c r="B41" s="55"/>
+      <c r="C41" s="56"/>
+      <c r="D41" s="126">
         <f>MAX(D9:D38)</f>
         <v>0</v>
       </c>
-      <c r="E41" s="104">
+      <c r="E41" s="126">
         <f>MAX(E9:E38)</f>
         <v>0</v>
       </c>
-      <c r="F41" s="104">
+      <c r="F41" s="126">
         <f>MAX(F9:F38)</f>
         <v>0</v>
       </c>
-      <c r="G41" s="109">
+      <c r="G41" s="127">
         <f>MAX(G9:G38)</f>
         <v>0</v>
       </c>
-      <c r="H41" s="150" t="e">
+      <c r="H41" s="128" t="e">
         <f>MAX(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I41" s="150"/>
-      <c r="J41" s="150"/>
-      <c r="K41" s="150"/>
-      <c r="L41" s="72">
+      <c r="I41" s="128"/>
+      <c r="J41" s="128"/>
+      <c r="K41" s="128"/>
+      <c r="L41" s="129">
         <f>MAX(L9:L38)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:19" s="45" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A42" s="73" t="s">
+    <row r="42" spans="1:19" s="60" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A42" s="130" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="152"/>
-      <c r="C42" s="152"/>
-      <c r="D42" s="106" t="s">
+      <c r="B42" s="131"/>
+      <c r="C42" s="131"/>
+      <c r="D42" s="132" t="s">
         <v>13</v>
       </c>
-      <c r="E42" s="74"/>
-      <c r="F42" s="62"/>
-      <c r="G42" s="126" t="s">
+      <c r="E42" s="132"/>
+      <c r="F42" s="110"/>
+      <c r="G42" s="133" t="s">
         <v>14</v>
       </c>
-      <c r="H42" s="126"/>
-      <c r="I42" s="153"/>
-      <c r="J42" s="153"/>
-      <c r="K42" s="153"/>
-      <c r="L42" s="66" t="s">
+      <c r="H42" s="133"/>
+      <c r="I42" s="134"/>
+      <c r="J42" s="134"/>
+      <c r="K42" s="134"/>
+      <c r="L42" s="135" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:19" s="45" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A43" s="73"/>
-      <c r="B43" s="154"/>
-      <c r="C43" s="154"/>
-      <c r="D43" s="75"/>
-      <c r="E43" s="73"/>
-      <c r="F43" s="62"/>
-      <c r="G43" s="62"/>
-      <c r="H43" s="76"/>
-      <c r="I43" s="155"/>
-      <c r="J43" s="155"/>
-      <c r="K43" s="155"/>
-    </row>
-    <row r="44" spans="1:19" s="51" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A44" s="127" t="s">
+    <row r="43" spans="1:19" s="60" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A43" s="130"/>
+      <c r="B43" s="136"/>
+      <c r="C43" s="136"/>
+      <c r="D43" s="137"/>
+      <c r="E43" s="130"/>
+      <c r="F43" s="110"/>
+      <c r="G43" s="110"/>
+      <c r="H43" s="138"/>
+      <c r="I43" s="139"/>
+      <c r="J43" s="139"/>
+      <c r="K43" s="139"/>
+    </row>
+    <row r="44" spans="1:19" s="75" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A44" s="140" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="127"/>
-      <c r="C44" s="127"/>
-      <c r="E44" s="48" t="s">
+      <c r="B44" s="140"/>
+      <c r="C44" s="140"/>
+      <c r="E44" s="65" t="s">
         <v>122</v>
       </c>
-      <c r="F44" s="125" t="s">
+      <c r="F44" s="116" t="s">
         <v>123</v>
       </c>
-      <c r="G44" s="125"/>
-    </row>
-    <row r="45" spans="1:19" s="45" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A45" s="128" t="s">
+      <c r="G44" s="116"/>
+    </row>
+    <row r="45" spans="1:19" s="60" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A45" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="B45" s="128"/>
-      <c r="C45" s="66"/>
-      <c r="D45" s="62"/>
-      <c r="E45" s="62"/>
-      <c r="F45" s="62"/>
-      <c r="G45" s="62"/>
-      <c r="H45" s="62"/>
-      <c r="I45" s="62"/>
-      <c r="J45" s="129" t="s">
+      <c r="B45" s="115"/>
+      <c r="C45" s="135"/>
+      <c r="D45" s="110"/>
+      <c r="E45" s="110"/>
+      <c r="F45" s="110"/>
+      <c r="G45" s="110"/>
+      <c r="H45" s="110"/>
+      <c r="I45" s="110"/>
+      <c r="J45" s="141" t="s">
         <v>114</v>
       </c>
-      <c r="K45" s="129"/>
+      <c r="K45" s="141"/>
     </row>
     <row r="48" spans="1:19" ht="15.75" customHeight="1">
-      <c r="B48" s="77" t="s">
+      <c r="B48" s="142" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="52" spans="10:10" ht="15.75" customHeight="1">
-      <c r="J52" s="78"/>
+      <c r="J52" s="143"/>
     </row>
     <row r="76" spans="3:12" ht="15.75" customHeight="1">
-      <c r="C76" s="148"/>
-      <c r="D76" s="148"/>
-      <c r="G76" s="148"/>
-      <c r="H76" s="148"/>
-      <c r="I76" s="148"/>
-      <c r="J76" s="148"/>
-      <c r="K76" s="148"/>
-      <c r="L76" s="148"/>
+      <c r="C76" s="144"/>
+      <c r="D76" s="144"/>
+      <c r="G76" s="144"/>
+      <c r="H76" s="144"/>
+      <c r="I76" s="144"/>
+      <c r="J76" s="144"/>
+      <c r="K76" s="144"/>
+      <c r="L76" s="144"/>
     </row>
     <row r="77" spans="3:12" ht="15.75" customHeight="1">
-      <c r="C77" s="148"/>
-      <c r="D77" s="148"/>
-      <c r="E77" s="148"/>
-      <c r="G77" s="148"/>
-      <c r="H77" s="148"/>
-      <c r="I77" s="148"/>
-      <c r="J77" s="148"/>
-      <c r="K77" s="148"/>
-      <c r="L77" s="148"/>
+      <c r="C77" s="144"/>
+      <c r="D77" s="144"/>
+      <c r="E77" s="144"/>
+      <c r="G77" s="144"/>
+      <c r="H77" s="144"/>
+      <c r="I77" s="144"/>
+      <c r="J77" s="144"/>
+      <c r="K77" s="144"/>
+      <c r="L77" s="144"/>
     </row>
     <row r="78" spans="3:12" ht="15.75" customHeight="1">
-      <c r="C78" s="148"/>
-      <c r="D78" s="148"/>
-      <c r="G78" s="148"/>
-      <c r="H78" s="148"/>
-      <c r="I78" s="148"/>
-      <c r="J78" s="148"/>
-      <c r="K78" s="148"/>
-      <c r="L78" s="148"/>
+      <c r="C78" s="144"/>
+      <c r="D78" s="144"/>
+      <c r="G78" s="144"/>
+      <c r="H78" s="144"/>
+      <c r="I78" s="144"/>
+      <c r="J78" s="144"/>
+      <c r="K78" s="144"/>
+      <c r="L78" s="144"/>
     </row>
     <row r="79" spans="3:12" ht="15.75" customHeight="1">
-      <c r="C79" s="148"/>
-      <c r="D79" s="148"/>
+      <c r="C79" s="144"/>
+      <c r="D79" s="144"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="47">
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C77:E77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="A7:C8"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="P37:S37"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
     <mergeCell ref="C79:D79"/>
     <mergeCell ref="G76:H76"/>
     <mergeCell ref="H40:K40"/>
@@ -7062,30 +7019,13 @@
     <mergeCell ref="I78:L78"/>
     <mergeCell ref="G77:H77"/>
     <mergeCell ref="G78:H78"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="P37:S37"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C77:E77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="A7:C8"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <conditionalFormatting sqref="D9:D41">
@@ -7133,1026 +7073,1025 @@
   <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="12.85546875" style="62" customWidth="1"/>
-    <col min="4" max="11" width="21.42578125" style="62" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="62"/>
+    <col min="1" max="3" width="12.85546875" style="110" customWidth="1"/>
+    <col min="4" max="11" width="21.42578125" style="110" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="110"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="45" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="137" t="s">
+    <row r="1" spans="1:11" s="60" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A1" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="137"/>
-      <c r="C1" s="137"/>
-      <c r="D1" s="137"/>
-      <c r="E1" s="137"/>
-      <c r="F1" s="137"/>
-      <c r="G1" s="137"/>
-      <c r="H1" s="137"/>
-      <c r="I1" s="137"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="44" t="s">
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="59" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="45" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="138" t="s">
+    <row r="2" spans="1:11" s="60" customFormat="1" ht="15" customHeight="1">
+      <c r="A2" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="138"/>
-      <c r="C2" s="138"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="138"/>
-      <c r="F2" s="138"/>
-      <c r="G2" s="138"/>
-      <c r="H2" s="138"/>
-      <c r="I2" s="138"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="47" t="s">
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="63" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="45" customFormat="1" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A3" s="139"/>
-      <c r="B3" s="139"/>
-      <c r="C3" s="139"/>
-      <c r="D3" s="139"/>
-      <c r="E3" s="139"/>
-      <c r="F3" s="139"/>
-      <c r="G3" s="139"/>
-      <c r="H3" s="139"/>
-      <c r="I3" s="139"/>
-      <c r="J3" s="48" t="s">
+    <row r="3" spans="1:11" s="60" customFormat="1" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A3" s="64"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="49"/>
-    </row>
-    <row r="4" spans="1:11" s="51" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A4" s="189" t="s">
+      <c r="K3" s="66"/>
+    </row>
+    <row r="4" spans="1:11" s="75" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A4" s="145" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="190"/>
-      <c r="C4" s="191">
+      <c r="B4" s="146"/>
+      <c r="C4" s="147">
         <f>Page1!C4</f>
         <v>0</v>
       </c>
-      <c r="D4" s="192"/>
-      <c r="E4" s="121" t="s">
+      <c r="D4" s="148"/>
+      <c r="E4" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="120">
+      <c r="F4" s="149">
         <f>Page1!F4</f>
         <v>0</v>
       </c>
-      <c r="G4" s="50" t="s">
+      <c r="G4" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="93">
+      <c r="H4" s="150">
         <f>Page1!H4</f>
         <v>0</v>
       </c>
-      <c r="I4" s="50" t="s">
+      <c r="I4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="193">
+      <c r="J4" s="151">
         <f>Page1!L4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="194"/>
-    </row>
-    <row r="5" spans="1:11" s="51" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A5" s="174" t="s">
+      <c r="K4" s="152"/>
+    </row>
+    <row r="5" spans="1:11" s="75" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+      <c r="A5" s="153" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="175"/>
-      <c r="C5" s="176">
+      <c r="B5" s="154"/>
+      <c r="C5" s="155">
         <f>Page1!C5</f>
         <v>0</v>
       </c>
-      <c r="D5" s="177"/>
-      <c r="E5" s="113" t="s">
+      <c r="D5" s="156"/>
+      <c r="E5" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="114">
+      <c r="F5" s="157">
         <f>Page1!F5</f>
         <v>0</v>
       </c>
-      <c r="G5" s="79" t="s">
+      <c r="G5" s="158" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="92">
+      <c r="H5" s="159">
         <f>Page1!H5</f>
         <v>0</v>
       </c>
-      <c r="I5" s="79" t="s">
+      <c r="I5" s="158" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="170">
+      <c r="J5" s="160">
         <f>Page1!L5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="171"/>
+      <c r="K5" s="161"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="178" t="s">
+      <c r="A6" s="46" t="s">
         <v>112</v>
       </c>
-      <c r="B6" s="179"/>
-      <c r="C6" s="179"/>
-      <c r="D6" s="172"/>
-      <c r="E6" s="172"/>
-      <c r="F6" s="172"/>
-      <c r="G6" s="172"/>
-      <c r="H6" s="172"/>
-      <c r="I6" s="172"/>
-      <c r="J6" s="172"/>
-      <c r="K6" s="173"/>
-    </row>
-    <row r="7" spans="1:11" s="54" customFormat="1" ht="61.5" customHeight="1">
-      <c r="A7" s="168" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="133"/>
-      <c r="C7" s="133"/>
-      <c r="D7" s="111" t="s">
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="162"/>
+      <c r="E6" s="162"/>
+      <c r="F6" s="162"/>
+      <c r="G6" s="162"/>
+      <c r="H6" s="162"/>
+      <c r="I6" s="162"/>
+      <c r="J6" s="162"/>
+      <c r="K6" s="163"/>
+    </row>
+    <row r="7" spans="1:11" s="99" customFormat="1" ht="61.5" customHeight="1">
+      <c r="A7" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="94"/>
+      <c r="C7" s="94"/>
+      <c r="D7" s="164" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="111" t="s">
+      <c r="E7" s="164" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="111" t="s">
+      <c r="F7" s="164" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="111" t="s">
+      <c r="G7" s="164" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="38" t="s">
+      <c r="H7" s="164" t="s">
         <v>118</v>
       </c>
-      <c r="I7" s="38" t="s">
+      <c r="I7" s="164" t="s">
         <v>119</v>
       </c>
-      <c r="J7" s="38" t="s">
+      <c r="J7" s="164" t="s">
         <v>120</v>
       </c>
-      <c r="K7" s="39" t="s">
+      <c r="K7" s="165" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="18.95" customHeight="1">
-      <c r="A8" s="80">
+      <c r="A8" s="40">
         <f>Page1!A9</f>
         <v>0</v>
       </c>
-      <c r="B8" s="81">
+      <c r="B8" s="41">
         <f>Page1!B9</f>
         <v>0</v>
       </c>
-      <c r="C8" s="82">
+      <c r="C8" s="42">
         <f>Page1!C9</f>
         <v>0</v>
       </c>
-      <c r="D8" s="116"/>
-      <c r="E8" s="116"/>
-      <c r="F8" s="116"/>
-      <c r="G8" s="116"/>
-      <c r="H8" s="83"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="84"/>
+      <c r="D8" s="112"/>
+      <c r="E8" s="112"/>
+      <c r="F8" s="112"/>
+      <c r="G8" s="112"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="113"/>
+      <c r="J8" s="113"/>
+      <c r="K8" s="166"/>
     </row>
     <row r="9" spans="1:11" ht="18.95" customHeight="1">
-      <c r="A9" s="80">
+      <c r="A9" s="40">
         <f>Page1!A10</f>
         <v>0</v>
       </c>
-      <c r="B9" s="81">
+      <c r="B9" s="41">
         <f>Page1!B10</f>
         <v>0</v>
       </c>
-      <c r="C9" s="82">
+      <c r="C9" s="42">
         <f>Page1!C10</f>
         <v>0</v>
       </c>
-      <c r="D9" s="116"/>
-      <c r="E9" s="116"/>
-      <c r="F9" s="116"/>
-      <c r="G9" s="116"/>
-      <c r="H9" s="83"/>
-      <c r="I9" s="59"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="85"/>
+      <c r="D9" s="112"/>
+      <c r="E9" s="112"/>
+      <c r="F9" s="112"/>
+      <c r="G9" s="112"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="107"/>
+      <c r="J9" s="107"/>
+      <c r="K9" s="167"/>
     </row>
     <row r="10" spans="1:11" ht="18.95" customHeight="1">
-      <c r="A10" s="80">
+      <c r="A10" s="40">
         <f>Page1!A11</f>
         <v>0</v>
       </c>
-      <c r="B10" s="81">
+      <c r="B10" s="41">
         <f>Page1!B11</f>
         <v>0</v>
       </c>
-      <c r="C10" s="82">
+      <c r="C10" s="42">
         <f>Page1!C11</f>
         <v>0</v>
       </c>
-      <c r="D10" s="116"/>
-      <c r="E10" s="116"/>
-      <c r="F10" s="116"/>
-      <c r="G10" s="116"/>
-      <c r="H10" s="83"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="64"/>
-      <c r="K10" s="84"/>
+      <c r="D10" s="112"/>
+      <c r="E10" s="112"/>
+      <c r="F10" s="112"/>
+      <c r="G10" s="112"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="113"/>
+      <c r="J10" s="113"/>
+      <c r="K10" s="166"/>
     </row>
     <row r="11" spans="1:11" ht="18.95" customHeight="1">
-      <c r="A11" s="80">
+      <c r="A11" s="40">
         <f>Page1!A12</f>
         <v>0</v>
       </c>
-      <c r="B11" s="81">
+      <c r="B11" s="41">
         <f>Page1!B12</f>
         <v>0</v>
       </c>
-      <c r="C11" s="82">
+      <c r="C11" s="42">
         <f>Page1!C12</f>
         <v>0</v>
       </c>
-      <c r="D11" s="116"/>
-      <c r="E11" s="116"/>
-      <c r="F11" s="116"/>
-      <c r="G11" s="116"/>
-      <c r="H11" s="83"/>
-      <c r="I11" s="59"/>
-      <c r="J11" s="59"/>
-      <c r="K11" s="85"/>
+      <c r="D11" s="112"/>
+      <c r="E11" s="112"/>
+      <c r="F11" s="112"/>
+      <c r="G11" s="112"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="107"/>
+      <c r="J11" s="107"/>
+      <c r="K11" s="167"/>
     </row>
     <row r="12" spans="1:11" ht="18.95" customHeight="1">
-      <c r="A12" s="80">
+      <c r="A12" s="40">
         <f>Page1!A13</f>
         <v>0</v>
       </c>
-      <c r="B12" s="81">
+      <c r="B12" s="41">
         <f>Page1!B13</f>
         <v>0</v>
       </c>
-      <c r="C12" s="82">
+      <c r="C12" s="42">
         <f>Page1!C13</f>
         <v>0</v>
       </c>
-      <c r="D12" s="116"/>
-      <c r="E12" s="116"/>
-      <c r="F12" s="116"/>
-      <c r="G12" s="116"/>
-      <c r="H12" s="83"/>
-      <c r="I12" s="64"/>
-      <c r="J12" s="64"/>
-      <c r="K12" s="84"/>
+      <c r="D12" s="112"/>
+      <c r="E12" s="112"/>
+      <c r="F12" s="112"/>
+      <c r="G12" s="112"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="113"/>
+      <c r="J12" s="113"/>
+      <c r="K12" s="166"/>
     </row>
     <row r="13" spans="1:11" ht="18.95" customHeight="1">
-      <c r="A13" s="80">
+      <c r="A13" s="40">
         <f>Page1!A14</f>
         <v>0</v>
       </c>
-      <c r="B13" s="81">
+      <c r="B13" s="41">
         <f>Page1!B14</f>
         <v>0</v>
       </c>
-      <c r="C13" s="82">
+      <c r="C13" s="42">
         <f>Page1!C14</f>
         <v>0</v>
       </c>
-      <c r="D13" s="116"/>
-      <c r="E13" s="116"/>
-      <c r="F13" s="116"/>
-      <c r="G13" s="116"/>
-      <c r="H13" s="83"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="85"/>
+      <c r="D13" s="112"/>
+      <c r="E13" s="112"/>
+      <c r="F13" s="112"/>
+      <c r="G13" s="112"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="107"/>
+      <c r="J13" s="107"/>
+      <c r="K13" s="167"/>
     </row>
     <row r="14" spans="1:11" ht="18.95" customHeight="1">
-      <c r="A14" s="80">
+      <c r="A14" s="40">
         <f>Page1!A15</f>
         <v>0</v>
       </c>
-      <c r="B14" s="81">
+      <c r="B14" s="41">
         <f>Page1!B15</f>
         <v>0</v>
       </c>
-      <c r="C14" s="82">
+      <c r="C14" s="42">
         <f>Page1!C15</f>
         <v>0</v>
       </c>
-      <c r="D14" s="116"/>
-      <c r="E14" s="116"/>
-      <c r="F14" s="116"/>
-      <c r="G14" s="116"/>
-      <c r="H14" s="83"/>
-      <c r="I14" s="64"/>
-      <c r="J14" s="64"/>
-      <c r="K14" s="84"/>
+      <c r="D14" s="112"/>
+      <c r="E14" s="112"/>
+      <c r="F14" s="112"/>
+      <c r="G14" s="112"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="113"/>
+      <c r="J14" s="113"/>
+      <c r="K14" s="166"/>
     </row>
     <row r="15" spans="1:11" ht="18.95" customHeight="1">
-      <c r="A15" s="80">
+      <c r="A15" s="40">
         <f>Page1!A16</f>
         <v>0</v>
       </c>
-      <c r="B15" s="81">
+      <c r="B15" s="41">
         <f>Page1!B16</f>
         <v>0</v>
       </c>
-      <c r="C15" s="82">
+      <c r="C15" s="42">
         <f>Page1!C16</f>
         <v>0</v>
       </c>
-      <c r="D15" s="116"/>
-      <c r="E15" s="116"/>
-      <c r="F15" s="116"/>
-      <c r="G15" s="116"/>
-      <c r="H15" s="83"/>
-      <c r="I15" s="64"/>
-      <c r="J15" s="64"/>
-      <c r="K15" s="84"/>
+      <c r="D15" s="112"/>
+      <c r="E15" s="112"/>
+      <c r="F15" s="112"/>
+      <c r="G15" s="112"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="113"/>
+      <c r="J15" s="113"/>
+      <c r="K15" s="166"/>
     </row>
     <row r="16" spans="1:11" ht="18.95" customHeight="1">
-      <c r="A16" s="80">
+      <c r="A16" s="40">
         <f>Page1!A17</f>
         <v>0</v>
       </c>
-      <c r="B16" s="81">
+      <c r="B16" s="41">
         <f>Page1!B17</f>
         <v>0</v>
       </c>
-      <c r="C16" s="82">
+      <c r="C16" s="42">
         <f>Page1!C17</f>
         <v>0</v>
       </c>
-      <c r="D16" s="116"/>
-      <c r="E16" s="116"/>
-      <c r="F16" s="116"/>
-      <c r="G16" s="116"/>
-      <c r="H16" s="83"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="59"/>
-      <c r="K16" s="85"/>
+      <c r="D16" s="112"/>
+      <c r="E16" s="112"/>
+      <c r="F16" s="112"/>
+      <c r="G16" s="112"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="107"/>
+      <c r="J16" s="107"/>
+      <c r="K16" s="167"/>
     </row>
     <row r="17" spans="1:11" ht="18.95" customHeight="1">
-      <c r="A17" s="80">
+      <c r="A17" s="40">
         <f>Page1!A18</f>
         <v>0</v>
       </c>
-      <c r="B17" s="81">
+      <c r="B17" s="41">
         <f>Page1!B18</f>
         <v>0</v>
       </c>
-      <c r="C17" s="82">
+      <c r="C17" s="42">
         <f>Page1!C18</f>
         <v>0</v>
       </c>
-      <c r="D17" s="116"/>
-      <c r="E17" s="116"/>
-      <c r="F17" s="116"/>
-      <c r="G17" s="116"/>
-      <c r="H17" s="83"/>
-      <c r="I17" s="64"/>
-      <c r="J17" s="64"/>
-      <c r="K17" s="84"/>
+      <c r="D17" s="112"/>
+      <c r="E17" s="112"/>
+      <c r="F17" s="112"/>
+      <c r="G17" s="112"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="113"/>
+      <c r="J17" s="113"/>
+      <c r="K17" s="166"/>
     </row>
     <row r="18" spans="1:11" ht="18.95" customHeight="1">
-      <c r="A18" s="80">
+      <c r="A18" s="40">
         <f>Page1!A19</f>
         <v>0</v>
       </c>
-      <c r="B18" s="81">
+      <c r="B18" s="41">
         <f>Page1!B19</f>
         <v>0</v>
       </c>
-      <c r="C18" s="82">
+      <c r="C18" s="42">
         <f>Page1!C19</f>
         <v>0</v>
       </c>
-      <c r="D18" s="116"/>
-      <c r="E18" s="116"/>
-      <c r="F18" s="116"/>
-      <c r="G18" s="116"/>
-      <c r="H18" s="83"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="85"/>
+      <c r="D18" s="112"/>
+      <c r="E18" s="112"/>
+      <c r="F18" s="112"/>
+      <c r="G18" s="112"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="107"/>
+      <c r="J18" s="107"/>
+      <c r="K18" s="167"/>
     </row>
     <row r="19" spans="1:11" ht="18.95" customHeight="1">
-      <c r="A19" s="80">
+      <c r="A19" s="40">
         <f>Page1!A20</f>
         <v>0</v>
       </c>
-      <c r="B19" s="81">
+      <c r="B19" s="41">
         <f>Page1!B20</f>
         <v>0</v>
       </c>
-      <c r="C19" s="82">
+      <c r="C19" s="42">
         <f>Page1!C20</f>
         <v>0</v>
       </c>
-      <c r="D19" s="116"/>
-      <c r="E19" s="116"/>
-      <c r="F19" s="116"/>
-      <c r="G19" s="116"/>
-      <c r="H19" s="83"/>
-      <c r="I19" s="64"/>
-      <c r="J19" s="64"/>
-      <c r="K19" s="84"/>
+      <c r="D19" s="112"/>
+      <c r="E19" s="112"/>
+      <c r="F19" s="112"/>
+      <c r="G19" s="112"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="113"/>
+      <c r="J19" s="113"/>
+      <c r="K19" s="166"/>
     </row>
     <row r="20" spans="1:11" ht="18.95" customHeight="1">
-      <c r="A20" s="80">
+      <c r="A20" s="40">
         <f>Page1!A21</f>
         <v>0</v>
       </c>
-      <c r="B20" s="81">
+      <c r="B20" s="41">
         <f>Page1!B21</f>
         <v>0</v>
       </c>
-      <c r="C20" s="82">
+      <c r="C20" s="42">
         <f>Page1!C21</f>
         <v>0</v>
       </c>
-      <c r="D20" s="116"/>
-      <c r="E20" s="116"/>
-      <c r="F20" s="116"/>
-      <c r="G20" s="116"/>
-      <c r="H20" s="83"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="59"/>
-      <c r="K20" s="85"/>
+      <c r="D20" s="112"/>
+      <c r="E20" s="112"/>
+      <c r="F20" s="112"/>
+      <c r="G20" s="112"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="107"/>
+      <c r="J20" s="107"/>
+      <c r="K20" s="167"/>
     </row>
     <row r="21" spans="1:11" ht="18.95" customHeight="1">
-      <c r="A21" s="80">
+      <c r="A21" s="40">
         <f>Page1!A22</f>
         <v>0</v>
       </c>
-      <c r="B21" s="81">
+      <c r="B21" s="41">
         <f>Page1!B22</f>
         <v>0</v>
       </c>
-      <c r="C21" s="82">
+      <c r="C21" s="42">
         <f>Page1!C22</f>
         <v>0</v>
       </c>
-      <c r="D21" s="116"/>
-      <c r="E21" s="116"/>
-      <c r="F21" s="116"/>
-      <c r="G21" s="116"/>
-      <c r="H21" s="83"/>
-      <c r="I21" s="64"/>
-      <c r="J21" s="64"/>
-      <c r="K21" s="84"/>
+      <c r="D21" s="112"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="112"/>
+      <c r="G21" s="112"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="113"/>
+      <c r="K21" s="166"/>
     </row>
     <row r="22" spans="1:11" ht="18.95" customHeight="1">
-      <c r="A22" s="80">
+      <c r="A22" s="40">
         <f>Page1!A23</f>
         <v>0</v>
       </c>
-      <c r="B22" s="81">
+      <c r="B22" s="41">
         <f>Page1!B23</f>
         <v>0</v>
       </c>
-      <c r="C22" s="82">
+      <c r="C22" s="42">
         <f>Page1!C23</f>
         <v>0</v>
       </c>
-      <c r="D22" s="116"/>
-      <c r="E22" s="116"/>
-      <c r="F22" s="116"/>
-      <c r="G22" s="116"/>
-      <c r="H22" s="83"/>
-      <c r="I22" s="59"/>
-      <c r="J22" s="59"/>
-      <c r="K22" s="85"/>
+      <c r="D22" s="112"/>
+      <c r="E22" s="112"/>
+      <c r="F22" s="112"/>
+      <c r="G22" s="112"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="107"/>
+      <c r="J22" s="107"/>
+      <c r="K22" s="167"/>
     </row>
     <row r="23" spans="1:11" ht="18.95" customHeight="1">
-      <c r="A23" s="80">
+      <c r="A23" s="40">
         <f>Page1!A24</f>
         <v>0</v>
       </c>
-      <c r="B23" s="81">
+      <c r="B23" s="41">
         <f>Page1!B24</f>
         <v>0</v>
       </c>
-      <c r="C23" s="82">
+      <c r="C23" s="42">
         <f>Page1!C24</f>
         <v>0</v>
       </c>
-      <c r="D23" s="116"/>
-      <c r="E23" s="116"/>
-      <c r="F23" s="116"/>
-      <c r="G23" s="116"/>
-      <c r="H23" s="83"/>
-      <c r="I23" s="64"/>
-      <c r="J23" s="64"/>
-      <c r="K23" s="84"/>
+      <c r="D23" s="112"/>
+      <c r="E23" s="112"/>
+      <c r="F23" s="112"/>
+      <c r="G23" s="112"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="113"/>
+      <c r="J23" s="113"/>
+      <c r="K23" s="166"/>
     </row>
     <row r="24" spans="1:11" ht="18.95" customHeight="1">
-      <c r="A24" s="80">
+      <c r="A24" s="40">
         <f>Page1!A25</f>
         <v>0</v>
       </c>
-      <c r="B24" s="81">
+      <c r="B24" s="41">
         <f>Page1!B25</f>
         <v>0</v>
       </c>
-      <c r="C24" s="82">
+      <c r="C24" s="42">
         <f>Page1!C25</f>
         <v>0</v>
       </c>
-      <c r="D24" s="116"/>
-      <c r="E24" s="116"/>
-      <c r="F24" s="116"/>
-      <c r="G24" s="116"/>
-      <c r="H24" s="83"/>
-      <c r="I24" s="59"/>
-      <c r="J24" s="59"/>
-      <c r="K24" s="85"/>
+      <c r="D24" s="112"/>
+      <c r="E24" s="112"/>
+      <c r="F24" s="112"/>
+      <c r="G24" s="112"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="107"/>
+      <c r="J24" s="107"/>
+      <c r="K24" s="167"/>
     </row>
     <row r="25" spans="1:11" ht="18.95" customHeight="1">
-      <c r="A25" s="80">
+      <c r="A25" s="40">
         <f>Page1!A26</f>
         <v>0</v>
       </c>
-      <c r="B25" s="81">
+      <c r="B25" s="41">
         <f>Page1!B26</f>
         <v>0</v>
       </c>
-      <c r="C25" s="82">
+      <c r="C25" s="42">
         <f>Page1!C26</f>
         <v>0</v>
       </c>
-      <c r="D25" s="116"/>
-      <c r="E25" s="116"/>
-      <c r="F25" s="116"/>
-      <c r="G25" s="116"/>
-      <c r="H25" s="83"/>
-      <c r="I25" s="64"/>
-      <c r="J25" s="64"/>
-      <c r="K25" s="84"/>
+      <c r="D25" s="112"/>
+      <c r="E25" s="112"/>
+      <c r="F25" s="112"/>
+      <c r="G25" s="112"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="113"/>
+      <c r="J25" s="113"/>
+      <c r="K25" s="166"/>
     </row>
     <row r="26" spans="1:11" ht="18.95" customHeight="1">
-      <c r="A26" s="80">
+      <c r="A26" s="40">
         <f>Page1!A27</f>
         <v>0</v>
       </c>
-      <c r="B26" s="81">
+      <c r="B26" s="41">
         <f>Page1!B27</f>
         <v>0</v>
       </c>
-      <c r="C26" s="82">
+      <c r="C26" s="42">
         <f>Page1!C27</f>
         <v>0</v>
       </c>
-      <c r="D26" s="116"/>
-      <c r="E26" s="116"/>
-      <c r="F26" s="116"/>
-      <c r="G26" s="116"/>
-      <c r="H26" s="83"/>
-      <c r="I26" s="59"/>
-      <c r="J26" s="59"/>
-      <c r="K26" s="85"/>
+      <c r="D26" s="112"/>
+      <c r="E26" s="112"/>
+      <c r="F26" s="112"/>
+      <c r="G26" s="112"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="107"/>
+      <c r="J26" s="107"/>
+      <c r="K26" s="167"/>
     </row>
     <row r="27" spans="1:11" ht="18.95" customHeight="1">
-      <c r="A27" s="80">
+      <c r="A27" s="40">
         <f>Page1!A28</f>
         <v>0</v>
       </c>
-      <c r="B27" s="81">
+      <c r="B27" s="41">
         <f>Page1!B28</f>
         <v>0</v>
       </c>
-      <c r="C27" s="82">
+      <c r="C27" s="42">
         <f>Page1!C28</f>
         <v>0</v>
       </c>
-      <c r="D27" s="116"/>
-      <c r="E27" s="116"/>
-      <c r="F27" s="116"/>
-      <c r="G27" s="116"/>
-      <c r="H27" s="83"/>
-      <c r="I27" s="64"/>
-      <c r="J27" s="64"/>
-      <c r="K27" s="84"/>
+      <c r="D27" s="112"/>
+      <c r="E27" s="112"/>
+      <c r="F27" s="112"/>
+      <c r="G27" s="112"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="113"/>
+      <c r="J27" s="113"/>
+      <c r="K27" s="166"/>
     </row>
     <row r="28" spans="1:11" ht="18.95" customHeight="1">
-      <c r="A28" s="80">
+      <c r="A28" s="40">
         <f>Page1!A29</f>
         <v>0</v>
       </c>
-      <c r="B28" s="81">
+      <c r="B28" s="41">
         <f>Page1!B29</f>
         <v>0</v>
       </c>
-      <c r="C28" s="82">
+      <c r="C28" s="42">
         <f>Page1!C29</f>
         <v>0</v>
       </c>
-      <c r="D28" s="116"/>
-      <c r="E28" s="116"/>
-      <c r="F28" s="116"/>
-      <c r="G28" s="116"/>
-      <c r="H28" s="83"/>
-      <c r="I28" s="59"/>
-      <c r="J28" s="59"/>
-      <c r="K28" s="85"/>
+      <c r="D28" s="112"/>
+      <c r="E28" s="112"/>
+      <c r="F28" s="112"/>
+      <c r="G28" s="112"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="107"/>
+      <c r="J28" s="107"/>
+      <c r="K28" s="167"/>
     </row>
     <row r="29" spans="1:11" ht="18.95" customHeight="1">
-      <c r="A29" s="80">
+      <c r="A29" s="40">
         <f>Page1!A30</f>
         <v>0</v>
       </c>
-      <c r="B29" s="81">
+      <c r="B29" s="41">
         <f>Page1!B30</f>
         <v>0</v>
       </c>
-      <c r="C29" s="82">
+      <c r="C29" s="42">
         <f>Page1!C30</f>
         <v>0</v>
       </c>
-      <c r="D29" s="116"/>
-      <c r="E29" s="116"/>
-      <c r="F29" s="116"/>
-      <c r="G29" s="116"/>
-      <c r="H29" s="83"/>
-      <c r="I29" s="64"/>
-      <c r="J29" s="64"/>
-      <c r="K29" s="84"/>
+      <c r="D29" s="112"/>
+      <c r="E29" s="112"/>
+      <c r="F29" s="112"/>
+      <c r="G29" s="112"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="113"/>
+      <c r="J29" s="113"/>
+      <c r="K29" s="166"/>
     </row>
     <row r="30" spans="1:11" ht="18.95" customHeight="1">
-      <c r="A30" s="80">
+      <c r="A30" s="40">
         <f>Page1!A31</f>
         <v>0</v>
       </c>
-      <c r="B30" s="81">
+      <c r="B30" s="41">
         <f>Page1!B31</f>
         <v>0</v>
       </c>
-      <c r="C30" s="82">
+      <c r="C30" s="42">
         <f>Page1!C31</f>
         <v>0</v>
       </c>
-      <c r="D30" s="116"/>
-      <c r="E30" s="116"/>
-      <c r="F30" s="116"/>
-      <c r="G30" s="116"/>
-      <c r="H30" s="83"/>
-      <c r="I30" s="59"/>
-      <c r="J30" s="59"/>
-      <c r="K30" s="85"/>
+      <c r="D30" s="112"/>
+      <c r="E30" s="112"/>
+      <c r="F30" s="112"/>
+      <c r="G30" s="112"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="107"/>
+      <c r="J30" s="107"/>
+      <c r="K30" s="167"/>
     </row>
     <row r="31" spans="1:11" ht="18.95" customHeight="1">
-      <c r="A31" s="80">
+      <c r="A31" s="40">
         <f>Page1!A32</f>
         <v>0</v>
       </c>
-      <c r="B31" s="81">
+      <c r="B31" s="41">
         <f>Page1!B32</f>
         <v>0</v>
       </c>
-      <c r="C31" s="82">
+      <c r="C31" s="42">
         <f>Page1!C32</f>
         <v>0</v>
       </c>
-      <c r="D31" s="116"/>
-      <c r="E31" s="116"/>
-      <c r="F31" s="116"/>
-      <c r="G31" s="116"/>
-      <c r="H31" s="83"/>
-      <c r="I31" s="64"/>
-      <c r="J31" s="64"/>
-      <c r="K31" s="84"/>
+      <c r="D31" s="112"/>
+      <c r="E31" s="112"/>
+      <c r="F31" s="112"/>
+      <c r="G31" s="112"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="113"/>
+      <c r="J31" s="113"/>
+      <c r="K31" s="166"/>
     </row>
     <row r="32" spans="1:11" ht="18.95" customHeight="1">
-      <c r="A32" s="80">
+      <c r="A32" s="40">
         <f>Page1!A33</f>
         <v>0</v>
       </c>
-      <c r="B32" s="81">
+      <c r="B32" s="41">
         <f>Page1!B33</f>
         <v>0</v>
       </c>
-      <c r="C32" s="82">
+      <c r="C32" s="42">
         <f>Page1!C33</f>
         <v>0</v>
       </c>
-      <c r="D32" s="116"/>
-      <c r="E32" s="116"/>
-      <c r="F32" s="116"/>
-      <c r="G32" s="116"/>
-      <c r="H32" s="83"/>
-      <c r="I32" s="64"/>
-      <c r="J32" s="64"/>
-      <c r="K32" s="84"/>
+      <c r="D32" s="112"/>
+      <c r="E32" s="112"/>
+      <c r="F32" s="112"/>
+      <c r="G32" s="112"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="113"/>
+      <c r="J32" s="113"/>
+      <c r="K32" s="166"/>
     </row>
     <row r="33" spans="1:11" ht="18.95" customHeight="1">
-      <c r="A33" s="80">
+      <c r="A33" s="40">
         <f>Page1!A34</f>
         <v>0</v>
       </c>
-      <c r="B33" s="81">
+      <c r="B33" s="41">
         <f>Page1!B34</f>
         <v>0</v>
       </c>
-      <c r="C33" s="82">
+      <c r="C33" s="42">
         <f>Page1!C34</f>
         <v>0</v>
       </c>
-      <c r="D33" s="116"/>
-      <c r="E33" s="116"/>
-      <c r="F33" s="116"/>
-      <c r="G33" s="116"/>
-      <c r="H33" s="83"/>
-      <c r="I33" s="59"/>
-      <c r="J33" s="59"/>
-      <c r="K33" s="85"/>
+      <c r="D33" s="112"/>
+      <c r="E33" s="112"/>
+      <c r="F33" s="112"/>
+      <c r="G33" s="112"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="107"/>
+      <c r="J33" s="107"/>
+      <c r="K33" s="167"/>
     </row>
     <row r="34" spans="1:11" ht="18.95" customHeight="1">
-      <c r="A34" s="80">
+      <c r="A34" s="40">
         <f>Page1!A35</f>
         <v>0</v>
       </c>
-      <c r="B34" s="81">
+      <c r="B34" s="41">
         <f>Page1!B35</f>
         <v>0</v>
       </c>
-      <c r="C34" s="82">
+      <c r="C34" s="42">
         <f>Page1!C35</f>
         <v>0</v>
       </c>
-      <c r="D34" s="116"/>
-      <c r="E34" s="116"/>
-      <c r="F34" s="116"/>
-      <c r="G34" s="116"/>
-      <c r="H34" s="83"/>
-      <c r="I34" s="64"/>
-      <c r="J34" s="64"/>
-      <c r="K34" s="84"/>
+      <c r="D34" s="112"/>
+      <c r="E34" s="112"/>
+      <c r="F34" s="112"/>
+      <c r="G34" s="112"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="113"/>
+      <c r="J34" s="113"/>
+      <c r="K34" s="166"/>
     </row>
     <row r="35" spans="1:11" ht="18.95" customHeight="1">
-      <c r="A35" s="80">
+      <c r="A35" s="40">
         <f>Page1!A36</f>
         <v>0</v>
       </c>
-      <c r="B35" s="81">
+      <c r="B35" s="41">
         <f>Page1!B36</f>
         <v>0</v>
       </c>
-      <c r="C35" s="82">
+      <c r="C35" s="42">
         <f>Page1!C36</f>
         <v>0</v>
       </c>
-      <c r="D35" s="116"/>
-      <c r="E35" s="116"/>
-      <c r="F35" s="116"/>
-      <c r="G35" s="116"/>
-      <c r="H35" s="83"/>
-      <c r="I35" s="64"/>
-      <c r="J35" s="64"/>
-      <c r="K35" s="84"/>
+      <c r="D35" s="112"/>
+      <c r="E35" s="112"/>
+      <c r="F35" s="112"/>
+      <c r="G35" s="112"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="113"/>
+      <c r="J35" s="113"/>
+      <c r="K35" s="166"/>
     </row>
     <row r="36" spans="1:11" ht="18.95" customHeight="1">
-      <c r="A36" s="80">
+      <c r="A36" s="40">
         <f>Page1!A37</f>
         <v>0</v>
       </c>
-      <c r="B36" s="81">
+      <c r="B36" s="41">
         <f>Page1!B37</f>
         <v>0</v>
       </c>
-      <c r="C36" s="82">
+      <c r="C36" s="42">
         <f>Page1!C37</f>
         <v>0</v>
       </c>
-      <c r="D36" s="116"/>
-      <c r="E36" s="116"/>
-      <c r="F36" s="116"/>
-      <c r="G36" s="116"/>
-      <c r="H36" s="83"/>
-      <c r="I36" s="59"/>
-      <c r="J36" s="59"/>
-      <c r="K36" s="85"/>
+      <c r="D36" s="112"/>
+      <c r="E36" s="112"/>
+      <c r="F36" s="112"/>
+      <c r="G36" s="112"/>
+      <c r="H36" s="43"/>
+      <c r="I36" s="107"/>
+      <c r="J36" s="107"/>
+      <c r="K36" s="167"/>
     </row>
     <row r="37" spans="1:11" ht="18.95" customHeight="1" thickBot="1">
-      <c r="A37" s="86">
+      <c r="A37" s="44">
         <f>Page1!A38</f>
         <v>0</v>
       </c>
-      <c r="B37" s="81">
+      <c r="B37" s="41">
         <f>Page1!B38</f>
         <v>0</v>
       </c>
-      <c r="C37" s="87">
+      <c r="C37" s="45">
         <f>Page1!C38</f>
         <v>0</v>
       </c>
-      <c r="D37" s="116"/>
-      <c r="E37" s="116"/>
-      <c r="F37" s="116"/>
-      <c r="G37" s="116"/>
-      <c r="H37" s="83"/>
-      <c r="I37" s="64"/>
-      <c r="J37" s="64"/>
-      <c r="K37" s="84"/>
+      <c r="D37" s="112"/>
+      <c r="E37" s="112"/>
+      <c r="F37" s="112"/>
+      <c r="G37" s="112"/>
+      <c r="H37" s="43"/>
+      <c r="I37" s="113"/>
+      <c r="J37" s="113"/>
+      <c r="K37" s="166"/>
     </row>
     <row r="38" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A38" s="180" t="s">
+      <c r="A38" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="B38" s="181"/>
-      <c r="C38" s="182"/>
-      <c r="D38" s="118" t="e">
+      <c r="B38" s="49"/>
+      <c r="C38" s="50"/>
+      <c r="D38" s="168" t="e">
         <f t="shared" ref="D38:K38" si="0">AVERAGE(D8:D37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E38" s="118" t="e">
+      <c r="E38" s="168" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F38" s="118" t="e">
+      <c r="F38" s="168" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G38" s="118" t="e">
+      <c r="G38" s="168" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H38" s="67" t="e">
+      <c r="H38" s="119" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I38" s="67" t="e">
+      <c r="I38" s="119" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J38" s="67" t="e">
+      <c r="J38" s="119" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K38" s="88" t="e">
+      <c r="K38" s="169" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A39" s="183" t="s">
+      <c r="A39" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="B39" s="184"/>
-      <c r="C39" s="185"/>
-      <c r="D39" s="119">
+      <c r="B39" s="52"/>
+      <c r="C39" s="53"/>
+      <c r="D39" s="170">
         <f t="shared" ref="D39:K39" si="1">MIN(D8:D37)</f>
         <v>0</v>
       </c>
-      <c r="E39" s="119">
+      <c r="E39" s="170">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F39" s="119">
+      <c r="F39" s="170">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G39" s="119">
+      <c r="G39" s="170">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H39" s="69">
+      <c r="H39" s="123">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I39" s="69">
+      <c r="I39" s="123">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J39" s="69">
+      <c r="J39" s="123">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K39" s="89">
+      <c r="K39" s="171">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A40" s="186" t="s">
+      <c r="A40" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="B40" s="187"/>
-      <c r="C40" s="188"/>
-      <c r="D40" s="117">
+      <c r="B40" s="55"/>
+      <c r="C40" s="56"/>
+      <c r="D40" s="172">
         <f t="shared" ref="D40:K40" si="2">MAX(D8:D37)</f>
         <v>0</v>
       </c>
-      <c r="E40" s="117">
+      <c r="E40" s="172">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F40" s="117">
+      <c r="F40" s="172">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G40" s="117">
+      <c r="G40" s="172">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H40" s="71">
+      <c r="H40" s="127">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I40" s="71">
+      <c r="I40" s="127">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J40" s="71">
+      <c r="J40" s="127">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K40" s="90">
+      <c r="K40" s="173">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="45" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A41" s="73" t="s">
+    <row r="41" spans="1:11" s="60" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A41" s="130" t="s">
         <v>11</v>
       </c>
-      <c r="B41" s="152"/>
-      <c r="C41" s="152"/>
-      <c r="D41" s="115" t="s">
+      <c r="B41" s="131"/>
+      <c r="C41" s="131"/>
+      <c r="D41" s="132" t="s">
         <v>13</v>
       </c>
-      <c r="E41" s="74"/>
-      <c r="F41" s="62"/>
-      <c r="G41" s="126" t="s">
+      <c r="E41" s="132"/>
+      <c r="F41" s="110"/>
+      <c r="G41" s="133" t="s">
         <v>14</v>
       </c>
-      <c r="H41" s="126"/>
-      <c r="I41" s="153"/>
-      <c r="J41" s="153"/>
-      <c r="K41" s="66" t="s">
+      <c r="H41" s="133"/>
+      <c r="I41" s="134"/>
+      <c r="J41" s="134"/>
+      <c r="K41" s="135" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="45" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A42" s="73"/>
-      <c r="B42" s="154"/>
-      <c r="C42" s="154"/>
-      <c r="D42" s="75"/>
-      <c r="E42" s="73"/>
-      <c r="F42" s="62"/>
-      <c r="G42" s="62"/>
-      <c r="H42" s="76"/>
-      <c r="I42" s="155"/>
-      <c r="J42" s="155"/>
-      <c r="K42" s="91"/>
-    </row>
-    <row r="43" spans="1:11" s="51" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A43" s="127" t="s">
+    <row r="42" spans="1:11" s="60" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A42" s="130"/>
+      <c r="B42" s="136"/>
+      <c r="C42" s="136"/>
+      <c r="D42" s="137"/>
+      <c r="E42" s="130"/>
+      <c r="F42" s="110"/>
+      <c r="G42" s="110"/>
+      <c r="H42" s="138"/>
+      <c r="I42" s="139"/>
+      <c r="J42" s="139"/>
+      <c r="K42" s="174"/>
+    </row>
+    <row r="43" spans="1:11" s="75" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A43" s="140" t="s">
         <v>12</v>
       </c>
-      <c r="B43" s="127"/>
-      <c r="C43" s="127"/>
-      <c r="E43" s="48" t="s">
+      <c r="B43" s="140"/>
+      <c r="C43" s="140"/>
+      <c r="E43" s="65" t="s">
         <v>122</v>
       </c>
-      <c r="F43" s="125" t="s">
+      <c r="F43" s="116" t="s">
         <v>123</v>
       </c>
-      <c r="G43" s="125"/>
-    </row>
-    <row r="44" spans="1:11" s="45" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A44" s="128" t="s">
+      <c r="G43" s="116"/>
+    </row>
+    <row r="44" spans="1:11" s="60" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A44" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="B44" s="128"/>
-      <c r="C44" s="66"/>
-      <c r="D44" s="62"/>
-      <c r="E44" s="62"/>
-      <c r="F44" s="62"/>
-      <c r="G44" s="62"/>
-      <c r="H44" s="62"/>
-      <c r="I44" s="62"/>
-      <c r="J44" s="129" t="s">
+      <c r="B44" s="115"/>
+      <c r="C44" s="135"/>
+      <c r="D44" s="110"/>
+      <c r="E44" s="110"/>
+      <c r="F44" s="110"/>
+      <c r="G44" s="110"/>
+      <c r="H44" s="110"/>
+      <c r="I44" s="110"/>
+      <c r="J44" s="141" t="s">
         <v>115</v>
       </c>
-      <c r="K44" s="129"/>
+      <c r="K44" s="141"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="F43:G43"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="H6:K6"/>
     <mergeCell ref="B41:C41"/>
@@ -8168,10 +8107,11 @@
     <mergeCell ref="A40:C40"/>
     <mergeCell ref="D6:G6"/>
     <mergeCell ref="G41:H41"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
   </mergeCells>
   <conditionalFormatting sqref="D8:D40">
     <cfRule type="cellIs" dxfId="9" priority="8" operator="lessThan">
@@ -8229,12 +8169,12 @@
   <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
     <col min="4" max="4" width="14.85546875" customWidth="1"/>
     <col min="5" max="5" width="21.7109375" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
@@ -8317,28 +8257,28 @@
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="42"/>
-      <c r="B3" s="40">
+      <c r="A3" s="175"/>
+      <c r="B3" s="38">
         <f>Page1!C9</f>
         <v>0</v>
       </c>
-      <c r="D3" s="41">
+      <c r="D3" s="39">
         <f>Page1!D9</f>
         <v>0</v>
       </c>
-      <c r="E3" s="41">
+      <c r="E3" s="39">
         <f>Page2!D8</f>
         <v>0</v>
       </c>
-      <c r="F3" s="41">
+      <c r="F3" s="39">
         <f>Page2!F8</f>
         <v>0</v>
       </c>
-      <c r="G3" s="41">
+      <c r="G3" s="39">
         <f>Page2!E8</f>
         <v>0</v>
       </c>
-      <c r="H3" s="41">
+      <c r="H3" s="39">
         <f>Page2!G8</f>
         <v>0</v>
       </c>
@@ -8346,11 +8286,11 @@
         <f>Page1!K9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J3" s="41">
+      <c r="J3" s="39">
         <f>Page1!E9</f>
         <v>0</v>
       </c>
-      <c r="K3" s="41">
+      <c r="K3" s="39">
         <f>Page1!F9</f>
         <v>0</v>
       </c>
@@ -8359,28 +8299,28 @@
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="42"/>
-      <c r="B4" s="40">
+      <c r="A4" s="175"/>
+      <c r="B4" s="38">
         <f>Page1!C10</f>
         <v>0</v>
       </c>
-      <c r="D4" s="41">
+      <c r="D4" s="39">
         <f>Page1!D10</f>
         <v>0</v>
       </c>
-      <c r="E4" s="41">
+      <c r="E4" s="39">
         <f>Page2!D9</f>
         <v>0</v>
       </c>
-      <c r="F4" s="41">
+      <c r="F4" s="39">
         <f>Page2!F9</f>
         <v>0</v>
       </c>
-      <c r="G4" s="41">
+      <c r="G4" s="39">
         <f>Page2!E9</f>
         <v>0</v>
       </c>
-      <c r="H4" s="41">
+      <c r="H4" s="39">
         <f>Page2!G9</f>
         <v>0</v>
       </c>
@@ -8388,11 +8328,11 @@
         <f>Page1!K10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J4" s="41">
+      <c r="J4" s="39">
         <f>Page1!E10</f>
         <v>0</v>
       </c>
-      <c r="K4" s="41">
+      <c r="K4" s="39">
         <f>Page1!F10</f>
         <v>0</v>
       </c>
@@ -8402,28 +8342,28 @@
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="42"/>
-      <c r="B5" s="40">
+      <c r="A5" s="175"/>
+      <c r="B5" s="38">
         <f>Page1!C11</f>
         <v>0</v>
       </c>
-      <c r="D5" s="41">
+      <c r="D5" s="39">
         <f>Page1!D11</f>
         <v>0</v>
       </c>
-      <c r="E5" s="41">
+      <c r="E5" s="39">
         <f>Page2!D10</f>
         <v>0</v>
       </c>
-      <c r="F5" s="41">
+      <c r="F5" s="39">
         <f>Page2!F10</f>
         <v>0</v>
       </c>
-      <c r="G5" s="41">
+      <c r="G5" s="39">
         <f>Page2!E10</f>
         <v>0</v>
       </c>
-      <c r="H5" s="41">
+      <c r="H5" s="39">
         <f>Page2!G10</f>
         <v>0</v>
       </c>
@@ -8431,11 +8371,11 @@
         <f>Page1!K11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J5" s="41">
+      <c r="J5" s="39">
         <f>Page1!E11</f>
         <v>0</v>
       </c>
-      <c r="K5" s="41">
+      <c r="K5" s="39">
         <f>Page1!F11</f>
         <v>0</v>
       </c>
@@ -8445,28 +8385,28 @@
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="42"/>
-      <c r="B6" s="40">
+      <c r="A6" s="175"/>
+      <c r="B6" s="38">
         <f>Page1!C12</f>
         <v>0</v>
       </c>
-      <c r="D6" s="41">
+      <c r="D6" s="39">
         <f>Page1!D12</f>
         <v>0</v>
       </c>
-      <c r="E6" s="41">
+      <c r="E6" s="39">
         <f>Page2!D11</f>
         <v>0</v>
       </c>
-      <c r="F6" s="41">
+      <c r="F6" s="39">
         <f>Page2!F11</f>
         <v>0</v>
       </c>
-      <c r="G6" s="41">
+      <c r="G6" s="39">
         <f>Page2!E11</f>
         <v>0</v>
       </c>
-      <c r="H6" s="41">
+      <c r="H6" s="39">
         <f>Page2!G11</f>
         <v>0</v>
       </c>
@@ -8474,11 +8414,11 @@
         <f>Page1!K12</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J6" s="41">
+      <c r="J6" s="39">
         <f>Page1!E12</f>
         <v>0</v>
       </c>
-      <c r="K6" s="41">
+      <c r="K6" s="39">
         <f>Page1!F12</f>
         <v>0</v>
       </c>
@@ -8488,28 +8428,28 @@
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="42"/>
-      <c r="B7" s="40">
+      <c r="A7" s="175"/>
+      <c r="B7" s="38">
         <f>Page1!C13</f>
         <v>0</v>
       </c>
-      <c r="D7" s="41">
+      <c r="D7" s="39">
         <f>Page1!D13</f>
         <v>0</v>
       </c>
-      <c r="E7" s="41">
+      <c r="E7" s="39">
         <f>Page2!D12</f>
         <v>0</v>
       </c>
-      <c r="F7" s="41">
+      <c r="F7" s="39">
         <f>Page2!F12</f>
         <v>0</v>
       </c>
-      <c r="G7" s="41">
+      <c r="G7" s="39">
         <f>Page2!E12</f>
         <v>0</v>
       </c>
-      <c r="H7" s="41">
+      <c r="H7" s="39">
         <f>Page2!G12</f>
         <v>0</v>
       </c>
@@ -8517,11 +8457,11 @@
         <f>Page1!K13</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J7" s="41">
+      <c r="J7" s="39">
         <f>Page1!E13</f>
         <v>0</v>
       </c>
-      <c r="K7" s="41">
+      <c r="K7" s="39">
         <f>Page1!F13</f>
         <v>0</v>
       </c>
@@ -8531,28 +8471,28 @@
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="42"/>
-      <c r="B8" s="40">
+      <c r="A8" s="175"/>
+      <c r="B8" s="38">
         <f>Page1!C14</f>
         <v>0</v>
       </c>
-      <c r="D8" s="41">
+      <c r="D8" s="39">
         <f>Page1!D14</f>
         <v>0</v>
       </c>
-      <c r="E8" s="41">
+      <c r="E8" s="39">
         <f>Page2!D13</f>
         <v>0</v>
       </c>
-      <c r="F8" s="41">
+      <c r="F8" s="39">
         <f>Page2!F13</f>
         <v>0</v>
       </c>
-      <c r="G8" s="41">
+      <c r="G8" s="39">
         <f>Page2!E13</f>
         <v>0</v>
       </c>
-      <c r="H8" s="41">
+      <c r="H8" s="39">
         <f>Page2!G13</f>
         <v>0</v>
       </c>
@@ -8560,11 +8500,11 @@
         <f>Page1!K14</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J8" s="41">
+      <c r="J8" s="39">
         <f>Page1!E14</f>
         <v>0</v>
       </c>
-      <c r="K8" s="41">
+      <c r="K8" s="39">
         <f>Page1!F14</f>
         <v>0</v>
       </c>
@@ -8574,28 +8514,28 @@
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="42"/>
-      <c r="B9" s="40">
+      <c r="A9" s="175"/>
+      <c r="B9" s="38">
         <f>Page1!C15</f>
         <v>0</v>
       </c>
-      <c r="D9" s="41">
+      <c r="D9" s="39">
         <f>Page1!D15</f>
         <v>0</v>
       </c>
-      <c r="E9" s="41">
+      <c r="E9" s="39">
         <f>Page2!D14</f>
         <v>0</v>
       </c>
-      <c r="F9" s="41">
+      <c r="F9" s="39">
         <f>Page2!F14</f>
         <v>0</v>
       </c>
-      <c r="G9" s="41">
+      <c r="G9" s="39">
         <f>Page2!E14</f>
         <v>0</v>
       </c>
-      <c r="H9" s="41">
+      <c r="H9" s="39">
         <f>Page2!G14</f>
         <v>0</v>
       </c>
@@ -8603,11 +8543,11 @@
         <f>Page1!K15</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J9" s="41">
+      <c r="J9" s="39">
         <f>Page1!E15</f>
         <v>0</v>
       </c>
-      <c r="K9" s="41">
+      <c r="K9" s="39">
         <f>Page1!F15</f>
         <v>0</v>
       </c>
@@ -8617,28 +8557,28 @@
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="42"/>
-      <c r="B10" s="40">
+      <c r="A10" s="175"/>
+      <c r="B10" s="38">
         <f>Page1!C16</f>
         <v>0</v>
       </c>
-      <c r="D10" s="41">
+      <c r="D10" s="39">
         <f>Page1!D16</f>
         <v>0</v>
       </c>
-      <c r="E10" s="41">
+      <c r="E10" s="39">
         <f>Page2!D15</f>
         <v>0</v>
       </c>
-      <c r="F10" s="41">
+      <c r="F10" s="39">
         <f>Page2!F15</f>
         <v>0</v>
       </c>
-      <c r="G10" s="41">
+      <c r="G10" s="39">
         <f>Page2!E15</f>
         <v>0</v>
       </c>
-      <c r="H10" s="41">
+      <c r="H10" s="39">
         <f>Page2!G15</f>
         <v>0</v>
       </c>
@@ -8646,11 +8586,11 @@
         <f>Page1!K16</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J10" s="41">
+      <c r="J10" s="39">
         <f>Page1!E16</f>
         <v>0</v>
       </c>
-      <c r="K10" s="41">
+      <c r="K10" s="39">
         <f>Page1!F16</f>
         <v>0</v>
       </c>
@@ -8660,28 +8600,28 @@
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="42"/>
-      <c r="B11" s="40">
+      <c r="A11" s="175"/>
+      <c r="B11" s="38">
         <f>Page1!C17</f>
         <v>0</v>
       </c>
-      <c r="D11" s="41">
+      <c r="D11" s="39">
         <f>Page1!D17</f>
         <v>0</v>
       </c>
-      <c r="E11" s="41">
+      <c r="E11" s="39">
         <f>Page2!D16</f>
         <v>0</v>
       </c>
-      <c r="F11" s="41">
+      <c r="F11" s="39">
         <f>Page2!F16</f>
         <v>0</v>
       </c>
-      <c r="G11" s="41">
+      <c r="G11" s="39">
         <f>Page2!E16</f>
         <v>0</v>
       </c>
-      <c r="H11" s="41">
+      <c r="H11" s="39">
         <f>Page2!G16</f>
         <v>0</v>
       </c>
@@ -8689,11 +8629,11 @@
         <f>Page1!K17</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J11" s="41">
+      <c r="J11" s="39">
         <f>Page1!E17</f>
         <v>0</v>
       </c>
-      <c r="K11" s="41">
+      <c r="K11" s="39">
         <f>Page1!F17</f>
         <v>0</v>
       </c>
@@ -8703,28 +8643,28 @@
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="42"/>
-      <c r="B12" s="40">
+      <c r="A12" s="175"/>
+      <c r="B12" s="38">
         <f>Page1!C18</f>
         <v>0</v>
       </c>
-      <c r="D12" s="41">
+      <c r="D12" s="39">
         <f>Page1!D18</f>
         <v>0</v>
       </c>
-      <c r="E12" s="41">
+      <c r="E12" s="39">
         <f>Page2!D17</f>
         <v>0</v>
       </c>
-      <c r="F12" s="41">
+      <c r="F12" s="39">
         <f>Page2!F17</f>
         <v>0</v>
       </c>
-      <c r="G12" s="41">
+      <c r="G12" s="39">
         <f>Page2!E17</f>
         <v>0</v>
       </c>
-      <c r="H12" s="41">
+      <c r="H12" s="39">
         <f>Page2!G17</f>
         <v>0</v>
       </c>
@@ -8732,11 +8672,11 @@
         <f>Page1!K18</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J12" s="41">
+      <c r="J12" s="39">
         <f>Page1!E18</f>
         <v>0</v>
       </c>
-      <c r="K12" s="41">
+      <c r="K12" s="39">
         <f>Page1!F18</f>
         <v>0</v>
       </c>
@@ -8746,28 +8686,28 @@
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="42"/>
-      <c r="B13" s="40">
+      <c r="A13" s="175"/>
+      <c r="B13" s="38">
         <f>Page1!C19</f>
         <v>0</v>
       </c>
-      <c r="D13" s="41">
+      <c r="D13" s="39">
         <f>Page1!D19</f>
         <v>0</v>
       </c>
-      <c r="E13" s="41">
+      <c r="E13" s="39">
         <f>Page2!D18</f>
         <v>0</v>
       </c>
-      <c r="F13" s="41">
+      <c r="F13" s="39">
         <f>Page2!F18</f>
         <v>0</v>
       </c>
-      <c r="G13" s="41">
+      <c r="G13" s="39">
         <f>Page2!E18</f>
         <v>0</v>
       </c>
-      <c r="H13" s="41">
+      <c r="H13" s="39">
         <f>Page2!G18</f>
         <v>0</v>
       </c>
@@ -8775,11 +8715,11 @@
         <f>Page1!K19</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J13" s="41">
+      <c r="J13" s="39">
         <f>Page1!E19</f>
         <v>0</v>
       </c>
-      <c r="K13" s="41">
+      <c r="K13" s="39">
         <f>Page1!F19</f>
         <v>0</v>
       </c>
@@ -8789,28 +8729,28 @@
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="42"/>
-      <c r="B14" s="40">
+      <c r="A14" s="175"/>
+      <c r="B14" s="38">
         <f>Page1!C20</f>
         <v>0</v>
       </c>
-      <c r="D14" s="41">
+      <c r="D14" s="39">
         <f>Page1!D20</f>
         <v>0</v>
       </c>
-      <c r="E14" s="41">
+      <c r="E14" s="39">
         <f>Page2!D19</f>
         <v>0</v>
       </c>
-      <c r="F14" s="41">
+      <c r="F14" s="39">
         <f>Page2!F19</f>
         <v>0</v>
       </c>
-      <c r="G14" s="41">
+      <c r="G14" s="39">
         <f>Page2!E19</f>
         <v>0</v>
       </c>
-      <c r="H14" s="41">
+      <c r="H14" s="39">
         <f>Page2!G19</f>
         <v>0</v>
       </c>
@@ -8818,11 +8758,11 @@
         <f>Page1!K20</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J14" s="41">
+      <c r="J14" s="39">
         <f>Page1!E20</f>
         <v>0</v>
       </c>
-      <c r="K14" s="41">
+      <c r="K14" s="39">
         <f>Page1!F20</f>
         <v>0</v>
       </c>
@@ -8832,28 +8772,28 @@
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="42"/>
-      <c r="B15" s="40">
+      <c r="A15" s="175"/>
+      <c r="B15" s="38">
         <f>Page1!C21</f>
         <v>0</v>
       </c>
-      <c r="D15" s="41">
+      <c r="D15" s="39">
         <f>Page1!D21</f>
         <v>0</v>
       </c>
-      <c r="E15" s="41">
+      <c r="E15" s="39">
         <f>Page2!D20</f>
         <v>0</v>
       </c>
-      <c r="F15" s="41">
+      <c r="F15" s="39">
         <f>Page2!F20</f>
         <v>0</v>
       </c>
-      <c r="G15" s="41">
+      <c r="G15" s="39">
         <f>Page2!E20</f>
         <v>0</v>
       </c>
-      <c r="H15" s="41">
+      <c r="H15" s="39">
         <f>Page2!G20</f>
         <v>0</v>
       </c>
@@ -8861,11 +8801,11 @@
         <f>Page1!K21</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J15" s="41">
+      <c r="J15" s="39">
         <f>Page1!E21</f>
         <v>0</v>
       </c>
-      <c r="K15" s="41">
+      <c r="K15" s="39">
         <f>Page1!F21</f>
         <v>0</v>
       </c>
@@ -8875,28 +8815,28 @@
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="42"/>
-      <c r="B16" s="40">
+      <c r="A16" s="175"/>
+      <c r="B16" s="38">
         <f>Page1!C22</f>
         <v>0</v>
       </c>
-      <c r="D16" s="41">
+      <c r="D16" s="39">
         <f>Page1!D22</f>
         <v>0</v>
       </c>
-      <c r="E16" s="41">
+      <c r="E16" s="39">
         <f>Page2!D21</f>
         <v>0</v>
       </c>
-      <c r="F16" s="41">
+      <c r="F16" s="39">
         <f>Page2!F21</f>
         <v>0</v>
       </c>
-      <c r="G16" s="41">
+      <c r="G16" s="39">
         <f>Page2!E21</f>
         <v>0</v>
       </c>
-      <c r="H16" s="41">
+      <c r="H16" s="39">
         <f>Page2!G21</f>
         <v>0</v>
       </c>
@@ -8904,11 +8844,11 @@
         <f>Page1!K22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J16" s="41">
+      <c r="J16" s="39">
         <f>Page1!E22</f>
         <v>0</v>
       </c>
-      <c r="K16" s="41">
+      <c r="K16" s="39">
         <f>Page1!F22</f>
         <v>0</v>
       </c>
@@ -8918,28 +8858,28 @@
       </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="42"/>
-      <c r="B17" s="40">
+      <c r="A17" s="175"/>
+      <c r="B17" s="38">
         <f>Page1!C23</f>
         <v>0</v>
       </c>
-      <c r="D17" s="41">
+      <c r="D17" s="39">
         <f>Page1!D23</f>
         <v>0</v>
       </c>
-      <c r="E17" s="41">
+      <c r="E17" s="39">
         <f>Page2!D22</f>
         <v>0</v>
       </c>
-      <c r="F17" s="41">
+      <c r="F17" s="39">
         <f>Page2!F22</f>
         <v>0</v>
       </c>
-      <c r="G17" s="41">
+      <c r="G17" s="39">
         <f>Page2!E22</f>
         <v>0</v>
       </c>
-      <c r="H17" s="41">
+      <c r="H17" s="39">
         <f>Page2!G22</f>
         <v>0</v>
       </c>
@@ -8947,11 +8887,11 @@
         <f>Page1!K23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J17" s="41">
+      <c r="J17" s="39">
         <f>Page1!E23</f>
         <v>0</v>
       </c>
-      <c r="K17" s="41">
+      <c r="K17" s="39">
         <f>Page1!F23</f>
         <v>0</v>
       </c>
@@ -8961,28 +8901,28 @@
       </c>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="42"/>
-      <c r="B18" s="40">
+      <c r="A18" s="175"/>
+      <c r="B18" s="38">
         <f>Page1!C24</f>
         <v>0</v>
       </c>
-      <c r="D18" s="41">
+      <c r="D18" s="39">
         <f>Page1!D24</f>
         <v>0</v>
       </c>
-      <c r="E18" s="41">
+      <c r="E18" s="39">
         <f>Page2!D23</f>
         <v>0</v>
       </c>
-      <c r="F18" s="41">
+      <c r="F18" s="39">
         <f>Page2!F23</f>
         <v>0</v>
       </c>
-      <c r="G18" s="41">
+      <c r="G18" s="39">
         <f>Page2!E23</f>
         <v>0</v>
       </c>
-      <c r="H18" s="41">
+      <c r="H18" s="39">
         <f>Page2!G23</f>
         <v>0</v>
       </c>
@@ -8990,11 +8930,11 @@
         <f>Page1!K24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J18" s="41">
+      <c r="J18" s="39">
         <f>Page1!E24</f>
         <v>0</v>
       </c>
-      <c r="K18" s="41">
+      <c r="K18" s="39">
         <f>Page1!F24</f>
         <v>0</v>
       </c>
@@ -9004,28 +8944,28 @@
       </c>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="42"/>
-      <c r="B19" s="40">
+      <c r="A19" s="175"/>
+      <c r="B19" s="38">
         <f>Page1!C25</f>
         <v>0</v>
       </c>
-      <c r="D19" s="41">
+      <c r="D19" s="39">
         <f>Page1!D25</f>
         <v>0</v>
       </c>
-      <c r="E19" s="41">
+      <c r="E19" s="39">
         <f>Page2!D24</f>
         <v>0</v>
       </c>
-      <c r="F19" s="41">
+      <c r="F19" s="39">
         <f>Page2!F24</f>
         <v>0</v>
       </c>
-      <c r="G19" s="41">
+      <c r="G19" s="39">
         <f>Page2!E24</f>
         <v>0</v>
       </c>
-      <c r="H19" s="41">
+      <c r="H19" s="39">
         <f>Page2!G24</f>
         <v>0</v>
       </c>
@@ -9033,11 +8973,11 @@
         <f>Page1!K25</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J19" s="41">
+      <c r="J19" s="39">
         <f>Page1!E25</f>
         <v>0</v>
       </c>
-      <c r="K19" s="41">
+      <c r="K19" s="39">
         <f>Page1!F25</f>
         <v>0</v>
       </c>
@@ -9047,28 +8987,28 @@
       </c>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="42"/>
-      <c r="B20" s="40">
+      <c r="A20" s="175"/>
+      <c r="B20" s="38">
         <f>Page1!C26</f>
         <v>0</v>
       </c>
-      <c r="D20" s="41">
+      <c r="D20" s="39">
         <f>Page1!D26</f>
         <v>0</v>
       </c>
-      <c r="E20" s="41">
+      <c r="E20" s="39">
         <f>Page2!D25</f>
         <v>0</v>
       </c>
-      <c r="F20" s="41">
+      <c r="F20" s="39">
         <f>Page2!F25</f>
         <v>0</v>
       </c>
-      <c r="G20" s="41">
+      <c r="G20" s="39">
         <f>Page2!E25</f>
         <v>0</v>
       </c>
-      <c r="H20" s="41">
+      <c r="H20" s="39">
         <f>Page2!G25</f>
         <v>0</v>
       </c>
@@ -9076,11 +9016,11 @@
         <f>Page1!K26</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J20" s="41">
+      <c r="J20" s="39">
         <f>Page1!E26</f>
         <v>0</v>
       </c>
-      <c r="K20" s="41">
+      <c r="K20" s="39">
         <f>Page1!F26</f>
         <v>0</v>
       </c>
@@ -9090,28 +9030,28 @@
       </c>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="42"/>
-      <c r="B21" s="40">
+      <c r="A21" s="175"/>
+      <c r="B21" s="38">
         <f>Page1!C27</f>
         <v>0</v>
       </c>
-      <c r="D21" s="41">
+      <c r="D21" s="39">
         <f>Page1!D27</f>
         <v>0</v>
       </c>
-      <c r="E21" s="41">
+      <c r="E21" s="39">
         <f>Page2!D26</f>
         <v>0</v>
       </c>
-      <c r="F21" s="41">
+      <c r="F21" s="39">
         <f>Page2!F26</f>
         <v>0</v>
       </c>
-      <c r="G21" s="41">
+      <c r="G21" s="39">
         <f>Page2!E26</f>
         <v>0</v>
       </c>
-      <c r="H21" s="41">
+      <c r="H21" s="39">
         <f>Page2!G26</f>
         <v>0</v>
       </c>
@@ -9119,11 +9059,11 @@
         <f>Page1!K27</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J21" s="41">
+      <c r="J21" s="39">
         <f>Page1!E27</f>
         <v>0</v>
       </c>
-      <c r="K21" s="41">
+      <c r="K21" s="39">
         <f>Page1!F27</f>
         <v>0</v>
       </c>
@@ -9133,28 +9073,28 @@
       </c>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="42"/>
-      <c r="B22" s="40">
+      <c r="A22" s="175"/>
+      <c r="B22" s="38">
         <f>Page1!C28</f>
         <v>0</v>
       </c>
-      <c r="D22" s="41">
+      <c r="D22" s="39">
         <f>Page1!D28</f>
         <v>0</v>
       </c>
-      <c r="E22" s="41">
+      <c r="E22" s="39">
         <f>Page2!D27</f>
         <v>0</v>
       </c>
-      <c r="F22" s="41">
+      <c r="F22" s="39">
         <f>Page2!F27</f>
         <v>0</v>
       </c>
-      <c r="G22" s="41">
+      <c r="G22" s="39">
         <f>Page2!E27</f>
         <v>0</v>
       </c>
-      <c r="H22" s="41">
+      <c r="H22" s="39">
         <f>Page2!G27</f>
         <v>0</v>
       </c>
@@ -9162,11 +9102,11 @@
         <f>Page1!K28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J22" s="41">
+      <c r="J22" s="39">
         <f>Page1!E28</f>
         <v>0</v>
       </c>
-      <c r="K22" s="41">
+      <c r="K22" s="39">
         <f>Page1!F28</f>
         <v>0</v>
       </c>
@@ -9176,28 +9116,28 @@
       </c>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="42"/>
-      <c r="B23" s="40">
+      <c r="A23" s="175"/>
+      <c r="B23" s="38">
         <f>Page1!C29</f>
         <v>0</v>
       </c>
-      <c r="D23" s="41">
+      <c r="D23" s="39">
         <f>Page1!D29</f>
         <v>0</v>
       </c>
-      <c r="E23" s="41">
+      <c r="E23" s="39">
         <f>Page2!D28</f>
         <v>0</v>
       </c>
-      <c r="F23" s="41">
+      <c r="F23" s="39">
         <f>Page2!F28</f>
         <v>0</v>
       </c>
-      <c r="G23" s="41">
+      <c r="G23" s="39">
         <f>Page2!E28</f>
         <v>0</v>
       </c>
-      <c r="H23" s="41">
+      <c r="H23" s="39">
         <f>Page2!G28</f>
         <v>0</v>
       </c>
@@ -9205,11 +9145,11 @@
         <f>Page1!K29</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J23" s="41">
+      <c r="J23" s="39">
         <f>Page1!E29</f>
         <v>0</v>
       </c>
-      <c r="K23" s="41">
+      <c r="K23" s="39">
         <f>Page1!F29</f>
         <v>0</v>
       </c>
@@ -9219,28 +9159,28 @@
       </c>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="42"/>
-      <c r="B24" s="40">
+      <c r="A24" s="175"/>
+      <c r="B24" s="38">
         <f>Page1!C30</f>
         <v>0</v>
       </c>
-      <c r="D24" s="41">
+      <c r="D24" s="39">
         <f>Page1!D30</f>
         <v>0</v>
       </c>
-      <c r="E24" s="41">
+      <c r="E24" s="39">
         <f>Page2!D29</f>
         <v>0</v>
       </c>
-      <c r="F24" s="41">
+      <c r="F24" s="39">
         <f>Page2!F29</f>
         <v>0</v>
       </c>
-      <c r="G24" s="41">
+      <c r="G24" s="39">
         <f>Page2!E29</f>
         <v>0</v>
       </c>
-      <c r="H24" s="41">
+      <c r="H24" s="39">
         <f>Page2!G29</f>
         <v>0</v>
       </c>
@@ -9248,11 +9188,11 @@
         <f>Page1!K30</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J24" s="41">
+      <c r="J24" s="39">
         <f>Page1!E30</f>
         <v>0</v>
       </c>
-      <c r="K24" s="41">
+      <c r="K24" s="39">
         <f>Page1!F30</f>
         <v>0</v>
       </c>
@@ -9262,28 +9202,28 @@
       </c>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="42"/>
-      <c r="B25" s="40">
+      <c r="A25" s="175"/>
+      <c r="B25" s="38">
         <f>Page1!C31</f>
         <v>0</v>
       </c>
-      <c r="D25" s="41">
+      <c r="D25" s="39">
         <f>Page1!D31</f>
         <v>0</v>
       </c>
-      <c r="E25" s="41">
+      <c r="E25" s="39">
         <f>Page2!D30</f>
         <v>0</v>
       </c>
-      <c r="F25" s="41">
+      <c r="F25" s="39">
         <f>Page2!F30</f>
         <v>0</v>
       </c>
-      <c r="G25" s="41">
+      <c r="G25" s="39">
         <f>Page2!E30</f>
         <v>0</v>
       </c>
-      <c r="H25" s="41">
+      <c r="H25" s="39">
         <f>Page2!G30</f>
         <v>0</v>
       </c>
@@ -9291,11 +9231,11 @@
         <f>Page1!K31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J25" s="41">
+      <c r="J25" s="39">
         <f>Page1!E31</f>
         <v>0</v>
       </c>
-      <c r="K25" s="41">
+      <c r="K25" s="39">
         <f>Page1!F31</f>
         <v>0</v>
       </c>
@@ -9305,28 +9245,28 @@
       </c>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="42"/>
-      <c r="B26" s="40">
+      <c r="A26" s="175"/>
+      <c r="B26" s="38">
         <f>Page1!C32</f>
         <v>0</v>
       </c>
-      <c r="D26" s="41">
+      <c r="D26" s="39">
         <f>Page1!D32</f>
         <v>0</v>
       </c>
-      <c r="E26" s="41">
+      <c r="E26" s="39">
         <f>Page2!D31</f>
         <v>0</v>
       </c>
-      <c r="F26" s="41">
+      <c r="F26" s="39">
         <f>Page2!F31</f>
         <v>0</v>
       </c>
-      <c r="G26" s="41">
+      <c r="G26" s="39">
         <f>Page2!E31</f>
         <v>0</v>
       </c>
-      <c r="H26" s="41">
+      <c r="H26" s="39">
         <f>Page2!G31</f>
         <v>0</v>
       </c>
@@ -9334,11 +9274,11 @@
         <f>Page1!K32</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J26" s="41">
+      <c r="J26" s="39">
         <f>Page1!E32</f>
         <v>0</v>
       </c>
-      <c r="K26" s="41">
+      <c r="K26" s="39">
         <f>Page1!F32</f>
         <v>0</v>
       </c>
@@ -9348,28 +9288,28 @@
       </c>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="42"/>
-      <c r="B27" s="40">
+      <c r="A27" s="175"/>
+      <c r="B27" s="38">
         <f>Page1!C33</f>
         <v>0</v>
       </c>
-      <c r="D27" s="41">
+      <c r="D27" s="39">
         <f>Page1!D33</f>
         <v>0</v>
       </c>
-      <c r="E27" s="41">
+      <c r="E27" s="39">
         <f>Page2!D32</f>
         <v>0</v>
       </c>
-      <c r="F27" s="41">
+      <c r="F27" s="39">
         <f>Page2!F32</f>
         <v>0</v>
       </c>
-      <c r="G27" s="41">
+      <c r="G27" s="39">
         <f>Page2!E32</f>
         <v>0</v>
       </c>
-      <c r="H27" s="41">
+      <c r="H27" s="39">
         <f>Page2!G32</f>
         <v>0</v>
       </c>
@@ -9377,11 +9317,11 @@
         <f>Page1!K33</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J27" s="41">
+      <c r="J27" s="39">
         <f>Page1!E33</f>
         <v>0</v>
       </c>
-      <c r="K27" s="41">
+      <c r="K27" s="39">
         <f>Page1!F33</f>
         <v>0</v>
       </c>
@@ -9391,28 +9331,28 @@
       </c>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="42"/>
-      <c r="B28" s="40">
+      <c r="A28" s="175"/>
+      <c r="B28" s="38">
         <f>Page1!C34</f>
         <v>0</v>
       </c>
-      <c r="D28" s="41">
+      <c r="D28" s="39">
         <f>Page1!D34</f>
         <v>0</v>
       </c>
-      <c r="E28" s="41">
+      <c r="E28" s="39">
         <f>Page2!D33</f>
         <v>0</v>
       </c>
-      <c r="F28" s="41">
+      <c r="F28" s="39">
         <f>Page2!F33</f>
         <v>0</v>
       </c>
-      <c r="G28" s="41">
+      <c r="G28" s="39">
         <f>Page2!E33</f>
         <v>0</v>
       </c>
-      <c r="H28" s="41">
+      <c r="H28" s="39">
         <f>Page2!G33</f>
         <v>0</v>
       </c>
@@ -9420,11 +9360,11 @@
         <f>Page1!K34</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J28" s="41">
+      <c r="J28" s="39">
         <f>Page1!E34</f>
         <v>0</v>
       </c>
-      <c r="K28" s="41">
+      <c r="K28" s="39">
         <f>Page1!F34</f>
         <v>0</v>
       </c>
@@ -9434,28 +9374,28 @@
       </c>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="42"/>
-      <c r="B29" s="40">
+      <c r="A29" s="175"/>
+      <c r="B29" s="38">
         <f>Page1!C35</f>
         <v>0</v>
       </c>
-      <c r="D29" s="41">
+      <c r="D29" s="39">
         <f>Page1!D35</f>
         <v>0</v>
       </c>
-      <c r="E29" s="41">
+      <c r="E29" s="39">
         <f>Page2!D34</f>
         <v>0</v>
       </c>
-      <c r="F29" s="41">
+      <c r="F29" s="39">
         <f>Page2!F34</f>
         <v>0</v>
       </c>
-      <c r="G29" s="41">
+      <c r="G29" s="39">
         <f>Page2!E34</f>
         <v>0</v>
       </c>
-      <c r="H29" s="41">
+      <c r="H29" s="39">
         <f>Page2!G34</f>
         <v>0</v>
       </c>
@@ -9463,11 +9403,11 @@
         <f>Page1!K35</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J29" s="41">
+      <c r="J29" s="39">
         <f>Page1!E35</f>
         <v>0</v>
       </c>
-      <c r="K29" s="41">
+      <c r="K29" s="39">
         <f>Page1!F35</f>
         <v>0</v>
       </c>
@@ -9477,28 +9417,28 @@
       </c>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="42"/>
-      <c r="B30" s="40">
+      <c r="A30" s="175"/>
+      <c r="B30" s="38">
         <f>Page1!C36</f>
         <v>0</v>
       </c>
-      <c r="D30" s="41">
+      <c r="D30" s="39">
         <f>Page1!D36</f>
         <v>0</v>
       </c>
-      <c r="E30" s="41">
+      <c r="E30" s="39">
         <f>Page2!D35</f>
         <v>0</v>
       </c>
-      <c r="F30" s="41">
+      <c r="F30" s="39">
         <f>Page2!F35</f>
         <v>0</v>
       </c>
-      <c r="G30" s="41">
+      <c r="G30" s="39">
         <f>Page2!E35</f>
         <v>0</v>
       </c>
-      <c r="H30" s="41">
+      <c r="H30" s="39">
         <f>Page2!G35</f>
         <v>0</v>
       </c>
@@ -9506,11 +9446,11 @@
         <f>Page1!K36</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J30" s="41">
+      <c r="J30" s="39">
         <f>Page1!E36</f>
         <v>0</v>
       </c>
-      <c r="K30" s="41">
+      <c r="K30" s="39">
         <f>Page1!F36</f>
         <v>0</v>
       </c>
@@ -9520,28 +9460,28 @@
       </c>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="42"/>
-      <c r="B31" s="40">
+      <c r="A31" s="175"/>
+      <c r="B31" s="38">
         <f>Page1!C37</f>
         <v>0</v>
       </c>
-      <c r="D31" s="41">
+      <c r="D31" s="39">
         <f>Page1!D37</f>
         <v>0</v>
       </c>
-      <c r="E31" s="41">
+      <c r="E31" s="39">
         <f>Page2!D36</f>
         <v>0</v>
       </c>
-      <c r="F31" s="41">
+      <c r="F31" s="39">
         <f>Page2!F36</f>
         <v>0</v>
       </c>
-      <c r="G31" s="41">
+      <c r="G31" s="39">
         <f>Page2!E36</f>
         <v>0</v>
       </c>
-      <c r="H31" s="41">
+      <c r="H31" s="39">
         <f>Page2!G36</f>
         <v>0</v>
       </c>
@@ -9549,11 +9489,11 @@
         <f>Page1!K37</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J31" s="41">
+      <c r="J31" s="39">
         <f>Page1!E37</f>
         <v>0</v>
       </c>
-      <c r="K31" s="41">
+      <c r="K31" s="39">
         <f>Page1!F37</f>
         <v>0</v>
       </c>
@@ -9563,28 +9503,28 @@
       </c>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="42"/>
-      <c r="B32" s="40">
+      <c r="A32" s="175"/>
+      <c r="B32" s="38">
         <f>Page1!C38</f>
         <v>0</v>
       </c>
-      <c r="D32" s="41">
+      <c r="D32" s="39">
         <f>Page1!D38</f>
         <v>0</v>
       </c>
-      <c r="E32" s="41">
+      <c r="E32" s="39">
         <f>Page2!D37</f>
         <v>0</v>
       </c>
-      <c r="F32" s="41">
+      <c r="F32" s="39">
         <f>Page2!F37</f>
         <v>0</v>
       </c>
-      <c r="G32" s="41">
+      <c r="G32" s="39">
         <f>Page2!E37</f>
         <v>0</v>
       </c>
-      <c r="H32" s="41">
+      <c r="H32" s="39">
         <f>Page2!G37</f>
         <v>0</v>
       </c>
@@ -9592,11 +9532,11 @@
         <f>Page1!K38</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J32" s="41">
+      <c r="J32" s="39">
         <f>Page1!E38</f>
         <v>0</v>
       </c>
-      <c r="K32" s="41">
+      <c r="K32" s="39">
         <f>Page1!F38</f>
         <v>0</v>
       </c>
@@ -9606,61 +9546,61 @@
       </c>
     </row>
     <row r="33" spans="2:2">
-      <c r="B33" s="40"/>
+      <c r="B33" s="38"/>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="40"/>
+      <c r="B34" s="38"/>
     </row>
     <row r="35" spans="2:2">
-      <c r="B35" s="40"/>
+      <c r="B35" s="38"/>
     </row>
     <row r="36" spans="2:2">
-      <c r="B36" s="40"/>
+      <c r="B36" s="38"/>
     </row>
     <row r="37" spans="2:2">
-      <c r="B37" s="40"/>
+      <c r="B37" s="38"/>
     </row>
     <row r="38" spans="2:2">
-      <c r="B38" s="40"/>
+      <c r="B38" s="38"/>
     </row>
     <row r="39" spans="2:2">
-      <c r="B39" s="40"/>
+      <c r="B39" s="38"/>
     </row>
     <row r="40" spans="2:2">
-      <c r="B40" s="40"/>
+      <c r="B40" s="38"/>
     </row>
     <row r="41" spans="2:2">
-      <c r="B41" s="40"/>
+      <c r="B41" s="38"/>
     </row>
     <row r="42" spans="2:2">
-      <c r="B42" s="40"/>
+      <c r="B42" s="38"/>
     </row>
     <row r="43" spans="2:2">
-      <c r="B43" s="40"/>
+      <c r="B43" s="38"/>
     </row>
     <row r="44" spans="2:2">
-      <c r="B44" s="40"/>
+      <c r="B44" s="38"/>
     </row>
     <row r="45" spans="2:2">
-      <c r="B45" s="40"/>
+      <c r="B45" s="38"/>
     </row>
     <row r="46" spans="2:2">
-      <c r="B46" s="40"/>
+      <c r="B46" s="38"/>
     </row>
     <row r="47" spans="2:2">
-      <c r="B47" s="40"/>
+      <c r="B47" s="38"/>
     </row>
     <row r="48" spans="2:2">
-      <c r="B48" s="40"/>
+      <c r="B48" s="38"/>
     </row>
     <row r="49" spans="2:2">
-      <c r="B49" s="40"/>
+      <c r="B49" s="38"/>
     </row>
     <row r="50" spans="2:2">
-      <c r="B50" s="40"/>
+      <c r="B50" s="38"/>
     </row>
     <row r="51" spans="2:2">
-      <c r="B51" s="40"/>
+      <c r="B51" s="38"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/backend/templates/214-18-micro-white.xlsx
+++ b/backend/templates/214-18-micro-white.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cursor AI Projects\SwansonIndiaPortal\backend\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A4F74B0-CD7A-4A69-A6BA-2DF12E340F97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{652F0238-EB25-4D9F-98F1-2AE866BDB8D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="751" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -491,11 +491,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="168" formatCode="[$-14009]dd\-mm\-yyyy;@"/>
   </numFmts>
   <fonts count="16">
     <font>
@@ -1396,42 +1397,6 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1442,17 +1407,11 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -1461,15 +1420,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1480,76 +1430,318 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="32" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="39" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1564,155 +1756,17 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="32" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="39" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1726,17 +1780,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1750,63 +1801,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -6079,902 +6080,902 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="3" width="12.85546875" style="110" customWidth="1"/>
-    <col min="4" max="7" width="21.42578125" style="110" customWidth="1"/>
-    <col min="8" max="11" width="10.42578125" style="110" customWidth="1"/>
-    <col min="12" max="12" width="20.42578125" style="110" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="110"/>
+    <col min="1" max="3" width="12.85546875" style="74" customWidth="1"/>
+    <col min="4" max="7" width="21.42578125" style="74" customWidth="1"/>
+    <col min="8" max="11" width="10.42578125" style="74" customWidth="1"/>
+    <col min="12" max="12" width="20.42578125" style="74" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="74"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="60" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="57" t="s">
+    <row r="1" spans="1:38" s="48" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A1" s="136" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="59" t="s">
+      <c r="B1" s="136"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="136"/>
+      <c r="I1" s="136"/>
+      <c r="J1" s="136"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="47" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:38" s="60" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A2" s="61" t="s">
+    <row r="2" spans="1:38" s="48" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A2" s="137" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="63" t="s">
+      <c r="B2" s="137"/>
+      <c r="C2" s="137"/>
+      <c r="D2" s="137"/>
+      <c r="E2" s="137"/>
+      <c r="F2" s="137"/>
+      <c r="G2" s="137"/>
+      <c r="H2" s="137"/>
+      <c r="I2" s="137"/>
+      <c r="J2" s="137"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="50" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:38" s="60" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A3" s="64"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="65" t="s">
+    <row r="3" spans="1:38" s="48" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A3" s="138"/>
+      <c r="B3" s="138"/>
+      <c r="C3" s="138"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="138"/>
+      <c r="F3" s="138"/>
+      <c r="G3" s="138"/>
+      <c r="H3" s="138"/>
+      <c r="I3" s="138"/>
+      <c r="J3" s="138"/>
+      <c r="K3" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="66"/>
-    </row>
-    <row r="4" spans="1:38" s="75" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A4" s="67" t="s">
+      <c r="L3" s="52"/>
+    </row>
+    <row r="4" spans="1:38" s="57" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A4" s="140" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="70" t="s">
+      <c r="B4" s="141"/>
+      <c r="C4" s="139"/>
+      <c r="D4" s="139"/>
+      <c r="E4" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="71"/>
-      <c r="G4" s="72" t="s">
+      <c r="F4" s="54"/>
+      <c r="G4" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="73" t="s">
+      <c r="H4" s="139"/>
+      <c r="I4" s="139"/>
+      <c r="J4" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="73"/>
-      <c r="L4" s="74"/>
-    </row>
-    <row r="5" spans="1:38" s="75" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A5" s="76" t="s">
+      <c r="K4" s="145"/>
+      <c r="L4" s="56"/>
+    </row>
+    <row r="5" spans="1:38" s="57" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+      <c r="A5" s="142" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="77"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="79" t="s">
+      <c r="B5" s="143"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="122"/>
+      <c r="E5" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="80"/>
-      <c r="G5" s="81" t="s">
+      <c r="F5" s="59"/>
+      <c r="G5" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="82"/>
-      <c r="I5" s="82"/>
-      <c r="J5" s="83" t="s">
+      <c r="H5" s="144"/>
+      <c r="I5" s="144"/>
+      <c r="J5" s="146" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="83"/>
-      <c r="L5" s="84"/>
-    </row>
-    <row r="6" spans="1:38" s="75" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="85" t="s">
+      <c r="K5" s="146"/>
+      <c r="L5" s="61"/>
+    </row>
+    <row r="6" spans="1:38" s="57" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A6" s="116" t="s">
         <v>112</v>
       </c>
-      <c r="B6" s="86"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="89"/>
-      <c r="H6" s="90"/>
-      <c r="I6" s="90"/>
-      <c r="J6" s="90"/>
-      <c r="K6" s="91"/>
-      <c r="L6" s="92"/>
-    </row>
-    <row r="7" spans="1:38" s="99" customFormat="1" ht="41.25" customHeight="1">
-      <c r="A7" s="93" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="94"/>
-      <c r="C7" s="94"/>
-      <c r="D7" s="94" t="s">
+      <c r="B6" s="117"/>
+      <c r="C6" s="117"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="118"/>
+      <c r="F6" s="118"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="147"/>
+      <c r="I6" s="147"/>
+      <c r="J6" s="147"/>
+      <c r="K6" s="148"/>
+      <c r="L6" s="64"/>
+    </row>
+    <row r="7" spans="1:38" s="65" customFormat="1" ht="41.25" customHeight="1">
+      <c r="A7" s="119" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="120"/>
+      <c r="C7" s="120"/>
+      <c r="D7" s="120" t="s">
         <v>110</v>
       </c>
-      <c r="E7" s="94" t="s">
+      <c r="E7" s="120" t="s">
         <v>111</v>
       </c>
-      <c r="F7" s="94" t="s">
+      <c r="F7" s="120" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="94" t="s">
+      <c r="G7" s="120" t="s">
         <v>117</v>
       </c>
-      <c r="H7" s="95" t="s">
+      <c r="H7" s="154" t="s">
         <v>116</v>
       </c>
-      <c r="I7" s="96"/>
-      <c r="J7" s="96"/>
-      <c r="K7" s="97"/>
-      <c r="L7" s="98" t="s">
+      <c r="I7" s="155"/>
+      <c r="J7" s="155"/>
+      <c r="K7" s="156"/>
+      <c r="L7" s="157" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="1:38" s="99" customFormat="1" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A8" s="100"/>
-      <c r="B8" s="78"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
-      <c r="G8" s="78"/>
-      <c r="H8" s="101">
+    <row r="8" spans="1:38" s="65" customFormat="1" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A8" s="121"/>
+      <c r="B8" s="122"/>
+      <c r="C8" s="122"/>
+      <c r="D8" s="122"/>
+      <c r="E8" s="122"/>
+      <c r="F8" s="122"/>
+      <c r="G8" s="122"/>
+      <c r="H8" s="66">
         <v>1</v>
       </c>
-      <c r="I8" s="101">
+      <c r="I8" s="66">
         <v>2</v>
       </c>
-      <c r="J8" s="101">
+      <c r="J8" s="66">
         <v>3</v>
       </c>
-      <c r="K8" s="101" t="s">
+      <c r="K8" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="L8" s="102"/>
+      <c r="L8" s="158"/>
     </row>
     <row r="9" spans="1:38" ht="19.5" customHeight="1">
-      <c r="A9" s="103"/>
-      <c r="B9" s="104"/>
-      <c r="C9" s="105"/>
-      <c r="D9" s="106"/>
-      <c r="E9" s="106"/>
-      <c r="F9" s="106"/>
+      <c r="A9" s="67"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
       <c r="G9" s="43"/>
-      <c r="H9" s="107"/>
-      <c r="I9" s="107"/>
-      <c r="J9" s="107"/>
-      <c r="K9" s="108" t="e">
+      <c r="H9" s="71"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="71"/>
+      <c r="K9" s="72" t="e">
         <f>AVERAGE(H9:J9)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L9" s="109"/>
-      <c r="AL9" s="99"/>
+      <c r="L9" s="73"/>
+      <c r="AL9" s="65"/>
     </row>
     <row r="10" spans="1:38" ht="19.5" customHeight="1">
-      <c r="A10" s="111"/>
-      <c r="B10" s="104"/>
-      <c r="C10" s="105"/>
-      <c r="D10" s="112"/>
-      <c r="E10" s="112"/>
-      <c r="F10" s="112"/>
+      <c r="A10" s="75"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
       <c r="G10" s="43"/>
-      <c r="H10" s="113"/>
-      <c r="I10" s="113"/>
-      <c r="J10" s="113"/>
-      <c r="K10" s="108" t="e">
+      <c r="H10" s="77"/>
+      <c r="I10" s="77"/>
+      <c r="J10" s="77"/>
+      <c r="K10" s="72" t="e">
         <f t="shared" ref="K10:K38" si="0">AVERAGE(H10:J10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L10" s="114"/>
+      <c r="L10" s="78"/>
     </row>
     <row r="11" spans="1:38" ht="19.5" customHeight="1">
-      <c r="A11" s="111"/>
-      <c r="B11" s="104"/>
-      <c r="C11" s="105"/>
-      <c r="D11" s="112"/>
-      <c r="E11" s="112"/>
-      <c r="F11" s="112"/>
+      <c r="A11" s="75"/>
+      <c r="B11" s="68"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
       <c r="G11" s="43"/>
-      <c r="H11" s="113"/>
-      <c r="I11" s="113"/>
-      <c r="J11" s="113"/>
-      <c r="K11" s="108" t="e">
+      <c r="H11" s="77"/>
+      <c r="I11" s="77"/>
+      <c r="J11" s="77"/>
+      <c r="K11" s="72" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L11" s="109"/>
+      <c r="L11" s="73"/>
     </row>
     <row r="12" spans="1:38" ht="19.5" customHeight="1">
-      <c r="A12" s="111"/>
-      <c r="B12" s="104"/>
-      <c r="C12" s="105"/>
-      <c r="D12" s="112"/>
-      <c r="E12" s="112"/>
-      <c r="F12" s="112"/>
+      <c r="A12" s="75"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
       <c r="G12" s="43"/>
-      <c r="H12" s="107"/>
-      <c r="I12" s="107"/>
-      <c r="J12" s="107"/>
-      <c r="K12" s="108" t="e">
+      <c r="H12" s="71"/>
+      <c r="I12" s="71"/>
+      <c r="J12" s="71"/>
+      <c r="K12" s="72" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L12" s="109"/>
+      <c r="L12" s="73"/>
     </row>
     <row r="13" spans="1:38" ht="19.5" customHeight="1">
-      <c r="A13" s="103"/>
-      <c r="B13" s="104"/>
-      <c r="C13" s="105"/>
-      <c r="D13" s="112"/>
-      <c r="E13" s="112"/>
-      <c r="F13" s="112"/>
+      <c r="A13" s="67"/>
+      <c r="B13" s="68"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
       <c r="G13" s="43"/>
-      <c r="H13" s="113"/>
-      <c r="I13" s="113"/>
-      <c r="J13" s="113"/>
-      <c r="K13" s="108" t="e">
+      <c r="H13" s="77"/>
+      <c r="I13" s="77"/>
+      <c r="J13" s="77"/>
+      <c r="K13" s="72" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L13" s="114"/>
-      <c r="N13" s="115"/>
-      <c r="O13" s="115"/>
+      <c r="L13" s="78"/>
+      <c r="N13" s="152"/>
+      <c r="O13" s="152"/>
     </row>
     <row r="14" spans="1:38" ht="19.5" customHeight="1">
-      <c r="A14" s="111"/>
-      <c r="B14" s="104"/>
-      <c r="C14" s="105"/>
-      <c r="D14" s="112"/>
-      <c r="E14" s="112"/>
-      <c r="F14" s="112"/>
+      <c r="A14" s="75"/>
+      <c r="B14" s="68"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
       <c r="G14" s="43"/>
-      <c r="H14" s="107"/>
-      <c r="I14" s="107"/>
-      <c r="J14" s="107"/>
-      <c r="K14" s="108" t="e">
+      <c r="H14" s="71"/>
+      <c r="I14" s="71"/>
+      <c r="J14" s="71"/>
+      <c r="K14" s="72" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L14" s="109"/>
+      <c r="L14" s="73"/>
     </row>
     <row r="15" spans="1:38" ht="19.5" customHeight="1">
-      <c r="A15" s="111"/>
-      <c r="B15" s="104"/>
-      <c r="C15" s="105"/>
-      <c r="D15" s="112"/>
-      <c r="E15" s="112"/>
-      <c r="F15" s="112"/>
+      <c r="A15" s="75"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="76"/>
       <c r="G15" s="43"/>
-      <c r="H15" s="113"/>
-      <c r="I15" s="113"/>
-      <c r="J15" s="113"/>
-      <c r="K15" s="108" t="e">
+      <c r="H15" s="77"/>
+      <c r="I15" s="77"/>
+      <c r="J15" s="77"/>
+      <c r="K15" s="72" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L15" s="109"/>
+      <c r="L15" s="73"/>
     </row>
     <row r="16" spans="1:38" ht="19.5" customHeight="1">
-      <c r="A16" s="103"/>
-      <c r="B16" s="104"/>
-      <c r="C16" s="105"/>
-      <c r="D16" s="112"/>
-      <c r="E16" s="112"/>
-      <c r="F16" s="112"/>
+      <c r="A16" s="67"/>
+      <c r="B16" s="68"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
       <c r="G16" s="43"/>
-      <c r="H16" s="107"/>
-      <c r="I16" s="107"/>
-      <c r="J16" s="107"/>
-      <c r="K16" s="108" t="e">
+      <c r="H16" s="71"/>
+      <c r="I16" s="71"/>
+      <c r="J16" s="71"/>
+      <c r="K16" s="72" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L16" s="114"/>
+      <c r="L16" s="78"/>
     </row>
     <row r="17" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A17" s="111"/>
-      <c r="B17" s="104"/>
-      <c r="C17" s="105"/>
-      <c r="D17" s="112"/>
-      <c r="E17" s="112"/>
-      <c r="F17" s="112"/>
+      <c r="A17" s="75"/>
+      <c r="B17" s="68"/>
+      <c r="C17" s="69"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="76"/>
       <c r="G17" s="43"/>
-      <c r="H17" s="113"/>
-      <c r="I17" s="113"/>
-      <c r="J17" s="113"/>
-      <c r="K17" s="108" t="e">
+      <c r="H17" s="77"/>
+      <c r="I17" s="77"/>
+      <c r="J17" s="77"/>
+      <c r="K17" s="72" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L17" s="109"/>
+      <c r="L17" s="73"/>
     </row>
     <row r="18" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A18" s="103"/>
-      <c r="B18" s="104"/>
-      <c r="C18" s="105"/>
-      <c r="D18" s="112"/>
-      <c r="E18" s="112"/>
-      <c r="F18" s="112"/>
+      <c r="A18" s="67"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
       <c r="G18" s="43"/>
-      <c r="H18" s="107"/>
-      <c r="I18" s="107"/>
-      <c r="J18" s="107"/>
-      <c r="K18" s="108" t="e">
+      <c r="H18" s="71"/>
+      <c r="I18" s="71"/>
+      <c r="J18" s="71"/>
+      <c r="K18" s="72" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L18" s="114"/>
+      <c r="L18" s="78"/>
     </row>
     <row r="19" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A19" s="111"/>
-      <c r="B19" s="104"/>
-      <c r="C19" s="105"/>
-      <c r="D19" s="112"/>
-      <c r="E19" s="112"/>
-      <c r="F19" s="112"/>
+      <c r="A19" s="75"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="76"/>
       <c r="G19" s="43"/>
-      <c r="H19" s="113"/>
-      <c r="I19" s="113"/>
-      <c r="J19" s="113"/>
-      <c r="K19" s="108" t="e">
+      <c r="H19" s="77"/>
+      <c r="I19" s="77"/>
+      <c r="J19" s="77"/>
+      <c r="K19" s="72" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L19" s="109"/>
+      <c r="L19" s="73"/>
     </row>
     <row r="20" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A20" s="111"/>
-      <c r="B20" s="104"/>
-      <c r="C20" s="105"/>
-      <c r="D20" s="112"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="112"/>
+      <c r="A20" s="75"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
       <c r="G20" s="43"/>
-      <c r="H20" s="113"/>
-      <c r="I20" s="113"/>
-      <c r="J20" s="113"/>
-      <c r="K20" s="108" t="e">
+      <c r="H20" s="77"/>
+      <c r="I20" s="77"/>
+      <c r="J20" s="77"/>
+      <c r="K20" s="72" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L20" s="114"/>
+      <c r="L20" s="78"/>
     </row>
     <row r="21" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A21" s="103"/>
-      <c r="B21" s="104"/>
-      <c r="C21" s="105"/>
-      <c r="D21" s="112"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="112"/>
+      <c r="A21" s="67"/>
+      <c r="B21" s="68"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="76"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="76"/>
       <c r="G21" s="43"/>
-      <c r="H21" s="107"/>
-      <c r="I21" s="107"/>
-      <c r="J21" s="107"/>
-      <c r="K21" s="108" t="e">
+      <c r="H21" s="71"/>
+      <c r="I21" s="71"/>
+      <c r="J21" s="71"/>
+      <c r="K21" s="72" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L21" s="109"/>
+      <c r="L21" s="73"/>
     </row>
     <row r="22" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A22" s="111"/>
-      <c r="B22" s="104"/>
-      <c r="C22" s="105"/>
-      <c r="D22" s="112"/>
-      <c r="E22" s="112"/>
-      <c r="F22" s="112"/>
+      <c r="A22" s="75"/>
+      <c r="B22" s="68"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="76"/>
       <c r="G22" s="43"/>
-      <c r="H22" s="113"/>
-      <c r="I22" s="113"/>
-      <c r="J22" s="113"/>
-      <c r="K22" s="108" t="e">
+      <c r="H22" s="77"/>
+      <c r="I22" s="77"/>
+      <c r="J22" s="77"/>
+      <c r="K22" s="72" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L22" s="114"/>
+      <c r="L22" s="78"/>
     </row>
     <row r="23" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A23" s="111"/>
-      <c r="B23" s="104"/>
-      <c r="C23" s="105"/>
-      <c r="D23" s="112"/>
-      <c r="E23" s="112"/>
-      <c r="F23" s="112"/>
+      <c r="A23" s="75"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="76"/>
       <c r="G23" s="43"/>
-      <c r="H23" s="113"/>
-      <c r="I23" s="113"/>
-      <c r="J23" s="113"/>
-      <c r="K23" s="108" t="e">
+      <c r="H23" s="77"/>
+      <c r="I23" s="77"/>
+      <c r="J23" s="77"/>
+      <c r="K23" s="72" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L23" s="109"/>
+      <c r="L23" s="73"/>
     </row>
     <row r="24" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A24" s="111"/>
-      <c r="B24" s="104"/>
-      <c r="C24" s="105"/>
-      <c r="D24" s="112"/>
-      <c r="E24" s="112"/>
-      <c r="F24" s="112"/>
+      <c r="A24" s="75"/>
+      <c r="B24" s="68"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="76"/>
       <c r="G24" s="43"/>
-      <c r="H24" s="113"/>
-      <c r="I24" s="113"/>
-      <c r="J24" s="113"/>
-      <c r="K24" s="108" t="e">
+      <c r="H24" s="77"/>
+      <c r="I24" s="77"/>
+      <c r="J24" s="77"/>
+      <c r="K24" s="72" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L24" s="109"/>
+      <c r="L24" s="73"/>
     </row>
     <row r="25" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A25" s="111"/>
-      <c r="B25" s="104"/>
-      <c r="C25" s="105"/>
-      <c r="D25" s="112"/>
-      <c r="E25" s="112"/>
-      <c r="F25" s="112"/>
+      <c r="A25" s="75"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="76"/>
+      <c r="E25" s="76"/>
+      <c r="F25" s="76"/>
       <c r="G25" s="43"/>
-      <c r="H25" s="107"/>
-      <c r="I25" s="107"/>
-      <c r="J25" s="107"/>
-      <c r="K25" s="108" t="e">
+      <c r="H25" s="71"/>
+      <c r="I25" s="71"/>
+      <c r="J25" s="71"/>
+      <c r="K25" s="72" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L25" s="114"/>
+      <c r="L25" s="78"/>
     </row>
     <row r="26" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A26" s="103"/>
-      <c r="B26" s="104"/>
-      <c r="C26" s="105"/>
-      <c r="D26" s="112"/>
-      <c r="E26" s="112"/>
-      <c r="F26" s="112"/>
+      <c r="A26" s="67"/>
+      <c r="B26" s="68"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="76"/>
       <c r="G26" s="43"/>
-      <c r="H26" s="113"/>
-      <c r="I26" s="113"/>
-      <c r="J26" s="113"/>
-      <c r="K26" s="108" t="e">
+      <c r="H26" s="77"/>
+      <c r="I26" s="77"/>
+      <c r="J26" s="77"/>
+      <c r="K26" s="72" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L26" s="109"/>
+      <c r="L26" s="73"/>
     </row>
     <row r="27" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A27" s="111"/>
-      <c r="B27" s="104"/>
-      <c r="C27" s="105"/>
-      <c r="D27" s="112"/>
-      <c r="E27" s="112"/>
-      <c r="F27" s="112"/>
+      <c r="A27" s="75"/>
+      <c r="B27" s="68"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="76"/>
+      <c r="E27" s="76"/>
+      <c r="F27" s="76"/>
       <c r="G27" s="43"/>
-      <c r="H27" s="107"/>
-      <c r="I27" s="107"/>
-      <c r="J27" s="107"/>
-      <c r="K27" s="108" t="e">
+      <c r="H27" s="71"/>
+      <c r="I27" s="71"/>
+      <c r="J27" s="71"/>
+      <c r="K27" s="72" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L27" s="109"/>
+      <c r="L27" s="73"/>
     </row>
     <row r="28" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A28" s="111"/>
-      <c r="B28" s="104"/>
-      <c r="C28" s="105"/>
-      <c r="D28" s="112"/>
-      <c r="E28" s="112"/>
-      <c r="F28" s="112"/>
+      <c r="A28" s="75"/>
+      <c r="B28" s="68"/>
+      <c r="C28" s="69"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="76"/>
       <c r="G28" s="43"/>
-      <c r="H28" s="113"/>
-      <c r="I28" s="113"/>
-      <c r="J28" s="113"/>
-      <c r="K28" s="108" t="e">
+      <c r="H28" s="77"/>
+      <c r="I28" s="77"/>
+      <c r="J28" s="77"/>
+      <c r="K28" s="72" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L28" s="114"/>
+      <c r="L28" s="78"/>
     </row>
     <row r="29" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A29" s="103"/>
-      <c r="B29" s="104"/>
-      <c r="C29" s="105"/>
-      <c r="D29" s="112"/>
-      <c r="E29" s="112"/>
-      <c r="F29" s="112"/>
+      <c r="A29" s="67"/>
+      <c r="B29" s="68"/>
+      <c r="C29" s="69"/>
+      <c r="D29" s="76"/>
+      <c r="E29" s="76"/>
+      <c r="F29" s="76"/>
       <c r="G29" s="43"/>
-      <c r="H29" s="107"/>
-      <c r="I29" s="107"/>
-      <c r="J29" s="107"/>
-      <c r="K29" s="108" t="e">
+      <c r="H29" s="71"/>
+      <c r="I29" s="71"/>
+      <c r="J29" s="71"/>
+      <c r="K29" s="72" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L29" s="109"/>
+      <c r="L29" s="73"/>
     </row>
     <row r="30" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A30" s="111"/>
-      <c r="B30" s="104"/>
-      <c r="C30" s="105"/>
-      <c r="D30" s="112"/>
-      <c r="E30" s="112"/>
-      <c r="F30" s="112"/>
+      <c r="A30" s="75"/>
+      <c r="B30" s="68"/>
+      <c r="C30" s="69"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="76"/>
       <c r="G30" s="43"/>
-      <c r="H30" s="113"/>
-      <c r="I30" s="113"/>
-      <c r="J30" s="113"/>
-      <c r="K30" s="108" t="e">
+      <c r="H30" s="77"/>
+      <c r="I30" s="77"/>
+      <c r="J30" s="77"/>
+      <c r="K30" s="72" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L30" s="114"/>
+      <c r="L30" s="78"/>
     </row>
     <row r="31" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A31" s="103"/>
-      <c r="B31" s="104"/>
-      <c r="C31" s="105"/>
-      <c r="D31" s="112"/>
-      <c r="E31" s="112"/>
-      <c r="F31" s="112"/>
+      <c r="A31" s="67"/>
+      <c r="B31" s="68"/>
+      <c r="C31" s="69"/>
+      <c r="D31" s="76"/>
+      <c r="E31" s="76"/>
+      <c r="F31" s="76"/>
       <c r="G31" s="43"/>
-      <c r="H31" s="107"/>
-      <c r="I31" s="107"/>
-      <c r="J31" s="107"/>
-      <c r="K31" s="108" t="e">
+      <c r="H31" s="71"/>
+      <c r="I31" s="71"/>
+      <c r="J31" s="71"/>
+      <c r="K31" s="72" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L31" s="109"/>
+      <c r="L31" s="73"/>
     </row>
     <row r="32" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A32" s="111"/>
-      <c r="B32" s="104"/>
-      <c r="C32" s="105"/>
-      <c r="D32" s="112"/>
-      <c r="E32" s="112"/>
-      <c r="F32" s="112"/>
+      <c r="A32" s="75"/>
+      <c r="B32" s="68"/>
+      <c r="C32" s="69"/>
+      <c r="D32" s="76"/>
+      <c r="E32" s="76"/>
+      <c r="F32" s="76"/>
       <c r="G32" s="43"/>
-      <c r="H32" s="113"/>
-      <c r="I32" s="113"/>
-      <c r="J32" s="113"/>
-      <c r="K32" s="108" t="e">
+      <c r="H32" s="77"/>
+      <c r="I32" s="77"/>
+      <c r="J32" s="77"/>
+      <c r="K32" s="72" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L32" s="114"/>
+      <c r="L32" s="78"/>
     </row>
     <row r="33" spans="1:19" ht="19.5" customHeight="1">
-      <c r="A33" s="111"/>
-      <c r="B33" s="104"/>
-      <c r="C33" s="105"/>
-      <c r="D33" s="112"/>
-      <c r="E33" s="112"/>
-      <c r="F33" s="112"/>
+      <c r="A33" s="75"/>
+      <c r="B33" s="68"/>
+      <c r="C33" s="69"/>
+      <c r="D33" s="76"/>
+      <c r="E33" s="76"/>
+      <c r="F33" s="76"/>
       <c r="G33" s="43"/>
-      <c r="H33" s="113"/>
-      <c r="I33" s="113"/>
-      <c r="J33" s="113"/>
-      <c r="K33" s="108" t="e">
+      <c r="H33" s="77"/>
+      <c r="I33" s="77"/>
+      <c r="J33" s="77"/>
+      <c r="K33" s="72" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L33" s="109"/>
+      <c r="L33" s="73"/>
     </row>
     <row r="34" spans="1:19" ht="19.5" customHeight="1">
-      <c r="A34" s="103"/>
-      <c r="B34" s="104"/>
-      <c r="C34" s="105"/>
-      <c r="D34" s="112"/>
-      <c r="E34" s="112"/>
-      <c r="F34" s="112"/>
+      <c r="A34" s="67"/>
+      <c r="B34" s="68"/>
+      <c r="C34" s="69"/>
+      <c r="D34" s="76"/>
+      <c r="E34" s="76"/>
+      <c r="F34" s="76"/>
       <c r="G34" s="43"/>
-      <c r="H34" s="107"/>
-      <c r="I34" s="107"/>
-      <c r="J34" s="107"/>
-      <c r="K34" s="108" t="e">
+      <c r="H34" s="71"/>
+      <c r="I34" s="71"/>
+      <c r="J34" s="71"/>
+      <c r="K34" s="72" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L34" s="114"/>
+      <c r="L34" s="78"/>
     </row>
     <row r="35" spans="1:19" ht="19.5" customHeight="1">
-      <c r="A35" s="111"/>
-      <c r="B35" s="104"/>
-      <c r="C35" s="105"/>
-      <c r="D35" s="112"/>
-      <c r="E35" s="112"/>
-      <c r="F35" s="112"/>
+      <c r="A35" s="75"/>
+      <c r="B35" s="68"/>
+      <c r="C35" s="69"/>
+      <c r="D35" s="76"/>
+      <c r="E35" s="76"/>
+      <c r="F35" s="76"/>
       <c r="G35" s="43"/>
-      <c r="H35" s="113"/>
-      <c r="I35" s="113"/>
-      <c r="J35" s="113"/>
-      <c r="K35" s="108" t="e">
+      <c r="H35" s="77"/>
+      <c r="I35" s="77"/>
+      <c r="J35" s="77"/>
+      <c r="K35" s="72" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L35" s="109"/>
+      <c r="L35" s="73"/>
     </row>
     <row r="36" spans="1:19" ht="19.5" customHeight="1">
-      <c r="A36" s="111"/>
-      <c r="B36" s="104"/>
-      <c r="C36" s="105"/>
-      <c r="D36" s="112"/>
-      <c r="E36" s="112"/>
-      <c r="F36" s="112"/>
+      <c r="A36" s="75"/>
+      <c r="B36" s="68"/>
+      <c r="C36" s="69"/>
+      <c r="D36" s="76"/>
+      <c r="E36" s="76"/>
+      <c r="F36" s="76"/>
       <c r="G36" s="43"/>
-      <c r="H36" s="113"/>
-      <c r="I36" s="113"/>
-      <c r="J36" s="113"/>
-      <c r="K36" s="108" t="e">
+      <c r="H36" s="77"/>
+      <c r="I36" s="77"/>
+      <c r="J36" s="77"/>
+      <c r="K36" s="72" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L36" s="109"/>
+      <c r="L36" s="73"/>
     </row>
     <row r="37" spans="1:19" ht="19.5" customHeight="1">
-      <c r="A37" s="103"/>
-      <c r="B37" s="104"/>
-      <c r="C37" s="105"/>
-      <c r="D37" s="112"/>
-      <c r="E37" s="112"/>
-      <c r="F37" s="112"/>
+      <c r="A37" s="67"/>
+      <c r="B37" s="68"/>
+      <c r="C37" s="69"/>
+      <c r="D37" s="76"/>
+      <c r="E37" s="76"/>
+      <c r="F37" s="76"/>
       <c r="G37" s="43"/>
-      <c r="H37" s="107"/>
-      <c r="I37" s="107"/>
-      <c r="J37" s="107"/>
-      <c r="K37" s="108" t="e">
+      <c r="H37" s="71"/>
+      <c r="I37" s="71"/>
+      <c r="J37" s="71"/>
+      <c r="K37" s="72" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L37" s="114"/>
-      <c r="P37" s="116"/>
-      <c r="Q37" s="116"/>
-      <c r="R37" s="116"/>
-      <c r="S37" s="116"/>
+      <c r="L37" s="78"/>
+      <c r="P37" s="149"/>
+      <c r="Q37" s="149"/>
+      <c r="R37" s="149"/>
+      <c r="S37" s="149"/>
     </row>
     <row r="38" spans="1:19" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A38" s="111"/>
-      <c r="B38" s="104"/>
-      <c r="C38" s="105"/>
-      <c r="D38" s="117"/>
-      <c r="E38" s="117"/>
-      <c r="F38" s="117"/>
+      <c r="A38" s="75"/>
+      <c r="B38" s="68"/>
+      <c r="C38" s="69"/>
+      <c r="D38" s="79"/>
+      <c r="E38" s="79"/>
+      <c r="F38" s="79"/>
       <c r="G38" s="43"/>
-      <c r="H38" s="113"/>
-      <c r="I38" s="113"/>
-      <c r="J38" s="113"/>
-      <c r="K38" s="108" t="e">
+      <c r="H38" s="77"/>
+      <c r="I38" s="77"/>
+      <c r="J38" s="77"/>
+      <c r="K38" s="72" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L38" s="109"/>
+      <c r="L38" s="73"/>
     </row>
     <row r="39" spans="1:19" ht="16.5" customHeight="1">
-      <c r="A39" s="48" t="s">
+      <c r="A39" s="130" t="s">
         <v>19</v>
       </c>
-      <c r="B39" s="49"/>
-      <c r="C39" s="50"/>
-      <c r="D39" s="118" t="e">
+      <c r="B39" s="131"/>
+      <c r="C39" s="132"/>
+      <c r="D39" s="80" t="e">
         <f>AVERAGE(D9:D38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E39" s="118" t="e">
+      <c r="E39" s="80" t="e">
         <f>AVERAGE(E9:E38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F39" s="118" t="e">
+      <c r="F39" s="80" t="e">
         <f>AVERAGE(F9:F38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G39" s="119" t="e">
+      <c r="G39" s="81" t="e">
         <f>AVERAGE(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H39" s="120" t="e">
+      <c r="H39" s="125" t="e">
         <f>AVERAGE(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I39" s="120"/>
-      <c r="J39" s="120"/>
-      <c r="K39" s="120"/>
-      <c r="L39" s="121" t="e">
+      <c r="I39" s="125"/>
+      <c r="J39" s="125"/>
+      <c r="K39" s="125"/>
+      <c r="L39" s="82" t="e">
         <f>AVERAGE(L9:L38)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="40" spans="1:19" ht="16.5" customHeight="1">
-      <c r="A40" s="51" t="s">
+      <c r="A40" s="133" t="s">
         <v>20</v>
       </c>
-      <c r="B40" s="52"/>
-      <c r="C40" s="53"/>
-      <c r="D40" s="122">
+      <c r="B40" s="134"/>
+      <c r="C40" s="135"/>
+      <c r="D40" s="83">
         <f>MIN(D9:D38)</f>
         <v>0</v>
       </c>
-      <c r="E40" s="122">
+      <c r="E40" s="83">
         <f>MIN(E9:E38)</f>
         <v>0</v>
       </c>
-      <c r="F40" s="122">
+      <c r="F40" s="83">
         <f>MIN(F9:F38)</f>
         <v>0</v>
       </c>
-      <c r="G40" s="123">
+      <c r="G40" s="84">
         <f>MIN(G9:G38)</f>
         <v>0</v>
       </c>
-      <c r="H40" s="124" t="e">
+      <c r="H40" s="123" t="e">
         <f>MIN(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I40" s="124"/>
-      <c r="J40" s="124"/>
-      <c r="K40" s="124"/>
-      <c r="L40" s="125">
+      <c r="I40" s="123"/>
+      <c r="J40" s="123"/>
+      <c r="K40" s="123"/>
+      <c r="L40" s="85">
         <f>MIN(L9:L38)</f>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:19" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A41" s="54" t="s">
+      <c r="A41" s="113" t="s">
         <v>21</v>
       </c>
-      <c r="B41" s="55"/>
-      <c r="C41" s="56"/>
-      <c r="D41" s="126">
+      <c r="B41" s="114"/>
+      <c r="C41" s="115"/>
+      <c r="D41" s="86">
         <f>MAX(D9:D38)</f>
         <v>0</v>
       </c>
-      <c r="E41" s="126">
+      <c r="E41" s="86">
         <f>MAX(E9:E38)</f>
         <v>0</v>
       </c>
-      <c r="F41" s="126">
+      <c r="F41" s="86">
         <f>MAX(F9:F38)</f>
         <v>0</v>
       </c>
-      <c r="G41" s="127">
+      <c r="G41" s="87">
         <f>MAX(G9:G38)</f>
         <v>0</v>
       </c>
-      <c r="H41" s="128" t="e">
+      <c r="H41" s="124" t="e">
         <f>MAX(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I41" s="128"/>
-      <c r="J41" s="128"/>
-      <c r="K41" s="128"/>
-      <c r="L41" s="129">
+      <c r="I41" s="124"/>
+      <c r="J41" s="124"/>
+      <c r="K41" s="124"/>
+      <c r="L41" s="88">
         <f>MAX(L9:L38)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:19" s="60" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A42" s="130" t="s">
+    <row r="42" spans="1:19" s="48" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A42" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="131"/>
-      <c r="C42" s="131"/>
-      <c r="D42" s="132" t="s">
+      <c r="B42" s="126"/>
+      <c r="C42" s="126"/>
+      <c r="D42" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="E42" s="132"/>
-      <c r="F42" s="110"/>
-      <c r="G42" s="133" t="s">
+      <c r="E42" s="90"/>
+      <c r="F42" s="74"/>
+      <c r="G42" s="150" t="s">
         <v>14</v>
       </c>
-      <c r="H42" s="133"/>
-      <c r="I42" s="134"/>
-      <c r="J42" s="134"/>
-      <c r="K42" s="134"/>
-      <c r="L42" s="135" t="s">
+      <c r="H42" s="150"/>
+      <c r="I42" s="127"/>
+      <c r="J42" s="127"/>
+      <c r="K42" s="127"/>
+      <c r="L42" s="91" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:19" s="60" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A43" s="130"/>
-      <c r="B43" s="136"/>
-      <c r="C43" s="136"/>
-      <c r="D43" s="137"/>
-      <c r="E43" s="130"/>
-      <c r="F43" s="110"/>
-      <c r="G43" s="110"/>
-      <c r="H43" s="138"/>
-      <c r="I43" s="139"/>
-      <c r="J43" s="139"/>
-      <c r="K43" s="139"/>
-    </row>
-    <row r="44" spans="1:19" s="75" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A44" s="140" t="s">
+    <row r="43" spans="1:19" s="48" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A43" s="89"/>
+      <c r="B43" s="128"/>
+      <c r="C43" s="128"/>
+      <c r="D43" s="92"/>
+      <c r="E43" s="89"/>
+      <c r="F43" s="74"/>
+      <c r="G43" s="74"/>
+      <c r="H43" s="93"/>
+      <c r="I43" s="129"/>
+      <c r="J43" s="129"/>
+      <c r="K43" s="129"/>
+    </row>
+    <row r="44" spans="1:19" s="57" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A44" s="151" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="140"/>
-      <c r="C44" s="140"/>
-      <c r="E44" s="65" t="s">
+      <c r="B44" s="151"/>
+      <c r="C44" s="151"/>
+      <c r="E44" s="51" t="s">
         <v>122</v>
       </c>
-      <c r="F44" s="116" t="s">
+      <c r="F44" s="149" t="s">
         <v>123</v>
       </c>
-      <c r="G44" s="116"/>
-    </row>
-    <row r="45" spans="1:19" s="60" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A45" s="115" t="s">
+      <c r="G44" s="149"/>
+    </row>
+    <row r="45" spans="1:19" s="48" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A45" s="152" t="s">
         <v>17</v>
       </c>
-      <c r="B45" s="115"/>
-      <c r="C45" s="135"/>
-      <c r="D45" s="110"/>
-      <c r="E45" s="110"/>
-      <c r="F45" s="110"/>
-      <c r="G45" s="110"/>
-      <c r="H45" s="110"/>
-      <c r="I45" s="110"/>
-      <c r="J45" s="141" t="s">
+      <c r="B45" s="152"/>
+      <c r="C45" s="91"/>
+      <c r="D45" s="74"/>
+      <c r="E45" s="74"/>
+      <c r="F45" s="74"/>
+      <c r="G45" s="74"/>
+      <c r="H45" s="74"/>
+      <c r="I45" s="74"/>
+      <c r="J45" s="153" t="s">
         <v>114</v>
       </c>
-      <c r="K45" s="141"/>
+      <c r="K45" s="153"/>
     </row>
     <row r="48" spans="1:19" ht="15.75" customHeight="1">
-      <c r="B48" s="142" t="s">
+      <c r="B48" s="94" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="52" spans="10:10" ht="15.75" customHeight="1">
-      <c r="J52" s="143"/>
+      <c r="J52" s="95"/>
     </row>
     <row r="76" spans="3:12" ht="15.75" customHeight="1">
-      <c r="C76" s="144"/>
-      <c r="D76" s="144"/>
-      <c r="G76" s="144"/>
-      <c r="H76" s="144"/>
-      <c r="I76" s="144"/>
-      <c r="J76" s="144"/>
-      <c r="K76" s="144"/>
-      <c r="L76" s="144"/>
+      <c r="C76" s="112"/>
+      <c r="D76" s="112"/>
+      <c r="G76" s="112"/>
+      <c r="H76" s="112"/>
+      <c r="I76" s="112"/>
+      <c r="J76" s="112"/>
+      <c r="K76" s="112"/>
+      <c r="L76" s="112"/>
     </row>
     <row r="77" spans="3:12" ht="15.75" customHeight="1">
-      <c r="C77" s="144"/>
-      <c r="D77" s="144"/>
-      <c r="E77" s="144"/>
-      <c r="G77" s="144"/>
-      <c r="H77" s="144"/>
-      <c r="I77" s="144"/>
-      <c r="J77" s="144"/>
-      <c r="K77" s="144"/>
-      <c r="L77" s="144"/>
+      <c r="C77" s="112"/>
+      <c r="D77" s="112"/>
+      <c r="E77" s="112"/>
+      <c r="G77" s="112"/>
+      <c r="H77" s="112"/>
+      <c r="I77" s="112"/>
+      <c r="J77" s="112"/>
+      <c r="K77" s="112"/>
+      <c r="L77" s="112"/>
     </row>
     <row r="78" spans="3:12" ht="15.75" customHeight="1">
-      <c r="C78" s="144"/>
-      <c r="D78" s="144"/>
-      <c r="G78" s="144"/>
-      <c r="H78" s="144"/>
-      <c r="I78" s="144"/>
-      <c r="J78" s="144"/>
-      <c r="K78" s="144"/>
-      <c r="L78" s="144"/>
+      <c r="C78" s="112"/>
+      <c r="D78" s="112"/>
+      <c r="G78" s="112"/>
+      <c r="H78" s="112"/>
+      <c r="I78" s="112"/>
+      <c r="J78" s="112"/>
+      <c r="K78" s="112"/>
+      <c r="L78" s="112"/>
     </row>
     <row r="79" spans="3:12" ht="15.75" customHeight="1">
-      <c r="C79" s="144"/>
-      <c r="D79" s="144"/>
+      <c r="C79" s="112"/>
+      <c r="D79" s="112"/>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -7078,169 +7079,169 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="12.85546875" style="110" customWidth="1"/>
-    <col min="4" max="11" width="21.42578125" style="110" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="110"/>
+    <col min="1" max="3" width="12.85546875" style="74" customWidth="1"/>
+    <col min="4" max="11" width="21.42578125" style="74" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="74"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="60" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="57" t="s">
+    <row r="1" spans="1:11" s="48" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A1" s="136" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="59" t="s">
+      <c r="B1" s="136"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="136"/>
+      <c r="I1" s="136"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="47" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="60" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="61" t="s">
+    <row r="2" spans="1:11" s="48" customFormat="1" ht="15" customHeight="1">
+      <c r="A2" s="137" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="63" t="s">
+      <c r="B2" s="137"/>
+      <c r="C2" s="137"/>
+      <c r="D2" s="137"/>
+      <c r="E2" s="137"/>
+      <c r="F2" s="137"/>
+      <c r="G2" s="137"/>
+      <c r="H2" s="137"/>
+      <c r="I2" s="137"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="50" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="60" customFormat="1" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A3" s="64"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="65" t="s">
+    <row r="3" spans="1:11" s="48" customFormat="1" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A3" s="138"/>
+      <c r="B3" s="138"/>
+      <c r="C3" s="138"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="138"/>
+      <c r="F3" s="138"/>
+      <c r="G3" s="138"/>
+      <c r="H3" s="138"/>
+      <c r="I3" s="138"/>
+      <c r="J3" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="66"/>
-    </row>
-    <row r="4" spans="1:11" s="75" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A4" s="145" t="s">
+      <c r="K3" s="52"/>
+    </row>
+    <row r="4" spans="1:11" s="57" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A4" s="162" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="146"/>
-      <c r="C4" s="147">
+      <c r="B4" s="163"/>
+      <c r="C4" s="164">
         <f>Page1!C4</f>
         <v>0</v>
       </c>
-      <c r="D4" s="148"/>
-      <c r="E4" s="70" t="s">
+      <c r="D4" s="165"/>
+      <c r="E4" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="149">
+      <c r="F4" s="96">
         <f>Page1!F4</f>
         <v>0</v>
       </c>
-      <c r="G4" s="72" t="s">
+      <c r="G4" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="150">
+      <c r="H4" s="97">
         <f>Page1!H4</f>
         <v>0</v>
       </c>
-      <c r="I4" s="72" t="s">
+      <c r="I4" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="151">
+      <c r="J4" s="159">
         <f>Page1!L4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="152"/>
-    </row>
-    <row r="5" spans="1:11" s="75" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A5" s="153" t="s">
+      <c r="K4" s="160"/>
+    </row>
+    <row r="5" spans="1:11" s="57" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+      <c r="A5" s="169" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="154"/>
-      <c r="C5" s="155">
+      <c r="B5" s="170"/>
+      <c r="C5" s="171">
         <f>Page1!C5</f>
         <v>0</v>
       </c>
-      <c r="D5" s="156"/>
-      <c r="E5" s="79" t="s">
+      <c r="D5" s="172"/>
+      <c r="E5" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="157">
+      <c r="F5" s="98">
         <f>Page1!F5</f>
         <v>0</v>
       </c>
-      <c r="G5" s="158" t="s">
+      <c r="G5" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="159">
+      <c r="H5" s="100">
         <f>Page1!H5</f>
         <v>0</v>
       </c>
-      <c r="I5" s="158" t="s">
+      <c r="I5" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="160">
+      <c r="J5" s="166">
         <f>Page1!L5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="161"/>
+      <c r="K5" s="167"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="173" t="s">
         <v>112</v>
       </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="162"/>
-      <c r="E6" s="162"/>
-      <c r="F6" s="162"/>
-      <c r="G6" s="162"/>
-      <c r="H6" s="162"/>
-      <c r="I6" s="162"/>
-      <c r="J6" s="162"/>
-      <c r="K6" s="163"/>
-    </row>
-    <row r="7" spans="1:11" s="99" customFormat="1" ht="61.5" customHeight="1">
-      <c r="A7" s="93" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="94"/>
-      <c r="C7" s="94"/>
-      <c r="D7" s="164" t="s">
+      <c r="B6" s="174"/>
+      <c r="C6" s="174"/>
+      <c r="D6" s="161"/>
+      <c r="E6" s="161"/>
+      <c r="F6" s="161"/>
+      <c r="G6" s="161"/>
+      <c r="H6" s="161"/>
+      <c r="I6" s="161"/>
+      <c r="J6" s="161"/>
+      <c r="K6" s="168"/>
+    </row>
+    <row r="7" spans="1:11" s="65" customFormat="1" ht="61.5" customHeight="1">
+      <c r="A7" s="119" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="120"/>
+      <c r="C7" s="120"/>
+      <c r="D7" s="101" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="164" t="s">
+      <c r="E7" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="164" t="s">
+      <c r="F7" s="101" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="164" t="s">
+      <c r="G7" s="101" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="164" t="s">
+      <c r="H7" s="101" t="s">
         <v>118</v>
       </c>
-      <c r="I7" s="164" t="s">
+      <c r="I7" s="101" t="s">
         <v>119</v>
       </c>
-      <c r="J7" s="164" t="s">
+      <c r="J7" s="101" t="s">
         <v>120</v>
       </c>
-      <c r="K7" s="165" t="s">
+      <c r="K7" s="102" t="s">
         <v>121</v>
       </c>
     </row>
@@ -7257,14 +7258,14 @@
         <f>Page1!C9</f>
         <v>0</v>
       </c>
-      <c r="D8" s="112"/>
-      <c r="E8" s="112"/>
-      <c r="F8" s="112"/>
-      <c r="G8" s="112"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="76"/>
       <c r="H8" s="43"/>
-      <c r="I8" s="113"/>
-      <c r="J8" s="113"/>
-      <c r="K8" s="166"/>
+      <c r="I8" s="77"/>
+      <c r="J8" s="77"/>
+      <c r="K8" s="103"/>
     </row>
     <row r="9" spans="1:11" ht="18.95" customHeight="1">
       <c r="A9" s="40">
@@ -7279,14 +7280,14 @@
         <f>Page1!C10</f>
         <v>0</v>
       </c>
-      <c r="D9" s="112"/>
-      <c r="E9" s="112"/>
-      <c r="F9" s="112"/>
-      <c r="G9" s="112"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="76"/>
       <c r="H9" s="43"/>
-      <c r="I9" s="107"/>
-      <c r="J9" s="107"/>
-      <c r="K9" s="167"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="71"/>
+      <c r="K9" s="104"/>
     </row>
     <row r="10" spans="1:11" ht="18.95" customHeight="1">
       <c r="A10" s="40">
@@ -7301,14 +7302,14 @@
         <f>Page1!C11</f>
         <v>0</v>
       </c>
-      <c r="D10" s="112"/>
-      <c r="E10" s="112"/>
-      <c r="F10" s="112"/>
-      <c r="G10" s="112"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="76"/>
       <c r="H10" s="43"/>
-      <c r="I10" s="113"/>
-      <c r="J10" s="113"/>
-      <c r="K10" s="166"/>
+      <c r="I10" s="77"/>
+      <c r="J10" s="77"/>
+      <c r="K10" s="103"/>
     </row>
     <row r="11" spans="1:11" ht="18.95" customHeight="1">
       <c r="A11" s="40">
@@ -7323,14 +7324,14 @@
         <f>Page1!C12</f>
         <v>0</v>
       </c>
-      <c r="D11" s="112"/>
-      <c r="E11" s="112"/>
-      <c r="F11" s="112"/>
-      <c r="G11" s="112"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="76"/>
       <c r="H11" s="43"/>
-      <c r="I11" s="107"/>
-      <c r="J11" s="107"/>
-      <c r="K11" s="167"/>
+      <c r="I11" s="71"/>
+      <c r="J11" s="71"/>
+      <c r="K11" s="104"/>
     </row>
     <row r="12" spans="1:11" ht="18.95" customHeight="1">
       <c r="A12" s="40">
@@ -7345,14 +7346,14 @@
         <f>Page1!C13</f>
         <v>0</v>
       </c>
-      <c r="D12" s="112"/>
-      <c r="E12" s="112"/>
-      <c r="F12" s="112"/>
-      <c r="G12" s="112"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="76"/>
       <c r="H12" s="43"/>
-      <c r="I12" s="113"/>
-      <c r="J12" s="113"/>
-      <c r="K12" s="166"/>
+      <c r="I12" s="77"/>
+      <c r="J12" s="77"/>
+      <c r="K12" s="103"/>
     </row>
     <row r="13" spans="1:11" ht="18.95" customHeight="1">
       <c r="A13" s="40">
@@ -7367,14 +7368,14 @@
         <f>Page1!C14</f>
         <v>0</v>
       </c>
-      <c r="D13" s="112"/>
-      <c r="E13" s="112"/>
-      <c r="F13" s="112"/>
-      <c r="G13" s="112"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="76"/>
       <c r="H13" s="43"/>
-      <c r="I13" s="107"/>
-      <c r="J13" s="107"/>
-      <c r="K13" s="167"/>
+      <c r="I13" s="71"/>
+      <c r="J13" s="71"/>
+      <c r="K13" s="104"/>
     </row>
     <row r="14" spans="1:11" ht="18.95" customHeight="1">
       <c r="A14" s="40">
@@ -7389,14 +7390,14 @@
         <f>Page1!C15</f>
         <v>0</v>
       </c>
-      <c r="D14" s="112"/>
-      <c r="E14" s="112"/>
-      <c r="F14" s="112"/>
-      <c r="G14" s="112"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="76"/>
       <c r="H14" s="43"/>
-      <c r="I14" s="113"/>
-      <c r="J14" s="113"/>
-      <c r="K14" s="166"/>
+      <c r="I14" s="77"/>
+      <c r="J14" s="77"/>
+      <c r="K14" s="103"/>
     </row>
     <row r="15" spans="1:11" ht="18.95" customHeight="1">
       <c r="A15" s="40">
@@ -7411,14 +7412,14 @@
         <f>Page1!C16</f>
         <v>0</v>
       </c>
-      <c r="D15" s="112"/>
-      <c r="E15" s="112"/>
-      <c r="F15" s="112"/>
-      <c r="G15" s="112"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="76"/>
       <c r="H15" s="43"/>
-      <c r="I15" s="113"/>
-      <c r="J15" s="113"/>
-      <c r="K15" s="166"/>
+      <c r="I15" s="77"/>
+      <c r="J15" s="77"/>
+      <c r="K15" s="103"/>
     </row>
     <row r="16" spans="1:11" ht="18.95" customHeight="1">
       <c r="A16" s="40">
@@ -7433,14 +7434,14 @@
         <f>Page1!C17</f>
         <v>0</v>
       </c>
-      <c r="D16" s="112"/>
-      <c r="E16" s="112"/>
-      <c r="F16" s="112"/>
-      <c r="G16" s="112"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
       <c r="H16" s="43"/>
-      <c r="I16" s="107"/>
-      <c r="J16" s="107"/>
-      <c r="K16" s="167"/>
+      <c r="I16" s="71"/>
+      <c r="J16" s="71"/>
+      <c r="K16" s="104"/>
     </row>
     <row r="17" spans="1:11" ht="18.95" customHeight="1">
       <c r="A17" s="40">
@@ -7455,14 +7456,14 @@
         <f>Page1!C18</f>
         <v>0</v>
       </c>
-      <c r="D17" s="112"/>
-      <c r="E17" s="112"/>
-      <c r="F17" s="112"/>
-      <c r="G17" s="112"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="76"/>
       <c r="H17" s="43"/>
-      <c r="I17" s="113"/>
-      <c r="J17" s="113"/>
-      <c r="K17" s="166"/>
+      <c r="I17" s="77"/>
+      <c r="J17" s="77"/>
+      <c r="K17" s="103"/>
     </row>
     <row r="18" spans="1:11" ht="18.95" customHeight="1">
       <c r="A18" s="40">
@@ -7477,14 +7478,14 @@
         <f>Page1!C19</f>
         <v>0</v>
       </c>
-      <c r="D18" s="112"/>
-      <c r="E18" s="112"/>
-      <c r="F18" s="112"/>
-      <c r="G18" s="112"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="76"/>
       <c r="H18" s="43"/>
-      <c r="I18" s="107"/>
-      <c r="J18" s="107"/>
-      <c r="K18" s="167"/>
+      <c r="I18" s="71"/>
+      <c r="J18" s="71"/>
+      <c r="K18" s="104"/>
     </row>
     <row r="19" spans="1:11" ht="18.95" customHeight="1">
       <c r="A19" s="40">
@@ -7499,14 +7500,14 @@
         <f>Page1!C20</f>
         <v>0</v>
       </c>
-      <c r="D19" s="112"/>
-      <c r="E19" s="112"/>
-      <c r="F19" s="112"/>
-      <c r="G19" s="112"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="76"/>
       <c r="H19" s="43"/>
-      <c r="I19" s="113"/>
-      <c r="J19" s="113"/>
-      <c r="K19" s="166"/>
+      <c r="I19" s="77"/>
+      <c r="J19" s="77"/>
+      <c r="K19" s="103"/>
     </row>
     <row r="20" spans="1:11" ht="18.95" customHeight="1">
       <c r="A20" s="40">
@@ -7521,14 +7522,14 @@
         <f>Page1!C21</f>
         <v>0</v>
       </c>
-      <c r="D20" s="112"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="112"/>
-      <c r="G20" s="112"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="76"/>
       <c r="H20" s="43"/>
-      <c r="I20" s="107"/>
-      <c r="J20" s="107"/>
-      <c r="K20" s="167"/>
+      <c r="I20" s="71"/>
+      <c r="J20" s="71"/>
+      <c r="K20" s="104"/>
     </row>
     <row r="21" spans="1:11" ht="18.95" customHeight="1">
       <c r="A21" s="40">
@@ -7543,14 +7544,14 @@
         <f>Page1!C22</f>
         <v>0</v>
       </c>
-      <c r="D21" s="112"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="112"/>
-      <c r="G21" s="112"/>
+      <c r="D21" s="76"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="76"/>
+      <c r="G21" s="76"/>
       <c r="H21" s="43"/>
-      <c r="I21" s="113"/>
-      <c r="J21" s="113"/>
-      <c r="K21" s="166"/>
+      <c r="I21" s="77"/>
+      <c r="J21" s="77"/>
+      <c r="K21" s="103"/>
     </row>
     <row r="22" spans="1:11" ht="18.95" customHeight="1">
       <c r="A22" s="40">
@@ -7565,14 +7566,14 @@
         <f>Page1!C23</f>
         <v>0</v>
       </c>
-      <c r="D22" s="112"/>
-      <c r="E22" s="112"/>
-      <c r="F22" s="112"/>
-      <c r="G22" s="112"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="76"/>
       <c r="H22" s="43"/>
-      <c r="I22" s="107"/>
-      <c r="J22" s="107"/>
-      <c r="K22" s="167"/>
+      <c r="I22" s="71"/>
+      <c r="J22" s="71"/>
+      <c r="K22" s="104"/>
     </row>
     <row r="23" spans="1:11" ht="18.95" customHeight="1">
       <c r="A23" s="40">
@@ -7587,14 +7588,14 @@
         <f>Page1!C24</f>
         <v>0</v>
       </c>
-      <c r="D23" s="112"/>
-      <c r="E23" s="112"/>
-      <c r="F23" s="112"/>
-      <c r="G23" s="112"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="76"/>
       <c r="H23" s="43"/>
-      <c r="I23" s="113"/>
-      <c r="J23" s="113"/>
-      <c r="K23" s="166"/>
+      <c r="I23" s="77"/>
+      <c r="J23" s="77"/>
+      <c r="K23" s="103"/>
     </row>
     <row r="24" spans="1:11" ht="18.95" customHeight="1">
       <c r="A24" s="40">
@@ -7609,14 +7610,14 @@
         <f>Page1!C25</f>
         <v>0</v>
       </c>
-      <c r="D24" s="112"/>
-      <c r="E24" s="112"/>
-      <c r="F24" s="112"/>
-      <c r="G24" s="112"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="76"/>
       <c r="H24" s="43"/>
-      <c r="I24" s="107"/>
-      <c r="J24" s="107"/>
-      <c r="K24" s="167"/>
+      <c r="I24" s="71"/>
+      <c r="J24" s="71"/>
+      <c r="K24" s="104"/>
     </row>
     <row r="25" spans="1:11" ht="18.95" customHeight="1">
       <c r="A25" s="40">
@@ -7631,14 +7632,14 @@
         <f>Page1!C26</f>
         <v>0</v>
       </c>
-      <c r="D25" s="112"/>
-      <c r="E25" s="112"/>
-      <c r="F25" s="112"/>
-      <c r="G25" s="112"/>
+      <c r="D25" s="76"/>
+      <c r="E25" s="76"/>
+      <c r="F25" s="76"/>
+      <c r="G25" s="76"/>
       <c r="H25" s="43"/>
-      <c r="I25" s="113"/>
-      <c r="J25" s="113"/>
-      <c r="K25" s="166"/>
+      <c r="I25" s="77"/>
+      <c r="J25" s="77"/>
+      <c r="K25" s="103"/>
     </row>
     <row r="26" spans="1:11" ht="18.95" customHeight="1">
       <c r="A26" s="40">
@@ -7653,14 +7654,14 @@
         <f>Page1!C27</f>
         <v>0</v>
       </c>
-      <c r="D26" s="112"/>
-      <c r="E26" s="112"/>
-      <c r="F26" s="112"/>
-      <c r="G26" s="112"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="76"/>
       <c r="H26" s="43"/>
-      <c r="I26" s="107"/>
-      <c r="J26" s="107"/>
-      <c r="K26" s="167"/>
+      <c r="I26" s="71"/>
+      <c r="J26" s="71"/>
+      <c r="K26" s="104"/>
     </row>
     <row r="27" spans="1:11" ht="18.95" customHeight="1">
       <c r="A27" s="40">
@@ -7675,14 +7676,14 @@
         <f>Page1!C28</f>
         <v>0</v>
       </c>
-      <c r="D27" s="112"/>
-      <c r="E27" s="112"/>
-      <c r="F27" s="112"/>
-      <c r="G27" s="112"/>
+      <c r="D27" s="76"/>
+      <c r="E27" s="76"/>
+      <c r="F27" s="76"/>
+      <c r="G27" s="76"/>
       <c r="H27" s="43"/>
-      <c r="I27" s="113"/>
-      <c r="J27" s="113"/>
-      <c r="K27" s="166"/>
+      <c r="I27" s="77"/>
+      <c r="J27" s="77"/>
+      <c r="K27" s="103"/>
     </row>
     <row r="28" spans="1:11" ht="18.95" customHeight="1">
       <c r="A28" s="40">
@@ -7697,14 +7698,14 @@
         <f>Page1!C29</f>
         <v>0</v>
       </c>
-      <c r="D28" s="112"/>
-      <c r="E28" s="112"/>
-      <c r="F28" s="112"/>
-      <c r="G28" s="112"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="76"/>
       <c r="H28" s="43"/>
-      <c r="I28" s="107"/>
-      <c r="J28" s="107"/>
-      <c r="K28" s="167"/>
+      <c r="I28" s="71"/>
+      <c r="J28" s="71"/>
+      <c r="K28" s="104"/>
     </row>
     <row r="29" spans="1:11" ht="18.95" customHeight="1">
       <c r="A29" s="40">
@@ -7719,14 +7720,14 @@
         <f>Page1!C30</f>
         <v>0</v>
       </c>
-      <c r="D29" s="112"/>
-      <c r="E29" s="112"/>
-      <c r="F29" s="112"/>
-      <c r="G29" s="112"/>
+      <c r="D29" s="76"/>
+      <c r="E29" s="76"/>
+      <c r="F29" s="76"/>
+      <c r="G29" s="76"/>
       <c r="H29" s="43"/>
-      <c r="I29" s="113"/>
-      <c r="J29" s="113"/>
-      <c r="K29" s="166"/>
+      <c r="I29" s="77"/>
+      <c r="J29" s="77"/>
+      <c r="K29" s="103"/>
     </row>
     <row r="30" spans="1:11" ht="18.95" customHeight="1">
       <c r="A30" s="40">
@@ -7741,14 +7742,14 @@
         <f>Page1!C31</f>
         <v>0</v>
       </c>
-      <c r="D30" s="112"/>
-      <c r="E30" s="112"/>
-      <c r="F30" s="112"/>
-      <c r="G30" s="112"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="76"/>
+      <c r="G30" s="76"/>
       <c r="H30" s="43"/>
-      <c r="I30" s="107"/>
-      <c r="J30" s="107"/>
-      <c r="K30" s="167"/>
+      <c r="I30" s="71"/>
+      <c r="J30" s="71"/>
+      <c r="K30" s="104"/>
     </row>
     <row r="31" spans="1:11" ht="18.95" customHeight="1">
       <c r="A31" s="40">
@@ -7763,14 +7764,14 @@
         <f>Page1!C32</f>
         <v>0</v>
       </c>
-      <c r="D31" s="112"/>
-      <c r="E31" s="112"/>
-      <c r="F31" s="112"/>
-      <c r="G31" s="112"/>
+      <c r="D31" s="76"/>
+      <c r="E31" s="76"/>
+      <c r="F31" s="76"/>
+      <c r="G31" s="76"/>
       <c r="H31" s="43"/>
-      <c r="I31" s="113"/>
-      <c r="J31" s="113"/>
-      <c r="K31" s="166"/>
+      <c r="I31" s="77"/>
+      <c r="J31" s="77"/>
+      <c r="K31" s="103"/>
     </row>
     <row r="32" spans="1:11" ht="18.95" customHeight="1">
       <c r="A32" s="40">
@@ -7785,14 +7786,14 @@
         <f>Page1!C33</f>
         <v>0</v>
       </c>
-      <c r="D32" s="112"/>
-      <c r="E32" s="112"/>
-      <c r="F32" s="112"/>
-      <c r="G32" s="112"/>
+      <c r="D32" s="76"/>
+      <c r="E32" s="76"/>
+      <c r="F32" s="76"/>
+      <c r="G32" s="76"/>
       <c r="H32" s="43"/>
-      <c r="I32" s="113"/>
-      <c r="J32" s="113"/>
-      <c r="K32" s="166"/>
+      <c r="I32" s="77"/>
+      <c r="J32" s="77"/>
+      <c r="K32" s="103"/>
     </row>
     <row r="33" spans="1:11" ht="18.95" customHeight="1">
       <c r="A33" s="40">
@@ -7807,14 +7808,14 @@
         <f>Page1!C34</f>
         <v>0</v>
       </c>
-      <c r="D33" s="112"/>
-      <c r="E33" s="112"/>
-      <c r="F33" s="112"/>
-      <c r="G33" s="112"/>
+      <c r="D33" s="76"/>
+      <c r="E33" s="76"/>
+      <c r="F33" s="76"/>
+      <c r="G33" s="76"/>
       <c r="H33" s="43"/>
-      <c r="I33" s="107"/>
-      <c r="J33" s="107"/>
-      <c r="K33" s="167"/>
+      <c r="I33" s="71"/>
+      <c r="J33" s="71"/>
+      <c r="K33" s="104"/>
     </row>
     <row r="34" spans="1:11" ht="18.95" customHeight="1">
       <c r="A34" s="40">
@@ -7829,14 +7830,14 @@
         <f>Page1!C35</f>
         <v>0</v>
       </c>
-      <c r="D34" s="112"/>
-      <c r="E34" s="112"/>
-      <c r="F34" s="112"/>
-      <c r="G34" s="112"/>
+      <c r="D34" s="76"/>
+      <c r="E34" s="76"/>
+      <c r="F34" s="76"/>
+      <c r="G34" s="76"/>
       <c r="H34" s="43"/>
-      <c r="I34" s="113"/>
-      <c r="J34" s="113"/>
-      <c r="K34" s="166"/>
+      <c r="I34" s="77"/>
+      <c r="J34" s="77"/>
+      <c r="K34" s="103"/>
     </row>
     <row r="35" spans="1:11" ht="18.95" customHeight="1">
       <c r="A35" s="40">
@@ -7851,14 +7852,14 @@
         <f>Page1!C36</f>
         <v>0</v>
       </c>
-      <c r="D35" s="112"/>
-      <c r="E35" s="112"/>
-      <c r="F35" s="112"/>
-      <c r="G35" s="112"/>
+      <c r="D35" s="76"/>
+      <c r="E35" s="76"/>
+      <c r="F35" s="76"/>
+      <c r="G35" s="76"/>
       <c r="H35" s="43"/>
-      <c r="I35" s="113"/>
-      <c r="J35" s="113"/>
-      <c r="K35" s="166"/>
+      <c r="I35" s="77"/>
+      <c r="J35" s="77"/>
+      <c r="K35" s="103"/>
     </row>
     <row r="36" spans="1:11" ht="18.95" customHeight="1">
       <c r="A36" s="40">
@@ -7873,14 +7874,14 @@
         <f>Page1!C37</f>
         <v>0</v>
       </c>
-      <c r="D36" s="112"/>
-      <c r="E36" s="112"/>
-      <c r="F36" s="112"/>
-      <c r="G36" s="112"/>
+      <c r="D36" s="76"/>
+      <c r="E36" s="76"/>
+      <c r="F36" s="76"/>
+      <c r="G36" s="76"/>
       <c r="H36" s="43"/>
-      <c r="I36" s="107"/>
-      <c r="J36" s="107"/>
-      <c r="K36" s="167"/>
+      <c r="I36" s="71"/>
+      <c r="J36" s="71"/>
+      <c r="K36" s="104"/>
     </row>
     <row r="37" spans="1:11" ht="18.95" customHeight="1" thickBot="1">
       <c r="A37" s="44">
@@ -7895,196 +7896,196 @@
         <f>Page1!C38</f>
         <v>0</v>
       </c>
-      <c r="D37" s="112"/>
-      <c r="E37" s="112"/>
-      <c r="F37" s="112"/>
-      <c r="G37" s="112"/>
+      <c r="D37" s="76"/>
+      <c r="E37" s="76"/>
+      <c r="F37" s="76"/>
+      <c r="G37" s="76"/>
       <c r="H37" s="43"/>
-      <c r="I37" s="113"/>
-      <c r="J37" s="113"/>
-      <c r="K37" s="166"/>
+      <c r="I37" s="77"/>
+      <c r="J37" s="77"/>
+      <c r="K37" s="103"/>
     </row>
     <row r="38" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A38" s="48" t="s">
+      <c r="A38" s="130" t="s">
         <v>19</v>
       </c>
-      <c r="B38" s="49"/>
-      <c r="C38" s="50"/>
-      <c r="D38" s="168" t="e">
+      <c r="B38" s="131"/>
+      <c r="C38" s="132"/>
+      <c r="D38" s="105" t="e">
         <f t="shared" ref="D38:K38" si="0">AVERAGE(D8:D37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E38" s="168" t="e">
+      <c r="E38" s="105" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F38" s="168" t="e">
+      <c r="F38" s="105" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G38" s="168" t="e">
+      <c r="G38" s="105" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H38" s="119" t="e">
+      <c r="H38" s="81" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I38" s="119" t="e">
+      <c r="I38" s="81" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J38" s="119" t="e">
+      <c r="J38" s="81" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K38" s="169" t="e">
+      <c r="K38" s="106" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A39" s="51" t="s">
+      <c r="A39" s="133" t="s">
         <v>20</v>
       </c>
-      <c r="B39" s="52"/>
-      <c r="C39" s="53"/>
-      <c r="D39" s="170">
+      <c r="B39" s="134"/>
+      <c r="C39" s="135"/>
+      <c r="D39" s="107">
         <f t="shared" ref="D39:K39" si="1">MIN(D8:D37)</f>
         <v>0</v>
       </c>
-      <c r="E39" s="170">
+      <c r="E39" s="107">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F39" s="170">
+      <c r="F39" s="107">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G39" s="170">
+      <c r="G39" s="107">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H39" s="123">
+      <c r="H39" s="84">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I39" s="123">
+      <c r="I39" s="84">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J39" s="123">
+      <c r="J39" s="84">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K39" s="171">
+      <c r="K39" s="108">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A40" s="54" t="s">
+      <c r="A40" s="113" t="s">
         <v>21</v>
       </c>
-      <c r="B40" s="55"/>
-      <c r="C40" s="56"/>
-      <c r="D40" s="172">
+      <c r="B40" s="114"/>
+      <c r="C40" s="115"/>
+      <c r="D40" s="109">
         <f t="shared" ref="D40:K40" si="2">MAX(D8:D37)</f>
         <v>0</v>
       </c>
-      <c r="E40" s="172">
+      <c r="E40" s="109">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F40" s="172">
+      <c r="F40" s="109">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G40" s="172">
+      <c r="G40" s="109">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H40" s="127">
+      <c r="H40" s="87">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I40" s="127">
+      <c r="I40" s="87">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J40" s="127">
+      <c r="J40" s="87">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K40" s="173">
+      <c r="K40" s="110">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="60" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A41" s="130" t="s">
+    <row r="41" spans="1:11" s="48" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A41" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="B41" s="131"/>
-      <c r="C41" s="131"/>
-      <c r="D41" s="132" t="s">
+      <c r="B41" s="126"/>
+      <c r="C41" s="126"/>
+      <c r="D41" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="E41" s="132"/>
-      <c r="F41" s="110"/>
-      <c r="G41" s="133" t="s">
+      <c r="E41" s="90"/>
+      <c r="F41" s="74"/>
+      <c r="G41" s="150" t="s">
         <v>14</v>
       </c>
-      <c r="H41" s="133"/>
-      <c r="I41" s="134"/>
-      <c r="J41" s="134"/>
-      <c r="K41" s="135" t="s">
+      <c r="H41" s="150"/>
+      <c r="I41" s="127"/>
+      <c r="J41" s="127"/>
+      <c r="K41" s="91" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="60" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A42" s="130"/>
-      <c r="B42" s="136"/>
-      <c r="C42" s="136"/>
-      <c r="D42" s="137"/>
-      <c r="E42" s="130"/>
-      <c r="F42" s="110"/>
-      <c r="G42" s="110"/>
-      <c r="H42" s="138"/>
-      <c r="I42" s="139"/>
-      <c r="J42" s="139"/>
-      <c r="K42" s="174"/>
-    </row>
-    <row r="43" spans="1:11" s="75" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A43" s="140" t="s">
+    <row r="42" spans="1:11" s="48" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A42" s="89"/>
+      <c r="B42" s="128"/>
+      <c r="C42" s="128"/>
+      <c r="D42" s="92"/>
+      <c r="E42" s="89"/>
+      <c r="F42" s="74"/>
+      <c r="G42" s="74"/>
+      <c r="H42" s="93"/>
+      <c r="I42" s="129"/>
+      <c r="J42" s="129"/>
+      <c r="K42" s="111"/>
+    </row>
+    <row r="43" spans="1:11" s="57" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A43" s="151" t="s">
         <v>12</v>
       </c>
-      <c r="B43" s="140"/>
-      <c r="C43" s="140"/>
-      <c r="E43" s="65" t="s">
+      <c r="B43" s="151"/>
+      <c r="C43" s="151"/>
+      <c r="E43" s="51" t="s">
         <v>122</v>
       </c>
-      <c r="F43" s="116" t="s">
+      <c r="F43" s="149" t="s">
         <v>123</v>
       </c>
-      <c r="G43" s="116"/>
-    </row>
-    <row r="44" spans="1:11" s="60" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A44" s="115" t="s">
+      <c r="G43" s="149"/>
+    </row>
+    <row r="44" spans="1:11" s="48" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A44" s="152" t="s">
         <v>17</v>
       </c>
-      <c r="B44" s="115"/>
-      <c r="C44" s="135"/>
-      <c r="D44" s="110"/>
-      <c r="E44" s="110"/>
-      <c r="F44" s="110"/>
-      <c r="G44" s="110"/>
-      <c r="H44" s="110"/>
-      <c r="I44" s="110"/>
-      <c r="J44" s="141" t="s">
+      <c r="B44" s="152"/>
+      <c r="C44" s="91"/>
+      <c r="D44" s="74"/>
+      <c r="E44" s="74"/>
+      <c r="F44" s="74"/>
+      <c r="G44" s="74"/>
+      <c r="H44" s="74"/>
+      <c r="I44" s="74"/>
+      <c r="J44" s="153" t="s">
         <v>115</v>
       </c>
-      <c r="K44" s="141"/>
+      <c r="K44" s="153"/>
     </row>
   </sheetData>
   <mergeCells count="24">
@@ -8104,6 +8105,7 @@
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A38:C38"/>
     <mergeCell ref="A39:C39"/>
+    <mergeCell ref="J4:K4"/>
     <mergeCell ref="A40:C40"/>
     <mergeCell ref="D6:G6"/>
     <mergeCell ref="G41:H41"/>
@@ -8111,7 +8113,6 @@
     <mergeCell ref="A2:I3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
   </mergeCells>
   <conditionalFormatting sqref="D8:D40">
     <cfRule type="cellIs" dxfId="9" priority="8" operator="lessThan">
@@ -8169,12 +8170,12 @@
   <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
     <col min="4" max="4" width="14.85546875" customWidth="1"/>
     <col min="5" max="5" width="21.7109375" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
